--- a/numerical/numerical-solution.xlsx
+++ b/numerical/numerical-solution.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denchai\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denchai\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8328" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8316" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="textbook-prob" sheetId="1" r:id="rId1"/>
-    <sheet name="C16" sheetId="2" r:id="rId2"/>
-    <sheet name="C61" sheetId="3" r:id="rId3"/>
+    <sheet name="problem-statement" sheetId="4" r:id="rId2"/>
+    <sheet name="C16" sheetId="2" r:id="rId3"/>
+    <sheet name="C61" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" iterate="1"/>
   <extLst>
@@ -26,15 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>Ex</t>
   </si>
   <si>
     <t>0,0</t>
-  </si>
-  <si>
-    <t>1.6fF</t>
   </si>
   <si>
     <t>delta E</t>
@@ -49,16 +47,10 @@
     <t>esp0</t>
   </si>
   <si>
-    <t>surface charge</t>
-  </si>
-  <si>
     <t>charge</t>
   </si>
   <si>
     <t>Total Charge</t>
-  </si>
-  <si>
-    <t>7.3pF</t>
   </si>
   <si>
     <t>E at point above #1  pointing outward from #1</t>
@@ -77,6 +69,27 @@
   </si>
   <si>
     <t>Capacitance between #1 and all other terminals including GND</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>V(0.25,0.25)</t>
+  </si>
+  <si>
+    <t>surface charge@edge</t>
+  </si>
+  <si>
+    <t>surface charge@middle point</t>
+  </si>
+  <si>
+    <t>pF/m</t>
+  </si>
+  <si>
+    <t>fF/m</t>
   </si>
 </sst>
 </file>
@@ -146,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -162,6 +175,7 @@
     <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -179,50 +193,888 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'textbook-prob'!$Q$7:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'textbook-prob'!$R$7:$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>42.857142857142861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.105305682736351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.178126028632661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1050697632"/>
+        <c:axId val="1050686752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1050697632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1050686752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1050686752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1050697632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6949440" y="4754880"/>
-          <a:ext cx="7772400" cy="10058400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -232,16 +1084,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>97972</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -264,7 +1116,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3548743" y="5007429"/>
+          <a:off x="0" y="0"/>
           <a:ext cx="7772400" cy="10058400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -540,50 +1392,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:AH56"/>
+  <dimension ref="B5:AI57"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <f>B5+0.025</f>
-        <v>2.5000000000000001E-2</v>
+        <f>B5+0.25</f>
+        <v>0.25</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:F5" si="0">C5+0.025</f>
-        <v>0.05</v>
+        <f t="shared" ref="D5:F5" si="0">C5+0.25</f>
+        <v>0.5</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>7.5000000000000011E-2</v>
+        <v>0.75</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="4">
         <v>100</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>100</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>100</v>
       </c>
+      <c r="Q6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>0</v>
       </c>
@@ -602,8 +1460,15 @@
       <c r="F7">
         <v>0</v>
       </c>
+      <c r="Q7">
+        <v>0.25</v>
+      </c>
+      <c r="R7">
+        <f ca="1">C7</f>
+        <v>42.857142857142861</v>
+      </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>0</v>
       </c>
@@ -622,16 +1487,20 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <f ca="1">D16-C7</f>
-        <v>0.24816282559348934</v>
-      </c>
-      <c r="K8">
-        <f ca="1">F28-D16</f>
-        <v>-6.7495075049519926</v>
+      <c r="Q8">
+        <f>Q7/2</f>
+        <v>0.125</v>
+      </c>
+      <c r="R8">
+        <f ca="1">D16</f>
+        <v>43.105305682736351</v>
+      </c>
+      <c r="S8">
+        <f ca="1">(R8-R7)*100/R7</f>
+        <v>0.5790465930514751</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>0</v>
       </c>
@@ -650,16 +1519,20 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <f ca="1">J8/C7</f>
-        <v>5.790465930514751E-3</v>
-      </c>
-      <c r="K9">
-        <f ca="1">K8/D16</f>
-        <v>-0.15658182671594337</v>
+      <c r="Q9">
+        <f>Q8/2</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="R9">
+        <f ca="1">F28</f>
+        <v>43.178126028632661</v>
+      </c>
+      <c r="S9">
+        <f ca="1">(R9-R8)*100/R8</f>
+        <v>0.16893592271977628</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>0</v>
       </c>
@@ -670,30 +1543,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C14">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C14" s="4">
         <v>100</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>100</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>100</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>100</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <v>100</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="4">
         <v>100</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>0</v>
       </c>
@@ -729,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>0</v>
       </c>
@@ -765,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>0</v>
       </c>
@@ -801,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>0</v>
       </c>
@@ -837,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>0</v>
       </c>
@@ -873,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>0</v>
       </c>
@@ -909,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>0</v>
       </c>
@@ -945,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:35" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>0</v>
       </c>
@@ -968,2949 +1841,3105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="C24">
+    <row r="24" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="C24" s="4">
         <v>100</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <v>100</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
         <v>100</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="4">
         <v>100</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="4">
         <v>100</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="4">
         <v>100</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="4">
         <v>100</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="4">
         <v>100</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="4">
         <v>100</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="4">
         <v>100</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="4">
         <v>100</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="4">
         <v>100</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="4">
         <v>100</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="4">
         <v>100</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
+      <c r="Q24" s="4">
+        <v>100</v>
       </c>
       <c r="T24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" s="3">
         <f ca="1">0.25*(B25+C24+D25+C26)</f>
-        <v>49.141000305843342</v>
+        <v>49.57051882171438</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:D39" ca="1" si="11">0.25*(C25+D24+E25+D26)</f>
-        <v>68.019338304279358</v>
+        <f t="shared" ref="D25:D38" ca="1" si="11">0.25*(C25+D24+E25+D26)</f>
+        <v>68.895762192416129</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25:E39" ca="1" si="12">0.25*(D25+E24+F25+E26)</f>
-        <v>76.370401382178571</v>
+        <f t="shared" ref="E25:E38" ca="1" si="12">0.25*(D25+E24+F25+E26)</f>
+        <v>77.729480326943104</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25:F39" ca="1" si="13">0.25*(E25+F24+G25+F26)</f>
-        <v>80.423105571353958</v>
+        <f t="shared" ref="F25:F38" ca="1" si="13">0.25*(E25+F24+G25+F26)</f>
+        <v>82.321052097589416</v>
       </c>
       <c r="G25">
-        <f t="shared" ref="G25:G39" ca="1" si="14">0.25*(F25+G24+H25+G26)</f>
-        <v>82.390129271396503</v>
+        <f t="shared" ref="G25:G38" ca="1" si="14">0.25*(F25+G24+H25+G26)</f>
+        <v>84.907194615980572</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25:H39" ca="1" si="15">0.25*(G25+H24+I25+H26)</f>
-        <v>83.143635349530129</v>
+        <f t="shared" ref="H25:H38" ca="1" si="15">0.25*(G25+H24+I25+H26)</f>
+        <v>86.389843507471738</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25:I26" ca="1" si="16">0.25*(H25+I24+J25+I26)</f>
-        <v>83.041329045224614</v>
+        <f t="shared" ref="I25:I38" ca="1" si="16">0.25*(H25+I24+J25+I26)</f>
+        <v>87.165660846002524</v>
       </c>
       <c r="J25">
-        <f t="shared" ref="J25:J26" ca="1" si="17">0.25*(I25+J24+K25+J26)</f>
-        <v>82.202294344773009</v>
+        <f t="shared" ref="J25:J38" ca="1" si="17">0.25*(I25+J24+K25+J26)</f>
+        <v>87.407821294539886</v>
       </c>
       <c r="K25">
-        <f t="shared" ref="K25:K26" ca="1" si="18">0.25*(J25+K24+L25+K26)</f>
-        <v>80.595633960209</v>
+        <f t="shared" ref="K25:K38" ca="1" si="18">0.25*(J25+K24+L25+K26)</f>
+        <v>87.165657666425489</v>
       </c>
       <c r="L25">
-        <f t="shared" ref="L25:L26" ca="1" si="19">0.25*(K25+L24+M25+L26)</f>
-        <v>78.043779235715846</v>
+        <f t="shared" ref="L25:L38" ca="1" si="19">0.25*(K25+L24+M25+L26)</f>
+        <v>86.389837516152056</v>
       </c>
       <c r="M25">
-        <f t="shared" ref="M25:M26" ca="1" si="20">0.25*(L25+M24+N25+M26)</f>
-        <v>74.150300614409659</v>
+        <f t="shared" ref="M25:M38" ca="1" si="20">0.25*(L25+M24+N25+M26)</f>
+        <v>84.907186525375465</v>
       </c>
       <c r="N25">
-        <f t="shared" ref="N25:N26" ca="1" si="21">0.25*(M25+N24+O25+N26)</f>
-        <v>68.089677127767487</v>
+        <f t="shared" ref="N25:N38" ca="1" si="21">0.25*(M25+N24+O25+N26)</f>
+        <v>82.321042919568654</v>
       </c>
       <c r="O25">
-        <f t="shared" ref="O25:O26" ca="1" si="22">0.25*(N25+O24+P25+O26)</f>
-        <v>58.037807760515349</v>
+        <f t="shared" ref="O25:O38" ca="1" si="22">0.25*(N25+O24+P25+O26)</f>
+        <v>77.729471307948685</v>
       </c>
       <c r="P25">
-        <f t="shared" ref="P25" ca="1" si="23">0.25*(O25+P24+Q25+P26)</f>
-        <v>39.509451940128841</v>
+        <f t="shared" ref="P25:P38" ca="1" si="23">0.25*(O25+P24+Q25+P26)</f>
+        <v>68.895754732403688</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <f t="shared" ref="Q25:Q38" ca="1" si="24">0.25*(P25+Q24+R25+Q26)</f>
+        <v>49.570514381169659</v>
       </c>
       <c r="R25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <f ca="1">-(D25-C25)</f>
-        <v>-18.878337998436017</v>
+        <f ca="1">-(C25-B25)</f>
+        <v>-49.57051882171438</v>
       </c>
       <c r="U25">
-        <f t="shared" ref="U25:U39" ca="1" si="24">-(E25-D25)</f>
-        <v>-8.3510630778992123</v>
+        <f t="shared" ref="U25:U39" ca="1" si="25">-(D25-C25)</f>
+        <v>-19.325243370701749</v>
       </c>
       <c r="V25">
-        <f t="shared" ref="V25:V39" ca="1" si="25">-(F25-E25)</f>
-        <v>-4.0527041891753868</v>
+        <f t="shared" ref="V25:V39" ca="1" si="26">-(E25-D25)</f>
+        <v>-8.8337181345269755</v>
       </c>
       <c r="W25">
-        <f t="shared" ref="W25:W39" ca="1" si="26">-(G25-F25)</f>
-        <v>-1.9670237000425459</v>
+        <f t="shared" ref="W25:W39" ca="1" si="27">-(F25-E25)</f>
+        <v>-4.5915717706463113</v>
       </c>
       <c r="X25">
-        <f t="shared" ref="X25:X39" ca="1" si="27">-(H25-G25)</f>
-        <v>-0.75350607813362558</v>
+        <f t="shared" ref="X25:X39" ca="1" si="28">-(G25-F25)</f>
+        <v>-2.5861425183911564</v>
       </c>
       <c r="Y25">
-        <f t="shared" ref="Y25:Y39" ca="1" si="28">-(I25-H25)</f>
-        <v>0.10230630430551457</v>
+        <f t="shared" ref="Y25:Y39" ca="1" si="29">-(H25-G25)</f>
+        <v>-1.4826488914911664</v>
       </c>
       <c r="Z25">
-        <f t="shared" ref="Z25:Z39" ca="1" si="29">-(J25-I25)</f>
-        <v>0.83903470045160589</v>
+        <f t="shared" ref="Z25:Z39" ca="1" si="30">-(I25-H25)</f>
+        <v>-0.77581733853078561</v>
       </c>
       <c r="AA25">
-        <f t="shared" ref="AA25:AA39" ca="1" si="30">-(K25-J25)</f>
-        <v>1.6066603845640088</v>
+        <f t="shared" ref="AA25:AA39" ca="1" si="31">-(J25-I25)</f>
+        <v>-0.24216044853736207</v>
       </c>
       <c r="AB25">
-        <f t="shared" ref="AB25:AB39" ca="1" si="31">-(L25-K25)</f>
-        <v>2.551854724493154</v>
+        <f t="shared" ref="AB25:AB39" ca="1" si="32">-(K25-J25)</f>
+        <v>0.24216362811439751</v>
       </c>
       <c r="AC25">
-        <f t="shared" ref="AC25:AC39" ca="1" si="32">-(M25-L25)</f>
-        <v>3.8934786213061869</v>
+        <f t="shared" ref="AC25:AC39" ca="1" si="33">-(L25-K25)</f>
+        <v>0.77582015027343232</v>
       </c>
       <c r="AD25">
-        <f t="shared" ref="AD25:AD39" ca="1" si="33">-(N25-M25)</f>
-        <v>6.0606234866421715</v>
+        <f t="shared" ref="AD25:AD39" ca="1" si="34">-(M25-L25)</f>
+        <v>1.482650990776591</v>
       </c>
       <c r="AE25">
-        <f t="shared" ref="AE25:AE39" ca="1" si="34">-(O25-N25)</f>
-        <v>10.051869367252138</v>
+        <f t="shared" ref="AE25:AE39" ca="1" si="35">-(N25-M25)</f>
+        <v>2.5861436058068108</v>
       </c>
       <c r="AF25">
-        <f t="shared" ref="AF25:AF39" ca="1" si="35">-(P25-O25)</f>
-        <v>18.528355820386508</v>
+        <f t="shared" ref="AF25:AF39" ca="1" si="36">-(O25-N25)</f>
+        <v>4.591571611619969</v>
       </c>
       <c r="AG25">
-        <f t="shared" ref="AG25:AG39" ca="1" si="36">-(Q25-P25)</f>
-        <v>39.509451940128841</v>
+        <f t="shared" ref="AG25:AG39" ca="1" si="37">-(P25-O25)</f>
+        <v>8.8337165755449973</v>
       </c>
       <c r="AH25">
-        <f t="shared" ref="AH25:AH39" si="37">-(R25-Q25)</f>
-        <v>-100</v>
+        <f t="shared" ref="AH25:AH39" ca="1" si="38">-(Q25-P25)</f>
+        <v>19.325240351234029</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" ref="AI25:AJ39" ca="1" si="39">-(R25-Q25)</f>
+        <v>49.570514381169659</v>
       </c>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26" ca="1" si="38">0.25*(B26+C25+D26+C27)</f>
-        <v>28.544662919094016</v>
+        <f t="shared" ref="C26" ca="1" si="40">0.25*(B26+C25+D26+C27)</f>
+        <v>29.386310252287196</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>46.5659515290955</v>
+        <v>48.283044863583228</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="12"/>
-        <v>57.039161653080939</v>
+        <v>59.701100599037659</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="13"/>
-        <v>62.931891631840756</v>
+        <v>66.647525674927266</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="14"/>
-        <v>65.993776164701899</v>
+        <v>70.917874079925326</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="15"/>
-        <v>67.143083081499341</v>
+        <v>73.486509154972254</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="16"/>
-        <v>66.819386486595278</v>
+        <v>74.864968917459422</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="17"/>
-        <v>65.17221437365842</v>
+        <v>75.299957126995821</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="18"/>
-        <v>62.136462260347137</v>
+        <v>74.864962800336144</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="19"/>
-        <v>57.42918236824471</v>
+        <v>73.486497628394787</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="20"/>
-        <v>50.467746094155316</v>
+        <v>70.917858514575556</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="21"/>
-        <v>40.170600136144898</v>
+        <v>66.647508017520749</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="22"/>
-        <v>24.552101974165062</v>
+        <v>59.701083247578666</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>48.283030511417806</v>
       </c>
       <c r="Q26">
-        <f t="shared" ref="Q26" ca="1" si="39">0.25*(P26+Q25+R26+Q27)</f>
-        <v>39.509451940128834</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>29.386301709213985</v>
       </c>
       <c r="R26">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <f t="shared" ref="T26:T39" ca="1" si="40">-(D26-C26)</f>
-        <v>-18.021288610001484</v>
+        <f t="shared" ref="T26:T39" ca="1" si="41">-(C26-B26)</f>
+        <v>-29.386310252287196</v>
       </c>
       <c r="U26">
-        <f t="shared" ca="1" si="24"/>
-        <v>-10.473210123985439</v>
+        <f t="shared" ref="U26:U39" ca="1" si="42">-(D26-C26)</f>
+        <v>-18.896734611296033</v>
       </c>
       <c r="V26">
-        <f t="shared" ca="1" si="25"/>
-        <v>-5.8927299787598173</v>
+        <f t="shared" ref="V26:V39" ca="1" si="43">-(E26-D26)</f>
+        <v>-11.418055735454431</v>
       </c>
       <c r="W26">
-        <f t="shared" ca="1" si="26"/>
-        <v>-3.0618845328611428</v>
+        <f t="shared" ref="W26:W39" ca="1" si="44">-(F26-E26)</f>
+        <v>-6.9464250758896071</v>
       </c>
       <c r="X26">
-        <f t="shared" ca="1" si="27"/>
-        <v>-1.1493069167974426</v>
+        <f t="shared" ref="X26:X39" ca="1" si="45">-(G26-F26)</f>
+        <v>-4.2703484049980602</v>
       </c>
       <c r="Y26">
-        <f t="shared" ca="1" si="28"/>
-        <v>0.32369659490406377</v>
+        <f t="shared" ref="Y26:Y39" ca="1" si="46">-(H26-G26)</f>
+        <v>-2.5686350750469273</v>
       </c>
       <c r="Z26">
-        <f t="shared" ca="1" si="29"/>
-        <v>1.6471721129368575</v>
+        <f t="shared" ref="Z26:Z39" ca="1" si="47">-(I26-H26)</f>
+        <v>-1.3784597624871679</v>
       </c>
       <c r="AA26">
-        <f t="shared" ca="1" si="30"/>
-        <v>3.0357521133112826</v>
+        <f t="shared" ref="AA26:AA39" ca="1" si="48">-(J26-I26)</f>
+        <v>-0.43498820953639949</v>
       </c>
       <c r="AB26">
-        <f t="shared" ca="1" si="31"/>
-        <v>4.7072798921024273</v>
+        <f t="shared" ref="AB26:AB39" ca="1" si="49">-(K26-J26)</f>
+        <v>0.43499432665967674</v>
       </c>
       <c r="AC26">
-        <f t="shared" ca="1" si="32"/>
-        <v>6.9614362740893938</v>
+        <f t="shared" ref="AC26:AC39" ca="1" si="50">-(L26-K26)</f>
+        <v>1.3784651719413574</v>
       </c>
       <c r="AD26">
-        <f t="shared" ca="1" si="33"/>
-        <v>10.297145958010418</v>
+        <f t="shared" ref="AD26:AD39" ca="1" si="51">-(M26-L26)</f>
+        <v>2.5686391138192306</v>
       </c>
       <c r="AE26">
-        <f t="shared" ca="1" si="34"/>
-        <v>15.618498161979836</v>
+        <f t="shared" ref="AE26:AE39" ca="1" si="52">-(N26-M26)</f>
+        <v>4.2703504970548067</v>
       </c>
       <c r="AF26">
-        <f t="shared" ca="1" si="35"/>
-        <v>24.552101974165062</v>
+        <f t="shared" ref="AF26:AF39" ca="1" si="53">-(O26-N26)</f>
+        <v>6.9464247699420838</v>
       </c>
       <c r="AG26">
-        <f t="shared" ca="1" si="36"/>
-        <v>-39.509451940128834</v>
+        <f t="shared" ref="AG26:AG39" ca="1" si="54">-(P26-O26)</f>
+        <v>11.41805273616086</v>
       </c>
       <c r="AH26">
-        <f t="shared" ca="1" si="37"/>
-        <v>-60.490548059871166</v>
+        <f t="shared" ref="AH26:AH39" ca="1" si="55">-(Q26-P26)</f>
+        <v>18.896728802203821</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" ref="AI26:AI39" ca="1" si="56">-(R26-Q26)</f>
+        <v>29.386301709213985</v>
       </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:C38" ca="1" si="41">0.25*(B27+C26+D27+C28)</f>
-        <v>18.471699841437221</v>
+        <f t="shared" ref="C27:C39" ca="1" si="57">0.25*(B27+C26+D27+C28)</f>
+        <v>19.691672566427403</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="11"/>
-        <v>32.660643239927694</v>
+        <v>35.148998624872178</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="12"/>
-        <v>42.288402069208921</v>
+        <v>46.144341128265125</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="13"/>
-        <v>48.271523138226243</v>
+        <v>53.6500633995242</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="14"/>
-        <v>51.510000674070938</v>
+        <v>58.630252786373859</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="15"/>
-        <v>52.61553432517006</v>
+        <v>61.773335059460777</v>
       </c>
       <c r="I27">
-        <f t="shared" ref="I27:I39" ca="1" si="42">0.25*(H27+I26+J27+I28)</f>
-        <v>51.920919445998749</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>63.507733128036662</v>
       </c>
       <c r="J27">
-        <f t="shared" ref="J27:J39" ca="1" si="43">0.25*(I27+J26+K27+J28)</f>
-        <v>49.530714402918221</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>64.062060323847987</v>
       </c>
       <c r="K27">
-        <f t="shared" ref="K27:K39" ca="1" si="44">0.25*(J27+K26+L27+K28)</f>
-        <v>45.34881833927642</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>63.507724417989891</v>
       </c>
       <c r="L27">
-        <f t="shared" ref="L27:L39" ca="1" si="45">0.25*(K27+L26+M27+L28)</f>
-        <v>39.068741882760555</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>61.773318647002803</v>
       </c>
       <c r="M27">
-        <f t="shared" ref="M27:M39" ca="1" si="46">0.25*(L27+M26+N27+M28)</f>
-        <v>30.12090125782197</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>58.630230623190577</v>
       </c>
       <c r="N27">
-        <f t="shared" ref="N27:N39" ca="1" si="47">0.25*(M27+N26+O27+N28)</f>
-        <v>17.572875348491717</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>53.650038257504114</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>46.144316421877477</v>
       </c>
       <c r="P27">
-        <f t="shared" ref="P27:P39" ca="1" si="48">0.25*(O27+P26+Q27+P28)</f>
-        <v>24.552101974165051</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>35.148978189117329</v>
       </c>
       <c r="Q27">
-        <f t="shared" ref="Q27:Q39" ca="1" si="49">0.25*(P27+Q26+R27+Q28)</f>
-        <v>58.037807760515335</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>19.691660402120167</v>
       </c>
       <c r="R27">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <f t="shared" ca="1" si="40"/>
-        <v>-14.188943398490473</v>
+        <f t="shared" ca="1" si="41"/>
+        <v>-19.691672566427403</v>
       </c>
       <c r="U27">
-        <f t="shared" ca="1" si="24"/>
-        <v>-9.6277588292812268</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>-15.457326058444774</v>
       </c>
       <c r="V27">
-        <f t="shared" ca="1" si="25"/>
-        <v>-5.9831210690173222</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>-10.995342503392948</v>
       </c>
       <c r="W27">
-        <f t="shared" ca="1" si="26"/>
-        <v>-3.2384775358446944</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>-7.5057222712590743</v>
       </c>
       <c r="X27">
-        <f t="shared" ca="1" si="27"/>
-        <v>-1.1055336510991225</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>-4.9801893868496592</v>
       </c>
       <c r="Y27">
-        <f t="shared" ca="1" si="28"/>
-        <v>0.69461487917131137</v>
+        <f t="shared" ca="1" si="46"/>
+        <v>-3.1430822730869181</v>
       </c>
       <c r="Z27">
-        <f t="shared" ca="1" si="29"/>
-        <v>2.3902050430805275</v>
+        <f t="shared" ca="1" si="47"/>
+        <v>-1.7343980685758851</v>
       </c>
       <c r="AA27">
-        <f t="shared" ca="1" si="30"/>
-        <v>4.1818960636418012</v>
+        <f t="shared" ca="1" si="48"/>
+        <v>-0.55432719581132517</v>
       </c>
       <c r="AB27">
-        <f t="shared" ca="1" si="31"/>
-        <v>6.2800764565158644</v>
+        <f t="shared" ca="1" si="49"/>
+        <v>0.55433590585809611</v>
       </c>
       <c r="AC27">
-        <f t="shared" ca="1" si="32"/>
-        <v>8.9478406249385856</v>
+        <f t="shared" ca="1" si="50"/>
+        <v>1.7344057709870881</v>
       </c>
       <c r="AD27">
-        <f t="shared" ca="1" si="33"/>
-        <v>12.548025909330253</v>
+        <f t="shared" ca="1" si="51"/>
+        <v>3.1430880238122256</v>
       </c>
       <c r="AE27">
-        <f t="shared" ca="1" si="34"/>
-        <v>17.572875348491717</v>
+        <f t="shared" ca="1" si="52"/>
+        <v>4.9801923656864631</v>
       </c>
       <c r="AF27">
-        <f t="shared" ca="1" si="35"/>
-        <v>-24.552101974165051</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>7.5057218356266375</v>
       </c>
       <c r="AG27">
-        <f t="shared" ca="1" si="36"/>
-        <v>-33.48570578635028</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>10.995338232760147</v>
       </c>
       <c r="AH27">
-        <f t="shared" ca="1" si="37"/>
-        <v>-41.962192239484665</v>
+        <f t="shared" ca="1" si="55"/>
+        <v>15.457317786997162</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" ca="1" si="56"/>
+        <v>19.691660402120167</v>
       </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <f t="shared" ca="1" si="41"/>
-        <v>12.68149320672717</v>
+        <f t="shared" ca="1" si="57"/>
+        <v>14.23137496982114</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="11"/>
-        <v>23.316519519969127</v>
+        <v>26.476925538781195</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="12"/>
-        <v>31.182280245600815</v>
+        <v>36.077188051031541</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>36.355798177784358</v>
+        <v>43.178117391253593</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="14"/>
-        <v>39.159169068185548</v>
+        <v>48.17971994884077</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="15"/>
-        <v>39.888134099111198</v>
+        <v>51.468825258027252</v>
       </c>
       <c r="I28">
+        <f t="shared" ca="1" si="16"/>
+        <v>53.33054785372989</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ca="1" si="17"/>
+        <v>53.932806609343643</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ca="1" si="18"/>
+        <v>53.330536980953255</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ca="1" si="19"/>
+        <v>51.468804770308381</v>
+      </c>
+      <c r="M28">
+        <f t="shared" ca="1" si="20"/>
+        <v>48.179692282474818</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ca="1" si="21"/>
+        <v>43.178086006397045</v>
+      </c>
+      <c r="O28">
+        <f t="shared" ca="1" si="22"/>
+        <v>36.077157209976249</v>
+      </c>
+      <c r="P28">
+        <f t="shared" ca="1" si="23"/>
+        <v>26.476900028769208</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" ca="1" si="24"/>
+        <v>14.231359785081189</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" ca="1" si="41"/>
+        <v>-14.23137496982114</v>
+      </c>
+      <c r="U28">
         <f t="shared" ca="1" si="42"/>
-        <v>38.718042569311429</v>
-      </c>
-      <c r="J28">
+        <v>-12.245550568960056</v>
+      </c>
+      <c r="V28">
         <f t="shared" ca="1" si="43"/>
-        <v>35.680905452739289</v>
-      </c>
-      <c r="K28">
+        <v>-9.600262512250346</v>
+      </c>
+      <c r="W28">
         <f t="shared" ca="1" si="44"/>
-        <v>30.65935481107978</v>
-      </c>
-      <c r="L28">
+        <v>-7.1009293402220521</v>
+      </c>
+      <c r="X28">
         <f t="shared" ca="1" si="45"/>
-        <v>23.376065565699118</v>
-      </c>
-      <c r="M28">
+        <v>-5.0016025575871765</v>
+      </c>
+      <c r="Y28">
         <f t="shared" ca="1" si="46"/>
-        <v>13.374241705880273</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <f t="shared" ref="O28:O39" ca="1" si="50">0.25*(N28+O27+P28+O29)</f>
-        <v>17.572875348491703</v>
-      </c>
-      <c r="P28">
+        <v>-3.2891053091864819</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" ca="1" si="47"/>
+        <v>-1.8617225957026378</v>
+      </c>
+      <c r="AA28">
         <f t="shared" ca="1" si="48"/>
-        <v>40.17060013614487</v>
-      </c>
-      <c r="Q28">
+        <v>-0.60225875561375375</v>
+      </c>
+      <c r="AB28">
         <f t="shared" ca="1" si="49"/>
-        <v>68.089677127767459</v>
-      </c>
-      <c r="R28">
-        <v>100</v>
-      </c>
-      <c r="T28">
-        <f t="shared" ca="1" si="40"/>
-        <v>-10.635026313241957</v>
-      </c>
-      <c r="U28">
-        <f t="shared" ca="1" si="24"/>
-        <v>-7.8657607256316879</v>
-      </c>
-      <c r="V28">
-        <f t="shared" ca="1" si="25"/>
-        <v>-5.1735179321835432</v>
-      </c>
-      <c r="W28">
-        <f t="shared" ca="1" si="26"/>
-        <v>-2.8033708904011903</v>
-      </c>
-      <c r="X28">
-        <f t="shared" ca="1" si="27"/>
-        <v>-0.72896503092565013</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.1700915297997696</v>
-      </c>
-      <c r="Z28">
-        <f t="shared" ca="1" si="29"/>
-        <v>3.0371371165721399</v>
-      </c>
-      <c r="AA28">
-        <f t="shared" ca="1" si="30"/>
-        <v>5.021550641659509</v>
-      </c>
-      <c r="AB28">
-        <f t="shared" ca="1" si="31"/>
-        <v>7.2832892453806615</v>
+        <v>0.60226962839038833</v>
       </c>
       <c r="AC28">
-        <f t="shared" ca="1" si="32"/>
-        <v>10.001823859818845</v>
+        <f t="shared" ca="1" si="50"/>
+        <v>1.8617322106448739</v>
       </c>
       <c r="AD28">
-        <f t="shared" ca="1" si="33"/>
-        <v>13.374241705880273</v>
+        <f t="shared" ca="1" si="51"/>
+        <v>3.2891124878335631</v>
       </c>
       <c r="AE28">
-        <f t="shared" ca="1" si="34"/>
-        <v>-17.572875348491703</v>
+        <f t="shared" ca="1" si="52"/>
+        <v>5.0016062760777729</v>
       </c>
       <c r="AF28">
-        <f t="shared" ca="1" si="35"/>
-        <v>-22.597724787653167</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>7.1009287964207957</v>
       </c>
       <c r="AG28">
-        <f t="shared" ca="1" si="36"/>
-        <v>-27.919076991622589</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>9.6002571812070414</v>
       </c>
       <c r="AH28">
-        <f t="shared" ca="1" si="37"/>
-        <v>-31.910322872232541</v>
+        <f t="shared" ca="1" si="55"/>
+        <v>12.245540243688019</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" ca="1" si="56"/>
+        <v>14.231359785081189</v>
       </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <f t="shared" ca="1" si="41"/>
-        <v>8.9377534655023343</v>
+        <f t="shared" ca="1" si="57"/>
+        <v>10.756894001569506</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="11"/>
-        <v>16.74166138762083</v>
+        <v>20.450127985767768</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="12"/>
-        <v>22.768401215440861</v>
+        <v>28.509351528549544</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="13"/>
-        <v>26.810220259124826</v>
+        <v>34.805478242958927</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="14"/>
-        <v>28.882743321775695</v>
+        <v>39.441662015731708</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="15"/>
-        <v>29.059790433777742</v>
+        <v>42.591674347355976</v>
       </c>
       <c r="I29">
+        <f t="shared" ca="1" si="16"/>
+        <v>44.412802081025106</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ca="1" si="17"/>
+        <v>45.008057370549899</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ca="1" si="18"/>
+        <v>44.41278954165297</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ca="1" si="19"/>
+        <v>42.591650719248847</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ca="1" si="20"/>
+        <v>39.441630108623727</v>
+      </c>
+      <c r="N29">
+        <f t="shared" ca="1" si="21"/>
+        <v>34.805442047384552</v>
+      </c>
+      <c r="O29">
+        <f t="shared" ca="1" si="22"/>
+        <v>28.509315960131115</v>
+      </c>
+      <c r="P29">
+        <f t="shared" ca="1" si="23"/>
+        <v>20.450098565542966</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" ca="1" si="24"/>
+        <v>10.756876489289906</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" ca="1" si="41"/>
+        <v>-10.756894001569506</v>
+      </c>
+      <c r="U29">
         <f t="shared" ca="1" si="42"/>
-        <v>27.382211279396472</v>
-      </c>
-      <c r="J29">
+        <v>-9.6932339841982618</v>
+      </c>
+      <c r="V29">
         <f t="shared" ca="1" si="43"/>
-        <v>23.815510027647729</v>
-      </c>
-      <c r="K29">
+        <v>-8.0592235427817762</v>
+      </c>
+      <c r="W29">
         <f t="shared" ca="1" si="44"/>
-        <v>18.231629886604289</v>
-      </c>
-      <c r="L29">
+        <v>-6.2961267144093824</v>
+      </c>
+      <c r="X29">
         <f t="shared" ca="1" si="45"/>
-        <v>10.401923863075851</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
+        <v>-4.6361837727727817</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" ca="1" si="46"/>
+        <v>-3.1500123316242679</v>
+      </c>
+      <c r="Z29">
         <f t="shared" ca="1" si="47"/>
-        <v>13.374241705880259</v>
-      </c>
-      <c r="O29">
+        <v>-1.8211277336691296</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" ca="1" si="48"/>
+        <v>-0.59525528952479334</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" ca="1" si="49"/>
+        <v>0.59526782889692953</v>
+      </c>
+      <c r="AC29">
         <f t="shared" ca="1" si="50"/>
-        <v>30.120901257821941</v>
-      </c>
-      <c r="P29">
-        <f t="shared" ca="1" si="48"/>
-        <v>50.467746094155281</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" ca="1" si="49"/>
-        <v>74.150300614409645</v>
-      </c>
-      <c r="R29">
-        <v>100</v>
-      </c>
-      <c r="T29">
-        <f t="shared" ca="1" si="40"/>
-        <v>-7.8039079221184959</v>
-      </c>
-      <c r="U29">
-        <f t="shared" ca="1" si="24"/>
-        <v>-6.0267398278200304</v>
-      </c>
-      <c r="V29">
-        <f t="shared" ca="1" si="25"/>
-        <v>-4.0418190436839652</v>
-      </c>
-      <c r="W29">
-        <f t="shared" ca="1" si="26"/>
-        <v>-2.0725230626508697</v>
-      </c>
-      <c r="X29">
-        <f t="shared" ca="1" si="27"/>
-        <v>-0.1770471120020467</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.6775791543812701</v>
-      </c>
-      <c r="Z29">
-        <f t="shared" ca="1" si="29"/>
-        <v>3.5667012517487429</v>
-      </c>
-      <c r="AA29">
-        <f t="shared" ca="1" si="30"/>
-        <v>5.5838801410434407</v>
-      </c>
-      <c r="AB29">
-        <f t="shared" ca="1" si="31"/>
-        <v>7.8297060235284377</v>
-      </c>
-      <c r="AC29">
-        <f t="shared" ca="1" si="32"/>
-        <v>10.401923863075851</v>
+        <v>1.8211388224041229</v>
       </c>
       <c r="AD29">
-        <f t="shared" ca="1" si="33"/>
-        <v>-13.374241705880259</v>
+        <f t="shared" ca="1" si="51"/>
+        <v>3.1500206106251198</v>
       </c>
       <c r="AE29">
-        <f t="shared" ca="1" si="34"/>
-        <v>-16.746659551941683</v>
+        <f t="shared" ca="1" si="52"/>
+        <v>4.6361880612391744</v>
       </c>
       <c r="AF29">
-        <f t="shared" ca="1" si="35"/>
-        <v>-20.346844836333339</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>6.2961260872534375</v>
       </c>
       <c r="AG29">
-        <f t="shared" ca="1" si="36"/>
-        <v>-23.682554520254364</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>8.0592173945881491</v>
       </c>
       <c r="AH29">
-        <f t="shared" ca="1" si="37"/>
-        <v>-25.849699385590355</v>
+        <f t="shared" ca="1" si="55"/>
+        <v>9.6932220762530594</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" ca="1" si="56"/>
+        <v>10.756876489289906</v>
       </c>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <f t="shared" ca="1" si="41"/>
-        <v>6.3278592676613359</v>
+        <f t="shared" ca="1" si="57"/>
+        <v>8.3460642717538054</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="11"/>
-        <v>11.943971349571004</v>
+        <v>16.057326786724012</v>
       </c>
       <c r="E30">
-        <f ca="1">0.25*(D30+E29+F30+E31)</f>
-        <v>16.339442969416982</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>22.704593176696175</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="13"/>
-        <v>19.233938321498385</v>
+        <v>28.092759692324584</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="14"/>
-        <v>20.501793526014652</v>
+        <v>32.189750484278008</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="15"/>
-        <v>20.086073034827606</v>
+        <v>35.043381355230693</v>
       </c>
       <c r="I30">
+        <f t="shared" ca="1" si="16"/>
+        <v>36.720901510979509</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ca="1" si="17"/>
+        <v>37.273804504826842</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="18"/>
+        <v>36.720887845694278</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ca="1" si="19"/>
+        <v>35.043355605550417</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ca="1" si="20"/>
+        <v>32.18971571222351</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ca="1" si="21"/>
+        <v>28.09272024674133</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ca="1" si="22"/>
+        <v>22.704554414581356</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ca="1" si="23"/>
+        <v>16.057294724850554</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ca="1" si="24"/>
+        <v>8.3460451870426624</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" ca="1" si="41"/>
+        <v>-8.3460642717538054</v>
+      </c>
+      <c r="U30">
         <f t="shared" ca="1" si="42"/>
-        <v>17.935502086848981</v>
-      </c>
-      <c r="J30">
+        <v>-7.7112625149702065</v>
+      </c>
+      <c r="V30">
         <f t="shared" ca="1" si="43"/>
-        <v>13.967293491850866</v>
-      </c>
-      <c r="K30">
+        <v>-6.6472663899721631</v>
+      </c>
+      <c r="W30">
         <f t="shared" ca="1" si="44"/>
-        <v>8.049730844613789</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
+        <v>-5.3881665156284093</v>
+      </c>
+      <c r="X30">
+        <f t="shared" ca="1" si="45"/>
+        <v>-4.0969907919534236</v>
+      </c>
+      <c r="Y30">
         <f t="shared" ca="1" si="46"/>
-        <v>10.401923863075837</v>
-      </c>
-      <c r="N30">
+        <v>-2.853630870952685</v>
+      </c>
+      <c r="Z30">
         <f t="shared" ca="1" si="47"/>
-        <v>23.37606556569909</v>
-      </c>
-      <c r="O30">
+        <v>-1.677520155748816</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" ca="1" si="48"/>
+        <v>-0.55290299384733288</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" ca="1" si="49"/>
+        <v>0.55291665913256338</v>
+      </c>
+      <c r="AC30">
         <f t="shared" ca="1" si="50"/>
-        <v>39.06874188276052</v>
-      </c>
-      <c r="P30">
-        <f t="shared" ca="1" si="48"/>
-        <v>57.429182368244675</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" ca="1" si="49"/>
-        <v>78.043779235715817</v>
-      </c>
-      <c r="R30">
-        <v>100</v>
-      </c>
-      <c r="T30">
-        <f t="shared" ca="1" si="40"/>
-        <v>-5.6161120819096686</v>
-      </c>
-      <c r="U30">
-        <f t="shared" ca="1" si="24"/>
-        <v>-4.3954716198459778</v>
-      </c>
-      <c r="V30">
-        <f t="shared" ca="1" si="25"/>
-        <v>-2.8944953520814032</v>
-      </c>
-      <c r="W30">
-        <f t="shared" ca="1" si="26"/>
-        <v>-1.2678552045162661</v>
-      </c>
-      <c r="X30">
-        <f t="shared" ca="1" si="27"/>
-        <v>0.41572049118704513</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" ca="1" si="28"/>
-        <v>2.1505709479786255</v>
-      </c>
-      <c r="Z30">
-        <f t="shared" ca="1" si="29"/>
-        <v>3.9682085949981154</v>
-      </c>
-      <c r="AA30">
-        <f t="shared" ca="1" si="30"/>
-        <v>5.9175626472370766</v>
-      </c>
-      <c r="AB30">
-        <f t="shared" ca="1" si="31"/>
-        <v>8.049730844613789</v>
-      </c>
-      <c r="AC30">
-        <f t="shared" ca="1" si="32"/>
-        <v>-10.401923863075837</v>
+        <v>1.6775322401438615</v>
       </c>
       <c r="AD30">
-        <f t="shared" ca="1" si="33"/>
-        <v>-12.974141702623253</v>
+        <f t="shared" ca="1" si="51"/>
+        <v>2.8536398933269069</v>
       </c>
       <c r="AE30">
-        <f t="shared" ca="1" si="34"/>
-        <v>-15.69267631706143</v>
+        <f t="shared" ca="1" si="52"/>
+        <v>4.0969954654821805</v>
       </c>
       <c r="AF30">
-        <f t="shared" ca="1" si="35"/>
-        <v>-18.360440485484155</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>5.3881658321599737</v>
       </c>
       <c r="AG30">
-        <f t="shared" ca="1" si="36"/>
-        <v>-20.614596867471143</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>6.6472596897308023</v>
       </c>
       <c r="AH30">
-        <f t="shared" ca="1" si="37"/>
-        <v>-21.956220764284183</v>
+        <f t="shared" ca="1" si="55"/>
+        <v>7.7112495378078911</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" ca="1" si="56"/>
+        <v>8.3460451870426624</v>
       </c>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <f t="shared" ca="1" si="41"/>
-        <v>4.429712255572003</v>
+        <f t="shared" ca="1" si="57"/>
+        <v>6.5700268857907531</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="11"/>
-        <v>8.3669217735848722</v>
+        <v>12.728506657107481</v>
       </c>
       <c r="E31">
-        <f ca="1">0.25*(D31+E30+F31+E32)</f>
-        <v>11.411460991157679</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>18.158914788754416</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="13"/>
-        <v>13.284296531437072</v>
+        <v>22.671193042644429</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="14"/>
-        <v>13.804419425956921</v>
+        <v>26.181172194416334</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="15"/>
-        <v>12.847206092669047</v>
+        <v>28.671170666363253</v>
       </c>
       <c r="I31">
+        <f t="shared" ca="1" si="16"/>
+        <v>30.153589105658085</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ca="1" si="17"/>
+        <v>30.64534283558849</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ca="1" si="18"/>
+        <v>30.153574877416197</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ca="1" si="19"/>
+        <v>28.671143855896201</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ca="1" si="20"/>
+        <v>26.181135989888311</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ca="1" si="21"/>
+        <v>22.671151972056443</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ca="1" si="22"/>
+        <v>18.158874429791133</v>
+      </c>
+      <c r="P31">
+        <f t="shared" ca="1" si="23"/>
+        <v>12.728473274409478</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ca="1" si="24"/>
+        <v>6.5700070148637177</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" ca="1" si="41"/>
+        <v>-6.5700268857907531</v>
+      </c>
+      <c r="U31">
         <f t="shared" ca="1" si="42"/>
-        <v>10.306430541320974</v>
-      </c>
-      <c r="J31">
+        <v>-6.1584797713167276</v>
+      </c>
+      <c r="V31">
         <f t="shared" ca="1" si="43"/>
-        <v>6.0684310082929596</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
+        <v>-5.430408131646935</v>
+      </c>
+      <c r="W31">
+        <f t="shared" ca="1" si="44"/>
+        <v>-4.5122782538900132</v>
+      </c>
+      <c r="X31">
         <f t="shared" ca="1" si="45"/>
-        <v>8.0497308446137747</v>
-      </c>
-      <c r="M31">
+        <v>-3.5099791517719048</v>
+      </c>
+      <c r="Y31">
         <f t="shared" ca="1" si="46"/>
-        <v>18.23162988660426</v>
-      </c>
-      <c r="N31">
+        <v>-2.4899984719469188</v>
+      </c>
+      <c r="Z31">
         <f t="shared" ca="1" si="47"/>
-        <v>30.659354811079741</v>
-      </c>
-      <c r="O31">
+        <v>-1.4824184392948325</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" ca="1" si="48"/>
+        <v>-0.49175372993040511</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" ca="1" si="49"/>
+        <v>0.49176795817229291</v>
+      </c>
+      <c r="AC31">
         <f t="shared" ca="1" si="50"/>
-        <v>45.348818339276377</v>
-      </c>
-      <c r="P31">
-        <f t="shared" ca="1" si="48"/>
-        <v>62.136462260347095</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" ca="1" si="49"/>
-        <v>80.595633960208971</v>
-      </c>
-      <c r="R31">
-        <v>100</v>
-      </c>
-      <c r="T31">
-        <f t="shared" ca="1" si="40"/>
-        <v>-3.9372095180128692</v>
-      </c>
-      <c r="U31">
-        <f t="shared" ca="1" si="24"/>
-        <v>-3.0445392175728063</v>
-      </c>
-      <c r="V31">
-        <f t="shared" ca="1" si="25"/>
-        <v>-1.872835540279393</v>
-      </c>
-      <c r="W31">
-        <f t="shared" ca="1" si="26"/>
-        <v>-0.52012289451984905</v>
-      </c>
-      <c r="X31">
-        <f t="shared" ca="1" si="27"/>
-        <v>0.95721333328787317</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" ca="1" si="28"/>
-        <v>2.540775551348073</v>
-      </c>
-      <c r="Z31">
-        <f t="shared" ca="1" si="29"/>
-        <v>4.2379995330280149</v>
-      </c>
-      <c r="AA31">
-        <f t="shared" ca="1" si="30"/>
-        <v>6.0684310082929596</v>
-      </c>
-      <c r="AB31">
-        <f t="shared" ca="1" si="31"/>
-        <v>-8.0497308446137747</v>
-      </c>
-      <c r="AC31">
-        <f t="shared" ca="1" si="32"/>
-        <v>-10.181899041990485</v>
+        <v>1.4824310215199965</v>
       </c>
       <c r="AD31">
-        <f t="shared" ca="1" si="33"/>
-        <v>-12.427724924475481</v>
+        <f t="shared" ca="1" si="51"/>
+        <v>2.4900078660078897</v>
       </c>
       <c r="AE31">
-        <f t="shared" ca="1" si="34"/>
-        <v>-14.689463528196637</v>
+        <f t="shared" ca="1" si="52"/>
+        <v>3.5099840178318686</v>
       </c>
       <c r="AF31">
-        <f t="shared" ca="1" si="35"/>
-        <v>-16.787643921070718</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>4.5122775422653092</v>
       </c>
       <c r="AG31">
-        <f t="shared" ca="1" si="36"/>
-        <v>-18.459171699861876</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>5.4304011553816558</v>
       </c>
       <c r="AH31">
-        <f t="shared" ca="1" si="37"/>
-        <v>-19.404366039791029</v>
+        <f t="shared" ca="1" si="55"/>
+        <v>6.1584662595457598</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" ca="1" si="56"/>
+        <v>6.5700070148637177</v>
       </c>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <f t="shared" ca="1" si="41"/>
-        <v>3.0240679810418016</v>
+        <f t="shared" ca="1" si="57"/>
+        <v>5.2055269497635059</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="11"/>
-        <v>5.6825424980388002</v>
+        <v>10.127742753331479</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="12"/>
-        <v>7.6551826901917845</v>
+        <v>14.531345920922396</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="13"/>
-        <v>8.6873673871352999</v>
+        <v>18.251901156596738</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="14"/>
-        <v>8.5843815537069101</v>
+        <v>21.192547342895473</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="15"/>
-        <v>7.191901368570683</v>
+        <v>23.306511012971093</v>
       </c>
       <c r="I32">
+        <f t="shared" ca="1" si="16"/>
+        <v>24.57691182729301</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ca="1" si="17"/>
+        <v>25.000373835000868</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ca="1" si="18"/>
+        <v>24.576897599050927</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ca="1" si="19"/>
+        <v>23.306484202503682</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ca="1" si="20"/>
+        <v>21.192511138366974</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ca="1" si="21"/>
+        <v>18.251860086008229</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ca="1" si="22"/>
+        <v>14.531305561958623</v>
+      </c>
+      <c r="P32">
+        <f t="shared" ca="1" si="23"/>
+        <v>10.12770937063309</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ca="1" si="24"/>
+        <v>5.2055070788362547</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="shared" ca="1" si="41"/>
+        <v>-5.2055269497635059</v>
+      </c>
+      <c r="U32">
         <f t="shared" ca="1" si="42"/>
-        <v>4.3745829774729144</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
+        <v>-4.9222158035679726</v>
+      </c>
+      <c r="V32">
+        <f t="shared" ca="1" si="43"/>
+        <v>-4.4036031675909175</v>
+      </c>
+      <c r="W32">
         <f t="shared" ca="1" si="44"/>
-        <v>6.068431008292948</v>
-      </c>
-      <c r="L32">
+        <v>-3.7205552356743414</v>
+      </c>
+      <c r="X32">
         <f t="shared" ca="1" si="45"/>
-        <v>13.967293491850839</v>
-      </c>
-      <c r="M32">
+        <v>-2.9406461862987356</v>
+      </c>
+      <c r="Y32">
         <f t="shared" ca="1" si="46"/>
-        <v>23.81551002764769</v>
-      </c>
-      <c r="N32">
+        <v>-2.1139636700756199</v>
+      </c>
+      <c r="Z32">
         <f t="shared" ca="1" si="47"/>
-        <v>35.680905452739239</v>
-      </c>
-      <c r="O32">
+        <v>-1.270400814321917</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" ca="1" si="48"/>
+        <v>-0.42346200770785813</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" ca="1" si="49"/>
+        <v>0.42347623594994133</v>
+      </c>
+      <c r="AC32">
         <f t="shared" ca="1" si="50"/>
-        <v>49.530714402918171</v>
-      </c>
-      <c r="P32">
-        <f t="shared" ca="1" si="48"/>
-        <v>65.172214373658363</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" ca="1" si="49"/>
-        <v>82.20229434477298</v>
-      </c>
-      <c r="R32">
-        <v>100</v>
-      </c>
-      <c r="T32">
-        <f t="shared" ca="1" si="40"/>
-        <v>-2.6584745169969985</v>
-      </c>
-      <c r="U32">
-        <f t="shared" ca="1" si="24"/>
-        <v>-1.9726401921529844</v>
-      </c>
-      <c r="V32">
-        <f t="shared" ca="1" si="25"/>
-        <v>-1.0321846969435153</v>
-      </c>
-      <c r="W32">
-        <f t="shared" ca="1" si="26"/>
-        <v>0.10298583342838974</v>
-      </c>
-      <c r="X32">
-        <f t="shared" ca="1" si="27"/>
-        <v>1.3924801851362272</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" ca="1" si="28"/>
-        <v>2.8173183910977686</v>
-      </c>
-      <c r="Z32">
-        <f t="shared" ca="1" si="29"/>
-        <v>4.3745829774729144</v>
-      </c>
-      <c r="AA32">
-        <f t="shared" ca="1" si="30"/>
-        <v>-6.068431008292948</v>
-      </c>
-      <c r="AB32">
-        <f t="shared" ca="1" si="31"/>
-        <v>-7.8988624835578909</v>
-      </c>
-      <c r="AC32">
-        <f t="shared" ca="1" si="32"/>
-        <v>-9.8482165357968512</v>
+        <v>1.2704133965472444</v>
       </c>
       <c r="AD32">
-        <f t="shared" ca="1" si="33"/>
-        <v>-11.865395425091549</v>
+        <f t="shared" ca="1" si="51"/>
+        <v>2.113973064136708</v>
       </c>
       <c r="AE32">
-        <f t="shared" ca="1" si="34"/>
-        <v>-13.849808950178932</v>
+        <f t="shared" ca="1" si="52"/>
+        <v>2.9406510523587457</v>
       </c>
       <c r="AF32">
-        <f t="shared" ca="1" si="35"/>
-        <v>-15.641499970740192</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>3.7205545240496054</v>
       </c>
       <c r="AG32">
-        <f t="shared" ca="1" si="36"/>
-        <v>-17.030079971114617</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>4.4035961913255335</v>
       </c>
       <c r="AH32">
-        <f t="shared" ca="1" si="37"/>
-        <v>-17.79770565522702</v>
+        <f t="shared" ca="1" si="55"/>
+        <v>4.9222022917968351</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" ca="1" si="56"/>
+        <v>5.2055070788362547</v>
       </c>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <f t="shared" ca="1" si="41"/>
-        <v>1.9840171705564049</v>
+        <f t="shared" ca="1" si="57"/>
+        <v>4.124328621197118</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="11"/>
-        <v>3.6839975473367401</v>
+        <v>8.0455763137341698</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="12"/>
-        <v>4.8393598844353605</v>
+        <v>11.586804971982634</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="13"/>
-        <v>5.225608773205427</v>
+        <v>14.612494411632753</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="14"/>
-        <v>4.6538380331647389</v>
+        <v>17.030578262248039</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="15"/>
-        <v>2.9614348504338555</v>
+        <v>18.785385758838402</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>19.847144336090516</v>
       </c>
       <c r="J33">
+        <f t="shared" ca="1" si="17"/>
+        <v>20.202314621575727</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="18"/>
+        <v>19.847130649378471</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ca="1" si="19"/>
+        <v>18.785359968783311</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ca="1" si="20"/>
+        <v>17.030543435671916</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ca="1" si="21"/>
+        <v>14.612454904199957</v>
+      </c>
+      <c r="O33">
+        <f t="shared" ca="1" si="22"/>
+        <v>11.58676614909</v>
+      </c>
+      <c r="P33">
+        <f t="shared" ca="1" si="23"/>
+        <v>8.0455442015887275</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" ca="1" si="24"/>
+        <v>4.1243095065618025</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="shared" ca="1" si="41"/>
+        <v>-4.124328621197118</v>
+      </c>
+      <c r="U33">
+        <f t="shared" ca="1" si="42"/>
+        <v>-3.9212476925370519</v>
+      </c>
+      <c r="V33">
         <f t="shared" ca="1" si="43"/>
-        <v>4.3745829774729046</v>
-      </c>
-      <c r="K33">
+        <v>-3.541228658248464</v>
+      </c>
+      <c r="W33">
         <f t="shared" ca="1" si="44"/>
-        <v>10.306430541320953</v>
-      </c>
-      <c r="L33">
+        <v>-3.0256894396501188</v>
+      </c>
+      <c r="X33">
         <f t="shared" ca="1" si="45"/>
-        <v>17.935502086848945</v>
-      </c>
-      <c r="M33">
+        <v>-2.418083850615286</v>
+      </c>
+      <c r="Y33">
         <f t="shared" ca="1" si="46"/>
-        <v>27.382211279396422</v>
-      </c>
-      <c r="N33">
+        <v>-1.7548074965903631</v>
+      </c>
+      <c r="Z33">
         <f t="shared" ca="1" si="47"/>
-        <v>38.718042569311372</v>
-      </c>
-      <c r="O33">
+        <v>-1.0617585772521139</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" ca="1" si="48"/>
+        <v>-0.35517028548521168</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" ca="1" si="49"/>
+        <v>0.35518397219725628</v>
+      </c>
+      <c r="AC33">
         <f t="shared" ca="1" si="50"/>
-        <v>51.920919445998685</v>
-      </c>
-      <c r="P33">
-        <f t="shared" ca="1" si="48"/>
-        <v>66.819386486595221</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" ca="1" si="49"/>
-        <v>83.041329045224572</v>
-      </c>
-      <c r="R33">
-        <v>100</v>
-      </c>
-      <c r="T33">
-        <f t="shared" ca="1" si="40"/>
-        <v>-1.6999803767803352</v>
-      </c>
-      <c r="U33">
-        <f t="shared" ca="1" si="24"/>
-        <v>-1.1553623370986204</v>
-      </c>
-      <c r="V33">
-        <f t="shared" ca="1" si="25"/>
-        <v>-0.38624888877006658</v>
-      </c>
-      <c r="W33">
-        <f t="shared" ca="1" si="26"/>
-        <v>0.57177074004068817</v>
-      </c>
-      <c r="X33">
-        <f t="shared" ca="1" si="27"/>
-        <v>1.6924031827308834</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" ca="1" si="28"/>
-        <v>2.9614348504338555</v>
-      </c>
-      <c r="Z33">
-        <f t="shared" ca="1" si="29"/>
-        <v>-4.3745829774729046</v>
-      </c>
-      <c r="AA33">
-        <f t="shared" ca="1" si="30"/>
-        <v>-5.9318475638480486</v>
-      </c>
-      <c r="AB33">
-        <f t="shared" ca="1" si="31"/>
-        <v>-7.6290715455279923</v>
-      </c>
-      <c r="AC33">
-        <f t="shared" ca="1" si="32"/>
-        <v>-9.4467091925474769</v>
+        <v>1.0617706805951599</v>
       </c>
       <c r="AD33">
-        <f t="shared" ca="1" si="33"/>
-        <v>-11.33583128991495</v>
+        <f t="shared" ca="1" si="51"/>
+        <v>1.754816533111395</v>
       </c>
       <c r="AE33">
-        <f t="shared" ca="1" si="34"/>
-        <v>-13.202876876687313</v>
+        <f t="shared" ca="1" si="52"/>
+        <v>2.4180885314719589</v>
       </c>
       <c r="AF33">
-        <f t="shared" ca="1" si="35"/>
-        <v>-14.898467040596536</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>3.0256887551099574</v>
       </c>
       <c r="AG33">
-        <f t="shared" ca="1" si="36"/>
-        <v>-16.221942558629351</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>3.5412219475012723</v>
       </c>
       <c r="AH33">
-        <f t="shared" ca="1" si="37"/>
-        <v>-16.958670954775428</v>
+        <f t="shared" ca="1" si="55"/>
+        <v>3.921234695026925</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" ca="1" si="56"/>
+        <v>4.1243095065618025</v>
       </c>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <f t="shared" ca="1" si="41"/>
-        <v>1.2280031538470777</v>
+        <f t="shared" ca="1" si="57"/>
+        <v>3.2462021666180325</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="11"/>
-        <v>2.2300706363163947</v>
+        <v>6.3434145468884315</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="12"/>
-        <v>2.7926505270074915</v>
+        <v>9.1577843218237245</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="13"/>
-        <v>2.7218697880863081</v>
+        <v>11.580670671187358</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="14"/>
-        <v>1.8439269553127617</v>
+        <v>13.531860285461626</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>14.957282570714618</v>
       </c>
       <c r="I34">
+        <f t="shared" ca="1" si="16"/>
+        <v>15.823937763220899</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ca="1" si="17"/>
+        <v>16.114582833928978</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ca="1" si="18"/>
+        <v>15.823925118347617</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ca="1" si="19"/>
+        <v>14.957258743810279</v>
+      </c>
+      <c r="M34">
+        <f t="shared" ca="1" si="20"/>
+        <v>13.531828109900367</v>
+      </c>
+      <c r="N34">
+        <f t="shared" ca="1" si="21"/>
+        <v>11.580634171078387</v>
+      </c>
+      <c r="O34">
+        <f t="shared" ca="1" si="22"/>
+        <v>9.1577484541474217</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ca="1" si="23"/>
+        <v>6.3433848791341951</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" ca="1" si="24"/>
+        <v>3.2461845069975164</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f t="shared" ca="1" si="41"/>
+        <v>-3.2462021666180325</v>
+      </c>
+      <c r="U34">
         <f t="shared" ca="1" si="42"/>
-        <v>2.9614348504338475</v>
-      </c>
-      <c r="J34">
+        <v>-3.097212380270399</v>
+      </c>
+      <c r="V34">
         <f t="shared" ca="1" si="43"/>
-        <v>7.1919013685706643</v>
-      </c>
-      <c r="K34">
+        <v>-2.8143697749352929</v>
+      </c>
+      <c r="W34">
         <f t="shared" ca="1" si="44"/>
-        <v>12.847206092669017</v>
-      </c>
-      <c r="L34">
+        <v>-2.4228863493636332</v>
+      </c>
+      <c r="X34">
         <f t="shared" ca="1" si="45"/>
-        <v>20.086073034827564</v>
-      </c>
-      <c r="M34">
+        <v>-1.9511896142742682</v>
+      </c>
+      <c r="Y34">
         <f t="shared" ca="1" si="46"/>
-        <v>29.059790433777692</v>
-      </c>
-      <c r="N34">
+        <v>-1.4254222852529921</v>
+      </c>
+      <c r="Z34">
         <f t="shared" ca="1" si="47"/>
-        <v>39.888134099111134</v>
-      </c>
-      <c r="O34">
+        <v>-0.86665519250628087</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" ca="1" si="48"/>
+        <v>-0.29064507070807899</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" ca="1" si="49"/>
+        <v>0.29065771558136078</v>
+      </c>
+      <c r="AC34">
         <f t="shared" ca="1" si="50"/>
-        <v>52.615534325169989</v>
-      </c>
-      <c r="P34">
-        <f t="shared" ca="1" si="48"/>
-        <v>67.14308308149927</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" ca="1" si="49"/>
-        <v>83.143635349530072</v>
-      </c>
-      <c r="R34">
-        <v>100</v>
-      </c>
-      <c r="T34">
-        <f t="shared" ca="1" si="40"/>
-        <v>-1.002067482469317</v>
-      </c>
-      <c r="U34">
-        <f t="shared" ca="1" si="24"/>
-        <v>-0.56257989069109682</v>
-      </c>
-      <c r="V34">
-        <f t="shared" ca="1" si="25"/>
-        <v>7.0780738921183417E-2</v>
-      </c>
-      <c r="W34">
-        <f t="shared" ca="1" si="26"/>
-        <v>0.87794283277354634</v>
-      </c>
-      <c r="X34">
-        <f t="shared" ca="1" si="27"/>
-        <v>1.8439269553127617</v>
-      </c>
-      <c r="Y34">
-        <f t="shared" ca="1" si="28"/>
-        <v>-2.9614348504338475</v>
-      </c>
-      <c r="Z34">
-        <f t="shared" ca="1" si="29"/>
-        <v>-4.2304665181368168</v>
-      </c>
-      <c r="AA34">
-        <f t="shared" ca="1" si="30"/>
-        <v>-5.6553047240983529</v>
-      </c>
-      <c r="AB34">
-        <f t="shared" ca="1" si="31"/>
-        <v>-7.2388669421585465</v>
-      </c>
-      <c r="AC34">
-        <f t="shared" ca="1" si="32"/>
-        <v>-8.9737173989501287</v>
+        <v>0.86666637453733841</v>
       </c>
       <c r="AD34">
-        <f t="shared" ca="1" si="33"/>
-        <v>-10.828343665333442</v>
+        <f t="shared" ca="1" si="51"/>
+        <v>1.4254306339099116</v>
       </c>
       <c r="AE34">
-        <f t="shared" ca="1" si="34"/>
-        <v>-12.727400226058855</v>
+        <f t="shared" ca="1" si="52"/>
+        <v>1.9511939388219801</v>
       </c>
       <c r="AF34">
-        <f t="shared" ca="1" si="35"/>
-        <v>-14.527548756329281</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>2.4228857169309652</v>
       </c>
       <c r="AG34">
-        <f t="shared" ca="1" si="36"/>
-        <v>-16.000552268030802</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>2.8143635750132265</v>
       </c>
       <c r="AH34">
-        <f t="shared" ca="1" si="37"/>
-        <v>-16.856364650469928</v>
+        <f t="shared" ca="1" si="55"/>
+        <v>3.0972003721366788</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" ca="1" si="56"/>
+        <v>3.2461845069975164</v>
       </c>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <f t="shared" ca="1" si="41"/>
-        <v>0.69792480851551064</v>
+        <f t="shared" ca="1" si="57"/>
+        <v>2.5170572539751874</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="11"/>
-        <v>1.215631317074269</v>
+        <v>4.9240823498668593</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="12"/>
-        <v>1.3793017991919012</v>
+        <v>7.1202299491107963</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="13"/>
-        <v>1.0252928968195523</v>
+        <v>9.0205232142795087</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>10.558886786838409</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="15"/>
-        <v>1.8439269553127564</v>
+        <v>11.687922186200254</v>
       </c>
       <c r="I35">
+        <f t="shared" ca="1" si="16"/>
+        <v>12.376716563924429</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ca="1" si="17"/>
+        <v>12.608129584655059</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ca="1" si="18"/>
+        <v>12.376705402504145</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ca="1" si="19"/>
+        <v>11.687901154586301</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ca="1" si="20"/>
+        <v>10.55885838600323</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ca="1" si="21"/>
+        <v>9.0204909962376778</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ca="1" si="22"/>
+        <v>7.1201982893068241</v>
+      </c>
+      <c r="P35">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.9240561626314525</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" ca="1" si="24"/>
+        <v>2.5170416661205874</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <f t="shared" ca="1" si="41"/>
+        <v>-2.5170572539751874</v>
+      </c>
+      <c r="U35">
         <f t="shared" ca="1" si="42"/>
-        <v>4.6538380331647256</v>
-      </c>
-      <c r="J35">
+        <v>-2.4070250958916719</v>
+      </c>
+      <c r="V35">
         <f t="shared" ca="1" si="43"/>
-        <v>8.584381553706887</v>
-      </c>
-      <c r="K35">
+        <v>-2.196147599243937</v>
+      </c>
+      <c r="W35">
         <f t="shared" ca="1" si="44"/>
-        <v>13.804419425956887</v>
-      </c>
-      <c r="L35">
+        <v>-1.9002932651687123</v>
+      </c>
+      <c r="X35">
         <f t="shared" ca="1" si="45"/>
-        <v>20.501793526014609</v>
-      </c>
-      <c r="M35">
+        <v>-1.5383635725589002</v>
+      </c>
+      <c r="Y35">
         <f t="shared" ca="1" si="46"/>
-        <v>28.882743321775642</v>
-      </c>
-      <c r="N35">
+        <v>-1.1290353993618449</v>
+      </c>
+      <c r="Z35">
         <f t="shared" ca="1" si="47"/>
-        <v>39.159169068185491</v>
-      </c>
-      <c r="O35">
+        <v>-0.68879437772417518</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" ca="1" si="48"/>
+        <v>-0.23141302073062953</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" ca="1" si="49"/>
+        <v>0.23142418215091354</v>
+      </c>
+      <c r="AC35">
         <f t="shared" ca="1" si="50"/>
-        <v>51.510000674070866</v>
-      </c>
-      <c r="P35">
-        <f t="shared" ca="1" si="48"/>
-        <v>65.993776164701814</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" ca="1" si="49"/>
-        <v>82.390129271396447</v>
-      </c>
-      <c r="R35">
-        <v>100</v>
-      </c>
-      <c r="T35">
-        <f t="shared" ca="1" si="40"/>
-        <v>-0.51770650855875833</v>
-      </c>
-      <c r="U35">
-        <f t="shared" ca="1" si="24"/>
-        <v>-0.16367048211763224</v>
-      </c>
-      <c r="V35">
-        <f t="shared" ca="1" si="25"/>
-        <v>0.35400890237234894</v>
-      </c>
-      <c r="W35">
-        <f t="shared" ca="1" si="26"/>
-        <v>1.0252928968195523</v>
-      </c>
-      <c r="X35">
-        <f t="shared" ca="1" si="27"/>
-        <v>-1.8439269553127564</v>
-      </c>
-      <c r="Y35">
-        <f t="shared" ca="1" si="28"/>
-        <v>-2.8099110778519689</v>
-      </c>
-      <c r="Z35">
-        <f t="shared" ca="1" si="29"/>
-        <v>-3.9305435205421615</v>
-      </c>
-      <c r="AA35">
-        <f t="shared" ca="1" si="30"/>
-        <v>-5.2200378722499998</v>
-      </c>
-      <c r="AB35">
-        <f t="shared" ca="1" si="31"/>
-        <v>-6.697374100057722</v>
-      </c>
-      <c r="AC35">
-        <f t="shared" ca="1" si="32"/>
-        <v>-8.3809497957610333</v>
+        <v>0.68880424791784378</v>
       </c>
       <c r="AD35">
-        <f t="shared" ca="1" si="33"/>
-        <v>-10.276425746409849</v>
+        <f t="shared" ca="1" si="51"/>
+        <v>1.1290427685830711</v>
       </c>
       <c r="AE35">
-        <f t="shared" ca="1" si="34"/>
-        <v>-12.350831605885375</v>
+        <f t="shared" ca="1" si="52"/>
+        <v>1.5383673897655523</v>
       </c>
       <c r="AF35">
-        <f t="shared" ca="1" si="35"/>
-        <v>-14.483775490630947</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>1.9002927069308537</v>
       </c>
       <c r="AG35">
-        <f t="shared" ca="1" si="36"/>
-        <v>-16.396353106694633</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>2.1961421266753716</v>
       </c>
       <c r="AH35">
-        <f t="shared" ca="1" si="37"/>
-        <v>-17.609870728603553</v>
+        <f t="shared" ca="1" si="55"/>
+        <v>2.4070144965108651</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" ca="1" si="56"/>
+        <v>2.5170416661205874</v>
       </c>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <f t="shared" ca="1" si="41"/>
-        <v>0.34806476314069584</v>
+        <f t="shared" ca="1" si="57"/>
+        <v>1.8979373482113346</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="11"/>
-        <v>0.55522802427326889</v>
+        <v>3.7156163856739033</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="12"/>
-        <v>0.48363245586629255</v>
+        <v>5.3785151192699168</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6.822287828603824</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="14"/>
-        <v>1.0252928968195492</v>
+        <v>7.9952217882508663</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="15"/>
-        <v>2.7218697880863001</v>
+        <v>8.8587819252348527</v>
       </c>
       <c r="I36">
+        <f t="shared" ca="1" si="16"/>
+        <v>9.3868554406125941</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="17"/>
+        <v>9.5644926988677739</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="18"/>
+        <v>9.386846130991044</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ca="1" si="19"/>
+        <v>8.8587643829900955</v>
+      </c>
+      <c r="M36">
+        <f t="shared" ca="1" si="20"/>
+        <v>7.9951980994173315</v>
+      </c>
+      <c r="N36">
+        <f t="shared" ca="1" si="21"/>
+        <v>6.8222609558789689</v>
+      </c>
+      <c r="O36">
+        <f t="shared" ca="1" si="22"/>
+        <v>5.3784887121653142</v>
+      </c>
+      <c r="P36">
+        <f t="shared" ca="1" si="23"/>
+        <v>3.7155945431803472</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" ca="1" si="24"/>
+        <v>1.8979243465481905</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <f t="shared" ca="1" si="41"/>
+        <v>-1.8979373482113346</v>
+      </c>
+      <c r="U36">
         <f t="shared" ca="1" si="42"/>
-        <v>5.2256087732054119</v>
-      </c>
-      <c r="J36">
+        <v>-1.8176790374625686</v>
+      </c>
+      <c r="V36">
         <f t="shared" ca="1" si="43"/>
-        <v>8.687367387135275</v>
-      </c>
-      <c r="K36">
+        <v>-1.6628987335960135</v>
+      </c>
+      <c r="W36">
         <f t="shared" ca="1" si="44"/>
-        <v>13.28429653143704</v>
-      </c>
-      <c r="L36">
+        <v>-1.4437727093339072</v>
+      </c>
+      <c r="X36">
         <f t="shared" ca="1" si="45"/>
-        <v>19.233938321498346</v>
-      </c>
-      <c r="M36">
+        <v>-1.1729339596470423</v>
+      </c>
+      <c r="Y36">
         <f t="shared" ca="1" si="46"/>
-        <v>26.810220259124783</v>
-      </c>
-      <c r="N36">
+        <v>-0.86356013698398648</v>
+      </c>
+      <c r="Z36">
         <f t="shared" ca="1" si="47"/>
-        <v>36.355798177784308</v>
-      </c>
-      <c r="O36">
+        <v>-0.52807351537774139</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" ca="1" si="48"/>
+        <v>-0.17763725825517973</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" ca="1" si="49"/>
+        <v>0.17764656787672983</v>
+      </c>
+      <c r="AC36">
         <f t="shared" ca="1" si="50"/>
-        <v>48.271523138226186</v>
-      </c>
-      <c r="P36">
-        <f t="shared" ca="1" si="48"/>
-        <v>62.931891631840699</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" ca="1" si="49"/>
-        <v>80.423105571353915</v>
-      </c>
-      <c r="R36">
-        <v>100</v>
-      </c>
-      <c r="T36">
-        <f t="shared" ca="1" si="40"/>
-        <v>-0.20716326113257305</v>
-      </c>
-      <c r="U36">
-        <f t="shared" ca="1" si="24"/>
-        <v>7.159556840697634E-2</v>
-      </c>
-      <c r="V36">
-        <f t="shared" ca="1" si="25"/>
-        <v>0.48363245586629255</v>
-      </c>
-      <c r="W36">
-        <f t="shared" ca="1" si="26"/>
-        <v>-1.0252928968195492</v>
-      </c>
-      <c r="X36">
-        <f t="shared" ca="1" si="27"/>
-        <v>-1.6965768912667509</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" ca="1" si="28"/>
-        <v>-2.5037389851191119</v>
-      </c>
-      <c r="Z36">
-        <f t="shared" ca="1" si="29"/>
-        <v>-3.4617586139298631</v>
-      </c>
-      <c r="AA36">
-        <f t="shared" ca="1" si="30"/>
-        <v>-4.5969291443017646</v>
-      </c>
-      <c r="AB36">
-        <f t="shared" ca="1" si="31"/>
-        <v>-5.9496417900613068</v>
-      </c>
-      <c r="AC36">
-        <f t="shared" ca="1" si="32"/>
-        <v>-7.5762819376264368</v>
+        <v>0.52808174800094854</v>
       </c>
       <c r="AD36">
-        <f t="shared" ca="1" si="33"/>
-        <v>-9.5455779186595251</v>
+        <f t="shared" ca="1" si="51"/>
+        <v>0.86356628357276399</v>
       </c>
       <c r="AE36">
-        <f t="shared" ca="1" si="34"/>
-        <v>-11.915724960441878</v>
+        <f t="shared" ca="1" si="52"/>
+        <v>1.1729371435383626</v>
       </c>
       <c r="AF36">
-        <f t="shared" ca="1" si="35"/>
-        <v>-14.660368493614513</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>1.4437722437136546</v>
       </c>
       <c r="AG36">
-        <f t="shared" ca="1" si="36"/>
-        <v>-17.491213939513216</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>1.662894168984967</v>
       </c>
       <c r="AH36">
-        <f t="shared" ca="1" si="37"/>
-        <v>-19.576894428646085</v>
+        <f t="shared" ca="1" si="55"/>
+        <v>1.8176701966321567</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" ca="1" si="56"/>
+        <v>1.8979243465481905</v>
       </c>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <f t="shared" ca="1" si="41"/>
-        <v>0.13910621977400375</v>
+        <f t="shared" ca="1" si="57"/>
+        <v>1.3590699257674141</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="11"/>
-        <v>0.17358356101181815</v>
+        <v>2.6619215944928132</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3.8559143526621216</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="13"/>
-        <v>0.483632455866291</v>
+        <v>4.8948769643682084</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="14"/>
-        <v>1.379301799191897</v>
+        <v>5.7409147446829625</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="15"/>
-        <v>2.7926505270074831</v>
+        <v>6.3651114451576252</v>
       </c>
       <c r="I37">
+        <f t="shared" ca="1" si="16"/>
+        <v>6.7474134386276852</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ca="1" si="17"/>
+        <v>6.8761228717623011</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ca="1" si="18"/>
+        <v>6.7474062646513939</v>
+      </c>
+      <c r="L37">
+        <f t="shared" ca="1" si="19"/>
+        <v>6.3650979271378771</v>
+      </c>
+      <c r="M37">
+        <f t="shared" ca="1" si="20"/>
+        <v>5.7408964901138422</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ca="1" si="21"/>
+        <v>4.8948562562986266</v>
+      </c>
+      <c r="O37">
+        <f t="shared" ca="1" si="22"/>
+        <v>3.8558940033986122</v>
+      </c>
+      <c r="P37">
+        <f t="shared" ca="1" si="23"/>
+        <v>2.6619047627097179</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" ca="1" si="24"/>
+        <v>1.3590599067110627</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f t="shared" ca="1" si="41"/>
+        <v>-1.3590699257674141</v>
+      </c>
+      <c r="U37">
         <f t="shared" ca="1" si="42"/>
-        <v>4.839359884435348</v>
-      </c>
-      <c r="J37">
+        <v>-1.302851668725399</v>
+      </c>
+      <c r="V37">
         <f t="shared" ca="1" si="43"/>
-        <v>7.655182690191765</v>
-      </c>
-      <c r="K37">
+        <v>-1.1939927581693084</v>
+      </c>
+      <c r="W37">
         <f t="shared" ca="1" si="44"/>
-        <v>11.411460991157654</v>
-      </c>
-      <c r="L37">
+        <v>-1.0389626117060868</v>
+      </c>
+      <c r="X37">
         <f t="shared" ca="1" si="45"/>
-        <v>16.339442969416954</v>
-      </c>
-      <c r="M37">
+        <v>-0.84603778031475407</v>
+      </c>
+      <c r="Y37">
         <f t="shared" ca="1" si="46"/>
-        <v>22.768401215440832</v>
-      </c>
-      <c r="N37">
+        <v>-0.62419670047466269</v>
+      </c>
+      <c r="Z37">
         <f t="shared" ca="1" si="47"/>
-        <v>31.182280245600783</v>
-      </c>
-      <c r="O37">
+        <v>-0.38230199347006</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" ca="1" si="48"/>
+        <v>-0.12870943313461591</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" ca="1" si="49"/>
+        <v>0.12871660711090716</v>
+      </c>
+      <c r="AC37">
         <f t="shared" ca="1" si="50"/>
-        <v>42.288402069208885</v>
-      </c>
-      <c r="P37">
-        <f t="shared" ca="1" si="48"/>
-        <v>57.039161653080903</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" ca="1" si="49"/>
-        <v>76.370401382178528</v>
-      </c>
-      <c r="R37">
-        <v>100</v>
-      </c>
-      <c r="T37">
-        <f t="shared" ca="1" si="40"/>
-        <v>-3.4477341237814402E-2</v>
-      </c>
-      <c r="U37">
-        <f t="shared" ca="1" si="24"/>
-        <v>0.17358356101181815</v>
-      </c>
-      <c r="V37">
-        <f t="shared" ca="1" si="25"/>
-        <v>-0.483632455866291</v>
-      </c>
-      <c r="W37">
-        <f t="shared" ca="1" si="26"/>
-        <v>-0.89566934332560599</v>
-      </c>
-      <c r="X37">
-        <f t="shared" ca="1" si="27"/>
-        <v>-1.4133487278155861</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" ca="1" si="28"/>
-        <v>-2.046709357427865</v>
-      </c>
-      <c r="Z37">
-        <f t="shared" ca="1" si="29"/>
-        <v>-2.815822805756417</v>
-      </c>
-      <c r="AA37">
-        <f t="shared" ca="1" si="30"/>
-        <v>-3.7562783009658887</v>
-      </c>
-      <c r="AB37">
-        <f t="shared" ca="1" si="31"/>
-        <v>-4.9279819782593002</v>
-      </c>
-      <c r="AC37">
-        <f t="shared" ca="1" si="32"/>
-        <v>-6.4289582460238783</v>
+        <v>0.38230833751351678</v>
       </c>
       <c r="AD37">
-        <f t="shared" ca="1" si="33"/>
-        <v>-8.4138790301599506</v>
+        <f t="shared" ca="1" si="51"/>
+        <v>0.62420143702403497</v>
       </c>
       <c r="AE37">
-        <f t="shared" ca="1" si="34"/>
-        <v>-11.106121823608103</v>
+        <f t="shared" ca="1" si="52"/>
+        <v>0.84604023381521554</v>
       </c>
       <c r="AF37">
-        <f t="shared" ca="1" si="35"/>
-        <v>-14.750759583872018</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>1.0389622529000144</v>
       </c>
       <c r="AG37">
-        <f t="shared" ca="1" si="36"/>
-        <v>-19.331239729097625</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>1.1939892406888943</v>
       </c>
       <c r="AH37">
-        <f t="shared" ca="1" si="37"/>
-        <v>-23.629598617821472</v>
+        <f t="shared" ca="1" si="55"/>
+        <v>1.3028448559986552</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" ca="1" si="56"/>
+        <v>1.3590599067110627</v>
       </c>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <f t="shared" ca="1" si="41"/>
-        <v>3.4776554943500938E-2</v>
+        <f t="shared" ca="1" si="57"/>
+        <v>0.87641642812246801</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1.7170789823189099</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="12"/>
-        <v>0.17358356101181754</v>
+        <v>2.4883349491851745</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="13"/>
-        <v>0.55522802427326701</v>
+        <v>3.1603805087950589</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="14"/>
-        <v>1.215631317074265</v>
+        <v>3.7084371779170313</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="15"/>
-        <v>2.230070636316388</v>
+        <v>4.1133233752747804</v>
       </c>
       <c r="I38">
+        <f t="shared" ca="1" si="16"/>
+        <v>4.3615515008204788</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ca="1" si="17"/>
+        <v>4.445166872590983</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ca="1" si="18"/>
+        <v>4.3615466542495502</v>
+      </c>
+      <c r="L38">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.1133142428161769</v>
+      </c>
+      <c r="M38">
+        <f t="shared" ca="1" si="20"/>
+        <v>3.7084248455562361</v>
+      </c>
+      <c r="N38">
+        <f t="shared" ca="1" si="21"/>
+        <v>3.1603665189066263</v>
+      </c>
+      <c r="O38">
+        <f t="shared" ca="1" si="22"/>
+        <v>2.4883212016977554</v>
+      </c>
+      <c r="P38">
+        <f t="shared" ca="1" si="23"/>
+        <v>1.7170676111591567</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" ca="1" si="24"/>
+        <v>0.87640965948187688</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <f t="shared" ca="1" si="41"/>
+        <v>-0.87641642812246801</v>
+      </c>
+      <c r="U38">
         <f t="shared" ca="1" si="42"/>
-        <v>3.6839975473367303</v>
-      </c>
-      <c r="J38">
+        <v>-0.84066255419644187</v>
+      </c>
+      <c r="V38">
         <f t="shared" ca="1" si="43"/>
-        <v>5.6825424980387869</v>
-      </c>
-      <c r="K38">
+        <v>-0.77125596686626463</v>
+      </c>
+      <c r="W38">
         <f t="shared" ca="1" si="44"/>
-        <v>8.3669217735848544</v>
-      </c>
-      <c r="L38">
+        <v>-0.67204555960988444</v>
+      </c>
+      <c r="X38">
         <f t="shared" ca="1" si="45"/>
-        <v>11.943971349570987</v>
-      </c>
-      <c r="M38">
+        <v>-0.54805666912197237</v>
+      </c>
+      <c r="Y38">
         <f t="shared" ca="1" si="46"/>
-        <v>16.741661387620812</v>
-      </c>
-      <c r="N38">
+        <v>-0.40488619735774911</v>
+      </c>
+      <c r="Z38">
         <f t="shared" ca="1" si="47"/>
-        <v>23.316519519969106</v>
-      </c>
-      <c r="O38">
+        <v>-0.2482281255456984</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" ca="1" si="48"/>
+        <v>-8.3615371770504154E-2</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" ca="1" si="49"/>
+        <v>8.3620218341432739E-2</v>
+      </c>
+      <c r="AC38">
         <f t="shared" ca="1" si="50"/>
-        <v>32.660643239927673</v>
-      </c>
-      <c r="P38">
+        <v>0.24823241143337338</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" ca="1" si="51"/>
+        <v>0.40488939725994078</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" ca="1" si="52"/>
+        <v>0.54805832664960974</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" ca="1" si="53"/>
+        <v>0.67204531720887095</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" ca="1" si="54"/>
+        <v>0.77125359053859865</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" ca="1" si="55"/>
+        <v>0.84065795167727986</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" ca="1" si="56"/>
+        <v>0.87640965948187688</v>
+      </c>
+    </row>
+    <row r="39" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="57"/>
+        <v>0.42951407532537639</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D25:D39" ca="1" si="58">0.25*(C39+D38+E39+D40)</f>
+        <v>0.84163879011826914</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E25:E39" ca="1" si="59">0.25*(D39+E38+F39+E40)</f>
+        <v>1.2199605606807131</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ref="F25:F39" ca="1" si="60">0.25*(E39+F38+G39+F40)</f>
+        <v>1.5498665783514955</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ref="G25:G39" ca="1" si="61">0.25*(F39+G38+H39+G40)</f>
+        <v>1.8191230237849998</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H25:H39" ca="1" si="62">0.25*(G39+H38+I39+H40)</f>
+        <v>2.0181859193789125</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ref="I27:I39" ca="1" si="63">0.25*(H39+I38+J39+I40)</f>
+        <v>2.1402947592896098</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ref="J27:J39" ca="1" si="64">0.25*(I39+J38+K39+J40)</f>
+        <v>2.1814390977927478</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ref="K27:K39" ca="1" si="65">0.25*(J39+K38+L39+K40)</f>
+        <v>2.1402923360041219</v>
+      </c>
+      <c r="L39">
+        <f t="shared" ref="L27:L39" ca="1" si="66">0.25*(K39+L38+M39+L40)</f>
+        <v>2.0181813531495676</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ref="M27:M39" ca="1" si="67">0.25*(L39+M38+N39+M40)</f>
+        <v>1.8191168576045458</v>
+      </c>
+      <c r="N39">
+        <f t="shared" ref="N27:N39" ca="1" si="68">0.25*(M39+N38+O39+N40)</f>
+        <v>1.5498595834072177</v>
+      </c>
+      <c r="O39">
+        <f t="shared" ref="O28:O39" ca="1" si="69">0.25*(N39+O38+P39+O40)</f>
+        <v>1.2199536869369461</v>
+      </c>
+      <c r="P39">
+        <f t="shared" ref="P27:P39" ca="1" si="70">0.25*(O39+P38+Q39+P40)</f>
+        <v>0.84163310453834783</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" ref="Q27:Q39" ca="1" si="71">0.25*(P39+Q38+R39+Q40)</f>
+        <v>0.42951069100505618</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <f t="shared" ca="1" si="41"/>
+        <v>-0.42951407532537639</v>
+      </c>
+      <c r="U39">
+        <f t="shared" ca="1" si="42"/>
+        <v>-0.41212471479289275</v>
+      </c>
+      <c r="V39">
+        <f t="shared" ca="1" si="43"/>
+        <v>-0.37832177056244398</v>
+      </c>
+      <c r="W39">
+        <f t="shared" ca="1" si="44"/>
+        <v>-0.32990601767078243</v>
+      </c>
+      <c r="X39">
+        <f t="shared" ca="1" si="45"/>
+        <v>-0.26925644543350424</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" ca="1" si="46"/>
+        <v>-0.19906289559391266</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" ca="1" si="47"/>
+        <v>-0.12210883991069732</v>
+      </c>
+      <c r="AA39">
         <f t="shared" ca="1" si="48"/>
-        <v>46.565951529095479</v>
-      </c>
-      <c r="Q38">
+        <v>-4.1144338503138034E-2</v>
+      </c>
+      <c r="AB39">
         <f t="shared" ca="1" si="49"/>
-        <v>68.01933830427933</v>
-      </c>
-      <c r="R38">
-        <v>100</v>
-      </c>
-      <c r="T38">
-        <f t="shared" ca="1" si="40"/>
-        <v>3.4776554943500938E-2</v>
-      </c>
-      <c r="U38">
-        <f t="shared" ca="1" si="24"/>
-        <v>-0.17358356101181754</v>
-      </c>
-      <c r="V38">
-        <f t="shared" ca="1" si="25"/>
-        <v>-0.38164446326144946</v>
-      </c>
-      <c r="W38">
-        <f t="shared" ca="1" si="26"/>
-        <v>-0.66040329280099797</v>
-      </c>
-      <c r="X38">
-        <f t="shared" ca="1" si="27"/>
-        <v>-1.014439319242123</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" ca="1" si="28"/>
-        <v>-1.4539269110203423</v>
-      </c>
-      <c r="Z38">
-        <f t="shared" ca="1" si="29"/>
-        <v>-1.9985449507020565</v>
-      </c>
-      <c r="AA38">
-        <f t="shared" ca="1" si="30"/>
-        <v>-2.6843792755460676</v>
-      </c>
-      <c r="AB38">
-        <f t="shared" ca="1" si="31"/>
-        <v>-3.5770495759861323</v>
-      </c>
-      <c r="AC38">
-        <f t="shared" ca="1" si="32"/>
-        <v>-4.7976900380498257</v>
-      </c>
-      <c r="AD38">
-        <f t="shared" ca="1" si="33"/>
-        <v>-6.5748581323482931</v>
-      </c>
-      <c r="AE38">
-        <f t="shared" ca="1" si="34"/>
-        <v>-9.3441237199585672</v>
-      </c>
-      <c r="AF38">
-        <f t="shared" ca="1" si="35"/>
-        <v>-13.905308289167806</v>
-      </c>
-      <c r="AG38">
-        <f t="shared" ca="1" si="36"/>
-        <v>-21.453386775183851</v>
-      </c>
-      <c r="AH38">
-        <f t="shared" ca="1" si="37"/>
-        <v>-31.98066169572067</v>
+        <v>4.1146761788625863E-2</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" ca="1" si="50"/>
+        <v>0.12211098285455435</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" ca="1" si="51"/>
+        <v>0.19906449554502181</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" ca="1" si="52"/>
+        <v>0.26925727419732803</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" ca="1" si="53"/>
+        <v>0.32990589647027169</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" ca="1" si="54"/>
+        <v>0.37832058239859823</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" ca="1" si="55"/>
+        <v>0.41212241353329165</v>
+      </c>
+      <c r="AI39">
+        <f t="shared" ca="1" si="56"/>
+        <v>0.42951069100505618</v>
       </c>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <f t="shared" ca="1" si="11"/>
-        <v>3.4776554943500806E-2</v>
-      </c>
-      <c r="E39">
-        <f t="shared" ca="1" si="12"/>
-        <v>0.13910621977400323</v>
-      </c>
-      <c r="F39">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.34806476314069462</v>
-      </c>
-      <c r="G39">
-        <f t="shared" ca="1" si="14"/>
-        <v>0.69792480851550831</v>
-      </c>
-      <c r="H39">
-        <f t="shared" ca="1" si="15"/>
-        <v>1.2280031538470739</v>
-      </c>
-      <c r="I39">
-        <f t="shared" ca="1" si="42"/>
-        <v>1.9840171705563998</v>
-      </c>
-      <c r="J39">
-        <f t="shared" ca="1" si="43"/>
-        <v>3.024067981041795</v>
-      </c>
-      <c r="K39">
-        <f t="shared" ca="1" si="44"/>
-        <v>4.4297122555719941</v>
-      </c>
-      <c r="L39">
-        <f t="shared" ca="1" si="45"/>
-        <v>6.3278592676613261</v>
-      </c>
-      <c r="M39">
-        <f t="shared" ca="1" si="46"/>
-        <v>8.9377534655023254</v>
-      </c>
-      <c r="N39">
-        <f t="shared" ca="1" si="47"/>
-        <v>12.681493206727161</v>
-      </c>
-      <c r="O39">
-        <f t="shared" ca="1" si="50"/>
-        <v>18.471699841437211</v>
-      </c>
-      <c r="P39">
-        <f t="shared" ca="1" si="48"/>
-        <v>28.544662919094005</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" ca="1" si="49"/>
-        <v>49.141000305843335</v>
-      </c>
-      <c r="R39">
-        <v>100</v>
-      </c>
-      <c r="T39">
-        <f t="shared" ca="1" si="40"/>
-        <v>-3.4776554943500806E-2</v>
-      </c>
-      <c r="U39">
-        <f t="shared" ca="1" si="24"/>
-        <v>-0.10432966483050242</v>
-      </c>
-      <c r="V39">
-        <f t="shared" ca="1" si="25"/>
-        <v>-0.2089585433666914</v>
-      </c>
-      <c r="W39">
-        <f t="shared" ca="1" si="26"/>
-        <v>-0.34986004537481369</v>
-      </c>
-      <c r="X39">
-        <f t="shared" ca="1" si="27"/>
-        <v>-0.53007834533156561</v>
-      </c>
-      <c r="Y39">
-        <f t="shared" ca="1" si="28"/>
-        <v>-0.75601401670932589</v>
-      </c>
-      <c r="Z39">
-        <f t="shared" ca="1" si="29"/>
-        <v>-1.0400508104853952</v>
-      </c>
-      <c r="AA39">
-        <f t="shared" ca="1" si="30"/>
-        <v>-1.4056442745301991</v>
-      </c>
-      <c r="AB39">
-        <f t="shared" ca="1" si="31"/>
-        <v>-1.898147012089332</v>
-      </c>
-      <c r="AC39">
-        <f t="shared" ca="1" si="32"/>
-        <v>-2.6098941978409993</v>
-      </c>
-      <c r="AD39">
-        <f t="shared" ca="1" si="33"/>
-        <v>-3.7437397412248359</v>
-      </c>
-      <c r="AE39">
-        <f t="shared" ca="1" si="34"/>
-        <v>-5.7902066347100494</v>
-      </c>
-      <c r="AF39">
-        <f t="shared" ca="1" si="35"/>
-        <v>-10.072963077656794</v>
-      </c>
-      <c r="AG39">
-        <f t="shared" ca="1" si="36"/>
-        <v>-20.59633738674933</v>
-      </c>
-      <c r="AH39">
-        <f t="shared" ca="1" si="37"/>
-        <v>-50.858999694156665</v>
+    <row r="40" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
+    <row r="41" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:35" x14ac:dyDescent="0.3">
       <c r="C42">
         <f ca="1">-(C24-C25)</f>
-        <v>-50.858999694156658</v>
+        <v>-50.42948117828562</v>
       </c>
       <c r="D42">
-        <f t="shared" ref="D42:Q42" ca="1" si="51">-(D24-D25)</f>
-        <v>-31.980661695720642</v>
+        <f t="shared" ref="D42:Q42" ca="1" si="72">-(D24-D25)</f>
+        <v>-31.104237807583871</v>
       </c>
       <c r="E42">
-        <f t="shared" ca="1" si="51"/>
-        <v>-23.629598617821429</v>
+        <f t="shared" ca="1" si="72"/>
+        <v>-22.270519673056896</v>
       </c>
       <c r="F42">
-        <f t="shared" ca="1" si="51"/>
-        <v>-19.576894428646042</v>
+        <f t="shared" ca="1" si="72"/>
+        <v>-17.678947902410584</v>
       </c>
       <c r="G42">
-        <f t="shared" ca="1" si="51"/>
-        <v>-17.609870728603497</v>
+        <f t="shared" ca="1" si="72"/>
+        <v>-15.092805384019428</v>
       </c>
       <c r="H42">
-        <f t="shared" ca="1" si="51"/>
-        <v>-16.856364650469871</v>
+        <f t="shared" ca="1" si="72"/>
+        <v>-13.610156492528262</v>
       </c>
       <c r="I42">
-        <f t="shared" ca="1" si="51"/>
-        <v>-16.958670954775386</v>
+        <f t="shared" ca="1" si="72"/>
+        <v>-12.834339153997476</v>
       </c>
       <c r="J42">
-        <f t="shared" ca="1" si="51"/>
-        <v>-17.797705655226991</v>
+        <f t="shared" ca="1" si="72"/>
+        <v>-12.592178705460114</v>
       </c>
       <c r="K42">
-        <f t="shared" ca="1" si="51"/>
-        <v>-19.404366039791</v>
+        <f t="shared" ca="1" si="72"/>
+        <v>-12.834342333574511</v>
       </c>
       <c r="L42">
-        <f t="shared" ca="1" si="51"/>
-        <v>-21.956220764284154</v>
+        <f t="shared" ca="1" si="72"/>
+        <v>-13.610162483847944</v>
       </c>
       <c r="M42">
-        <f t="shared" ca="1" si="51"/>
-        <v>-25.849699385590341</v>
+        <f t="shared" ca="1" si="72"/>
+        <v>-15.092813474624535</v>
       </c>
       <c r="N42">
-        <f t="shared" ca="1" si="51"/>
-        <v>-31.910322872232513</v>
+        <f t="shared" ca="1" si="72"/>
+        <v>-17.678957080431346</v>
       </c>
       <c r="O42">
-        <f t="shared" ca="1" si="51"/>
-        <v>-41.962192239484651</v>
+        <f t="shared" ca="1" si="72"/>
+        <v>-22.270528692051315</v>
       </c>
       <c r="P42">
-        <f t="shared" ca="1" si="51"/>
-        <v>-60.490548059871159</v>
+        <f t="shared" ca="1" si="72"/>
+        <v>-31.104245267596312</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="51"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="72"/>
+        <v>-50.429485618830341</v>
       </c>
     </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:35" x14ac:dyDescent="0.3">
       <c r="C43">
-        <f t="shared" ref="C43:Q43" ca="1" si="52">-(C25-C26)</f>
-        <v>-20.596337386749326</v>
+        <f t="shared" ref="C43:Q43" ca="1" si="73">-(C25-C26)</f>
+        <v>-20.184208569427184</v>
       </c>
       <c r="D43">
-        <f t="shared" ca="1" si="52"/>
-        <v>-21.453386775183859</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>-20.6127173288329</v>
       </c>
       <c r="E43">
-        <f t="shared" ca="1" si="52"/>
-        <v>-19.331239729097632</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>-18.028379727905445</v>
       </c>
       <c r="F43">
-        <f t="shared" ca="1" si="52"/>
-        <v>-17.491213939513202</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>-15.67352642266215</v>
       </c>
       <c r="G43">
-        <f t="shared" ca="1" si="52"/>
-        <v>-16.396353106694605</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>-13.989320536055246</v>
       </c>
       <c r="H43">
-        <f t="shared" ca="1" si="52"/>
-        <v>-16.000552268030788</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>-12.903334352499485</v>
       </c>
       <c r="I43">
-        <f t="shared" ca="1" si="52"/>
-        <v>-16.221942558629337</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>-12.300691928543102</v>
       </c>
       <c r="J43">
-        <f t="shared" ca="1" si="52"/>
-        <v>-17.030079971114588</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>-12.107864167544065</v>
       </c>
       <c r="K43">
-        <f t="shared" ca="1" si="52"/>
-        <v>-18.459171699861862</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>-12.300694866089344</v>
       </c>
       <c r="L43">
-        <f t="shared" ca="1" si="52"/>
-        <v>-20.614596867471136</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>-12.903339887757269</v>
       </c>
       <c r="M43">
-        <f t="shared" ca="1" si="52"/>
-        <v>-23.682554520254342</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>-13.989328010799909</v>
       </c>
       <c r="N43">
-        <f t="shared" ca="1" si="52"/>
-        <v>-27.919076991622589</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>-15.673534902047905</v>
       </c>
       <c r="O43">
-        <f t="shared" ca="1" si="52"/>
-        <v>-33.485705786350287</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>-18.02838806037002</v>
       </c>
       <c r="P43">
-        <f t="shared" ca="1" si="52"/>
-        <v>-39.509451940128841</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>-20.612724220985882</v>
       </c>
       <c r="Q43">
-        <f t="shared" ca="1" si="52"/>
-        <v>39.509451940128834</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>-20.184212671955674</v>
       </c>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:35" x14ac:dyDescent="0.3">
       <c r="C44">
-        <f t="shared" ref="C44:Q44" ca="1" si="53">-(C26-C27)</f>
-        <v>-10.072963077656794</v>
+        <f t="shared" ref="C44:Q44" ca="1" si="74">-(C26-C27)</f>
+        <v>-9.6946376858597922</v>
       </c>
       <c r="D44">
-        <f t="shared" ca="1" si="53"/>
-        <v>-13.905308289167806</v>
+        <f t="shared" ca="1" si="74"/>
+        <v>-13.134046238711051</v>
       </c>
       <c r="E44">
-        <f t="shared" ca="1" si="53"/>
-        <v>-14.750759583872018</v>
+        <f t="shared" ca="1" si="74"/>
+        <v>-13.556759470772533</v>
       </c>
       <c r="F44">
-        <f t="shared" ca="1" si="53"/>
-        <v>-14.660368493614513</v>
+        <f t="shared" ca="1" si="74"/>
+        <v>-12.997462275403066</v>
       </c>
       <c r="G44">
-        <f t="shared" ca="1" si="53"/>
-        <v>-14.483775490630961</v>
+        <f t="shared" ca="1" si="74"/>
+        <v>-12.287621293551467</v>
       </c>
       <c r="H44">
-        <f t="shared" ca="1" si="53"/>
-        <v>-14.527548756329281</v>
+        <f t="shared" ca="1" si="74"/>
+        <v>-11.713174095511476</v>
       </c>
       <c r="I44">
-        <f t="shared" ca="1" si="53"/>
-        <v>-14.898467040596529</v>
+        <f t="shared" ca="1" si="74"/>
+        <v>-11.357235789422759</v>
       </c>
       <c r="J44">
-        <f t="shared" ca="1" si="53"/>
-        <v>-15.641499970740199</v>
+        <f t="shared" ca="1" si="74"/>
+        <v>-11.237896803147834</v>
       </c>
       <c r="K44">
-        <f t="shared" ca="1" si="53"/>
-        <v>-16.787643921070718</v>
+        <f t="shared" ca="1" si="74"/>
+        <v>-11.357238382346253</v>
       </c>
       <c r="L44">
-        <f t="shared" ca="1" si="53"/>
-        <v>-18.360440485484155</v>
+        <f t="shared" ca="1" si="74"/>
+        <v>-11.713178981391984</v>
       </c>
       <c r="M44">
-        <f t="shared" ca="1" si="53"/>
-        <v>-20.346844836333347</v>
+        <f t="shared" ca="1" si="74"/>
+        <v>-12.287627891384979</v>
       </c>
       <c r="N44">
-        <f t="shared" ca="1" si="53"/>
-        <v>-22.597724787653181</v>
+        <f t="shared" ca="1" si="74"/>
+        <v>-12.997469760016635</v>
       </c>
       <c r="O44">
-        <f t="shared" ca="1" si="53"/>
-        <v>-24.552101974165062</v>
+        <f t="shared" ca="1" si="74"/>
+        <v>-13.556766825701189</v>
       </c>
       <c r="P44">
-        <f t="shared" ca="1" si="53"/>
-        <v>24.552101974165051</v>
+        <f t="shared" ca="1" si="74"/>
+        <v>-13.134052322300477</v>
       </c>
       <c r="Q44">
-        <f t="shared" ca="1" si="53"/>
-        <v>18.528355820386501</v>
+        <f t="shared" ca="1" si="74"/>
+        <v>-9.6946413070938178</v>
       </c>
     </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:35" x14ac:dyDescent="0.3">
       <c r="C45">
-        <f t="shared" ref="C45:Q45" ca="1" si="54">-(C27-C28)</f>
-        <v>-5.7902066347100511</v>
+        <f t="shared" ref="C45:Q45" ca="1" si="75">-(C27-C28)</f>
+        <v>-5.4602975966062637</v>
       </c>
       <c r="D45">
-        <f t="shared" ca="1" si="54"/>
-        <v>-9.3441237199585672</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>-8.6720730860909825</v>
       </c>
       <c r="E45">
-        <f t="shared" ca="1" si="54"/>
-        <v>-11.106121823608106</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>-10.067153077233584</v>
       </c>
       <c r="F45">
-        <f t="shared" ca="1" si="54"/>
-        <v>-11.915724960441885</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>-10.471946008270606</v>
       </c>
       <c r="G45">
-        <f t="shared" ca="1" si="54"/>
-        <v>-12.350831605885389</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>-10.450532837533089</v>
       </c>
       <c r="H45">
-        <f t="shared" ca="1" si="54"/>
-        <v>-12.727400226058862</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>-10.304509801433525</v>
       </c>
       <c r="I45">
-        <f t="shared" ca="1" si="54"/>
-        <v>-13.20287687668732</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>-10.177185274306773</v>
       </c>
       <c r="J45">
-        <f t="shared" ca="1" si="54"/>
-        <v>-13.849808950178932</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>-10.129253714504344</v>
       </c>
       <c r="K45">
-        <f t="shared" ca="1" si="54"/>
-        <v>-14.68946352819664</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>-10.177187437036636</v>
       </c>
       <c r="L45">
-        <f t="shared" ca="1" si="54"/>
-        <v>-15.692676317061437</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>-10.304513876694422</v>
       </c>
       <c r="M45">
-        <f t="shared" ca="1" si="54"/>
-        <v>-16.746659551941697</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>-10.450538340715759</v>
       </c>
       <c r="N45">
-        <f t="shared" ca="1" si="54"/>
-        <v>-17.572875348491717</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>-10.471952251107069</v>
       </c>
       <c r="O45">
-        <f t="shared" ca="1" si="54"/>
-        <v>17.572875348491703</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>-10.067159211901227</v>
       </c>
       <c r="P45">
-        <f t="shared" ca="1" si="54"/>
-        <v>15.618498161979819</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>-8.6720781603481214</v>
       </c>
       <c r="Q45">
-        <f t="shared" ca="1" si="54"/>
-        <v>10.051869367252124</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>-5.4603006170389783</v>
       </c>
     </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:35" x14ac:dyDescent="0.3">
       <c r="C46">
-        <f t="shared" ref="C46:Q46" ca="1" si="55">-(C28-C29)</f>
-        <v>-3.7437397412248359</v>
+        <f t="shared" ref="C46:Q46" ca="1" si="76">-(C28-C29)</f>
+        <v>-3.4744809682516333</v>
       </c>
       <c r="D46">
-        <f t="shared" ca="1" si="55"/>
-        <v>-6.5748581323482966</v>
+        <f t="shared" ca="1" si="76"/>
+        <v>-6.0267975530134272</v>
       </c>
       <c r="E46">
-        <f t="shared" ca="1" si="55"/>
-        <v>-8.4138790301599542</v>
+        <f t="shared" ca="1" si="76"/>
+        <v>-7.567836522481997</v>
       </c>
       <c r="F46">
-        <f t="shared" ca="1" si="55"/>
-        <v>-9.5455779186595322</v>
+        <f t="shared" ca="1" si="76"/>
+        <v>-8.3726391482946667</v>
       </c>
       <c r="G46">
-        <f t="shared" ca="1" si="55"/>
-        <v>-10.276425746409853</v>
+        <f t="shared" ca="1" si="76"/>
+        <v>-8.7380579331090615</v>
       </c>
       <c r="H46">
-        <f t="shared" ca="1" si="55"/>
-        <v>-10.828343665333456</v>
+        <f t="shared" ca="1" si="76"/>
+        <v>-8.8771509106712756</v>
       </c>
       <c r="I46">
-        <f t="shared" ca="1" si="55"/>
-        <v>-11.335831289914957</v>
+        <f t="shared" ca="1" si="76"/>
+        <v>-8.9177457727047837</v>
       </c>
       <c r="J46">
-        <f t="shared" ca="1" si="55"/>
-        <v>-11.86539542509156</v>
+        <f t="shared" ca="1" si="76"/>
+        <v>-8.9247492387937442</v>
       </c>
       <c r="K46">
-        <f t="shared" ca="1" si="55"/>
-        <v>-12.427724924475491</v>
+        <f t="shared" ca="1" si="76"/>
+        <v>-8.9177474393002854</v>
       </c>
       <c r="L46">
-        <f t="shared" ca="1" si="55"/>
-        <v>-12.974141702623267</v>
+        <f t="shared" ca="1" si="76"/>
+        <v>-8.8771540510595344</v>
       </c>
       <c r="M46">
-        <f t="shared" ca="1" si="55"/>
-        <v>-13.374241705880273</v>
+        <f t="shared" ca="1" si="76"/>
+        <v>-8.7380621738510911</v>
       </c>
       <c r="N46">
-        <f t="shared" ca="1" si="55"/>
-        <v>13.374241705880259</v>
+        <f t="shared" ca="1" si="76"/>
+        <v>-8.3726439590124926</v>
       </c>
       <c r="O46">
-        <f t="shared" ca="1" si="55"/>
-        <v>12.548025909330239</v>
+        <f t="shared" ca="1" si="76"/>
+        <v>-7.5678412498451344</v>
       </c>
       <c r="P46">
-        <f t="shared" ca="1" si="55"/>
-        <v>10.297145958010411</v>
+        <f t="shared" ca="1" si="76"/>
+        <v>-6.0268014632262421</v>
       </c>
       <c r="Q46">
-        <f t="shared" ca="1" si="55"/>
-        <v>6.0606234866421858</v>
+        <f t="shared" ca="1" si="76"/>
+        <v>-3.4744832957912823</v>
       </c>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:35" x14ac:dyDescent="0.3">
       <c r="C47">
-        <f t="shared" ref="C47:Q47" ca="1" si="56">-(C29-C30)</f>
-        <v>-2.6098941978409984</v>
+        <f t="shared" ref="C47:Q47" ca="1" si="77">-(C29-C30)</f>
+        <v>-2.4108297298157009</v>
       </c>
       <c r="D47">
-        <f t="shared" ca="1" si="56"/>
-        <v>-4.7976900380498257</v>
+        <f t="shared" ca="1" si="77"/>
+        <v>-4.3928011990437561</v>
       </c>
       <c r="E47">
-        <f t="shared" ca="1" si="56"/>
-        <v>-6.4289582460238783</v>
+        <f t="shared" ca="1" si="77"/>
+        <v>-5.8047583518533692</v>
       </c>
       <c r="F47">
-        <f t="shared" ca="1" si="56"/>
-        <v>-7.5762819376264403</v>
+        <f t="shared" ca="1" si="77"/>
+        <v>-6.7127185506343423</v>
       </c>
       <c r="G47">
-        <f t="shared" ca="1" si="56"/>
-        <v>-8.3809497957610439</v>
+        <f t="shared" ca="1" si="77"/>
+        <v>-7.2519115314537004</v>
       </c>
       <c r="H47">
-        <f t="shared" ca="1" si="56"/>
-        <v>-8.9737173989501358</v>
+        <f t="shared" ca="1" si="77"/>
+        <v>-7.5482929921252833</v>
       </c>
       <c r="I47">
-        <f t="shared" ca="1" si="56"/>
-        <v>-9.4467091925474911</v>
+        <f t="shared" ca="1" si="77"/>
+        <v>-7.6919005700455969</v>
       </c>
       <c r="J47">
-        <f t="shared" ca="1" si="56"/>
-        <v>-9.8482165357968636</v>
+        <f t="shared" ca="1" si="77"/>
+        <v>-7.7342528657230574</v>
       </c>
       <c r="K47">
-        <f t="shared" ca="1" si="56"/>
-        <v>-10.1818990419905</v>
+        <f t="shared" ca="1" si="77"/>
+        <v>-7.6919016959586912</v>
       </c>
       <c r="L47">
-        <f t="shared" ca="1" si="56"/>
-        <v>-10.401923863075851</v>
+        <f t="shared" ca="1" si="77"/>
+        <v>-7.5482951136984298</v>
       </c>
       <c r="M47">
-        <f t="shared" ca="1" si="56"/>
-        <v>10.401923863075837</v>
+        <f t="shared" ca="1" si="77"/>
+        <v>-7.2519143964002168</v>
       </c>
       <c r="N47">
-        <f t="shared" ca="1" si="56"/>
-        <v>10.001823859818831</v>
+        <f t="shared" ca="1" si="77"/>
+        <v>-6.712721800643223</v>
       </c>
       <c r="O47">
-        <f t="shared" ca="1" si="56"/>
-        <v>8.9478406249385785</v>
+        <f t="shared" ca="1" si="77"/>
+        <v>-5.8047615455497592</v>
       </c>
       <c r="P47">
-        <f t="shared" ca="1" si="56"/>
-        <v>6.9614362740893938</v>
+        <f t="shared" ca="1" si="77"/>
+        <v>-4.3928038406924124</v>
       </c>
       <c r="Q47">
-        <f t="shared" ca="1" si="56"/>
-        <v>3.8934786213061727</v>
+        <f t="shared" ca="1" si="77"/>
+        <v>-2.4108313022472441</v>
       </c>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:35" x14ac:dyDescent="0.3">
       <c r="C48">
-        <f t="shared" ref="C48:Q48" ca="1" si="57">-(C30-C31)</f>
-        <v>-1.8981470120893329</v>
+        <f t="shared" ref="C48:Q48" ca="1" si="78">-(C30-C31)</f>
+        <v>-1.7760373859630523</v>
       </c>
       <c r="D48">
-        <f t="shared" ca="1" si="57"/>
-        <v>-3.5770495759861323</v>
+        <f t="shared" ca="1" si="78"/>
+        <v>-3.3288201296165312</v>
       </c>
       <c r="E48">
-        <f t="shared" ca="1" si="57"/>
-        <v>-4.9279819782593037</v>
+        <f t="shared" ca="1" si="78"/>
+        <v>-4.5456783879417593</v>
       </c>
       <c r="F48">
-        <f t="shared" ca="1" si="57"/>
-        <v>-5.9496417900613139</v>
+        <f t="shared" ca="1" si="78"/>
+        <v>-5.4215666496801553</v>
       </c>
       <c r="G48">
-        <f t="shared" ca="1" si="57"/>
-        <v>-6.6973741000577309</v>
+        <f t="shared" ca="1" si="78"/>
+        <v>-6.0085782898616742</v>
       </c>
       <c r="H48">
-        <f t="shared" ca="1" si="57"/>
-        <v>-7.238866942158559</v>
+        <f t="shared" ca="1" si="78"/>
+        <v>-6.3722106888674404</v>
       </c>
       <c r="I48">
-        <f t="shared" ca="1" si="57"/>
-        <v>-7.6290715455280065</v>
+        <f t="shared" ca="1" si="78"/>
+        <v>-6.5673124053214238</v>
       </c>
       <c r="J48">
-        <f t="shared" ca="1" si="57"/>
-        <v>-7.898862483557906</v>
+        <f t="shared" ca="1" si="78"/>
+        <v>-6.6284616692383516</v>
       </c>
       <c r="K48">
-        <f t="shared" ca="1" si="57"/>
-        <v>-8.049730844613789</v>
+        <f t="shared" ca="1" si="78"/>
+        <v>-6.5673129682780811</v>
       </c>
       <c r="L48">
-        <f t="shared" ca="1" si="57"/>
-        <v>8.0497308446137747</v>
+        <f t="shared" ca="1" si="78"/>
+        <v>-6.3722117496542161</v>
       </c>
       <c r="M48">
-        <f t="shared" ca="1" si="57"/>
-        <v>7.8297060235284235</v>
+        <f t="shared" ca="1" si="78"/>
+        <v>-6.0085797223351989</v>
       </c>
       <c r="N48">
-        <f t="shared" ca="1" si="57"/>
-        <v>7.2832892453806508</v>
+        <f t="shared" ca="1" si="78"/>
+        <v>-5.421568274684887</v>
       </c>
       <c r="O48">
-        <f t="shared" ca="1" si="57"/>
-        <v>6.2800764565158573</v>
+        <f t="shared" ca="1" si="78"/>
+        <v>-4.5456799847902225</v>
       </c>
       <c r="P48">
-        <f t="shared" ca="1" si="57"/>
-        <v>4.7072798921024201</v>
+        <f t="shared" ca="1" si="78"/>
+        <v>-3.328821450441076</v>
       </c>
       <c r="Q48">
-        <f t="shared" ca="1" si="57"/>
-        <v>2.551854724493154</v>
+        <f t="shared" ca="1" si="78"/>
+        <v>-1.7760381721789447</v>
       </c>
     </row>
     <row r="49" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C49">
-        <f t="shared" ref="C49:Q49" ca="1" si="58">-(C31-C32)</f>
-        <v>-1.4056442745302014</v>
+        <f t="shared" ref="C49:Q49" ca="1" si="79">-(C31-C32)</f>
+        <v>-1.3644999360272472</v>
       </c>
       <c r="D49">
-        <f t="shared" ca="1" si="58"/>
-        <v>-2.684379275546072</v>
+        <f t="shared" ca="1" si="79"/>
+        <v>-2.6007639037760022</v>
       </c>
       <c r="E49">
-        <f t="shared" ca="1" si="58"/>
-        <v>-3.756278300965894</v>
+        <f t="shared" ca="1" si="79"/>
+        <v>-3.6275688678320197</v>
       </c>
       <c r="F49">
-        <f t="shared" ca="1" si="58"/>
-        <v>-4.5969291443017717</v>
+        <f t="shared" ca="1" si="79"/>
+        <v>-4.4192918860476915</v>
       </c>
       <c r="G49">
-        <f t="shared" ca="1" si="58"/>
-        <v>-5.2200378722500105</v>
+        <f t="shared" ca="1" si="79"/>
+        <v>-4.9886248515208607</v>
       </c>
       <c r="H49">
-        <f t="shared" ca="1" si="58"/>
-        <v>-5.6553047240983645</v>
+        <f t="shared" ca="1" si="79"/>
+        <v>-5.3646596533921596</v>
       </c>
       <c r="I49">
-        <f t="shared" ca="1" si="58"/>
-        <v>-5.9318475638480601</v>
+        <f t="shared" ca="1" si="79"/>
+        <v>-5.5766772783650751</v>
       </c>
       <c r="J49">
-        <f t="shared" ca="1" si="58"/>
-        <v>-6.0684310082929596</v>
+        <f t="shared" ca="1" si="79"/>
+        <v>-5.6449690005876221</v>
       </c>
       <c r="K49">
-        <f t="shared" ca="1" si="58"/>
-        <v>6.068431008292948</v>
+        <f t="shared" ca="1" si="79"/>
+        <v>-5.5766772783652705</v>
       </c>
       <c r="L49">
-        <f t="shared" ca="1" si="58"/>
-        <v>5.9175626472370642</v>
+        <f t="shared" ca="1" si="79"/>
+        <v>-5.3646596533925184</v>
       </c>
       <c r="M49">
-        <f t="shared" ca="1" si="58"/>
-        <v>5.58388014104343</v>
+        <f t="shared" ca="1" si="79"/>
+        <v>-4.9886248515213367</v>
       </c>
       <c r="N49">
-        <f t="shared" ca="1" si="58"/>
-        <v>5.0215506416594984</v>
+        <f t="shared" ca="1" si="79"/>
+        <v>-4.4192918860482138</v>
       </c>
       <c r="O49">
-        <f t="shared" ca="1" si="58"/>
-        <v>4.1818960636417941</v>
+        <f t="shared" ca="1" si="79"/>
+        <v>-3.62756886783251</v>
       </c>
       <c r="P49">
-        <f t="shared" ca="1" si="58"/>
-        <v>3.0357521133112684</v>
+        <f t="shared" ca="1" si="79"/>
+        <v>-2.6007639037763877</v>
       </c>
       <c r="Q49">
-        <f t="shared" ca="1" si="58"/>
-        <v>1.6066603845640088</v>
+        <f t="shared" ca="1" si="79"/>
+        <v>-1.364499936027463</v>
       </c>
     </row>
     <row r="50" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C50">
-        <f t="shared" ref="C50:Q50" ca="1" si="59">-(C32-C33)</f>
-        <v>-1.0400508104853967</v>
+        <f t="shared" ref="C50:Q50" ca="1" si="80">-(C32-C33)</f>
+        <v>-1.081198328566388</v>
       </c>
       <c r="D50">
-        <f t="shared" ca="1" si="59"/>
-        <v>-1.9985449507020601</v>
+        <f t="shared" ca="1" si="80"/>
+        <v>-2.0821664395973087</v>
       </c>
       <c r="E50">
-        <f t="shared" ca="1" si="59"/>
-        <v>-2.8158228057564241</v>
+        <f t="shared" ca="1" si="80"/>
+        <v>-2.9445409489397623</v>
       </c>
       <c r="F50">
-        <f t="shared" ca="1" si="59"/>
-        <v>-3.4617586139298728</v>
+        <f t="shared" ca="1" si="80"/>
+        <v>-3.6394067449639849</v>
       </c>
       <c r="G50">
-        <f t="shared" ca="1" si="59"/>
-        <v>-3.9305435205421713</v>
+        <f t="shared" ca="1" si="80"/>
+        <v>-4.1619690806474345</v>
       </c>
       <c r="H50">
-        <f t="shared" ca="1" si="59"/>
-        <v>-4.2304665181368275</v>
+        <f t="shared" ca="1" si="80"/>
+        <v>-4.5211252541326914</v>
       </c>
       <c r="I50">
-        <f t="shared" ca="1" si="59"/>
-        <v>-4.3745829774729144</v>
+        <f t="shared" ca="1" si="80"/>
+        <v>-4.7297674912024945</v>
       </c>
       <c r="J50">
-        <f t="shared" ca="1" si="59"/>
-        <v>4.3745829774729046</v>
+        <f t="shared" ca="1" si="80"/>
+        <v>-4.798059213425141</v>
       </c>
       <c r="K50">
-        <f t="shared" ca="1" si="59"/>
-        <v>4.2379995330280051</v>
+        <f t="shared" ca="1" si="80"/>
+        <v>-4.7297669496724559</v>
       </c>
       <c r="L50">
-        <f t="shared" ca="1" si="59"/>
-        <v>3.9682085949981065</v>
+        <f t="shared" ca="1" si="80"/>
+        <v>-4.5211242337203714</v>
       </c>
       <c r="M50">
-        <f t="shared" ca="1" si="59"/>
-        <v>3.5667012517487322</v>
+        <f t="shared" ca="1" si="80"/>
+        <v>-4.1619677026950583</v>
       </c>
       <c r="N50">
-        <f t="shared" ca="1" si="59"/>
-        <v>3.0371371165721328</v>
+        <f t="shared" ca="1" si="80"/>
+        <v>-3.6394051818082715</v>
       </c>
       <c r="O50">
-        <f t="shared" ca="1" si="59"/>
-        <v>2.3902050430805133</v>
+        <f t="shared" ca="1" si="80"/>
+        <v>-2.9445394128686235</v>
       </c>
       <c r="P50">
-        <f t="shared" ca="1" si="59"/>
-        <v>1.6471721129368575</v>
+        <f t="shared" ca="1" si="80"/>
+        <v>-2.0821651690443623</v>
       </c>
       <c r="Q50">
-        <f t="shared" ca="1" si="59"/>
-        <v>0.83903470045159168</v>
+        <f t="shared" ca="1" si="80"/>
+        <v>-1.0811975722744522</v>
       </c>
     </row>
     <row r="51" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C51">
-        <f t="shared" ref="C51:Q51" ca="1" si="60">-(C33-C34)</f>
-        <v>-0.75601401670932722</v>
+        <f t="shared" ref="C51:Q51" ca="1" si="81">-(C33-C34)</f>
+        <v>-0.87812645457908545</v>
       </c>
       <c r="D51">
-        <f t="shared" ca="1" si="60"/>
-        <v>-1.4539269110203454</v>
+        <f t="shared" ca="1" si="81"/>
+        <v>-1.7021617668457383</v>
       </c>
       <c r="E51">
-        <f t="shared" ca="1" si="60"/>
-        <v>-2.046709357427869</v>
+        <f t="shared" ca="1" si="81"/>
+        <v>-2.4290206501589093</v>
       </c>
       <c r="F51">
-        <f t="shared" ca="1" si="60"/>
-        <v>-2.503738985119119</v>
+        <f t="shared" ca="1" si="81"/>
+        <v>-3.0318237404453949</v>
       </c>
       <c r="G51">
-        <f t="shared" ca="1" si="60"/>
-        <v>-2.8099110778519769</v>
+        <f t="shared" ca="1" si="81"/>
+        <v>-3.4987179767864127</v>
       </c>
       <c r="H51">
-        <f t="shared" ca="1" si="60"/>
-        <v>-2.9614348504338555</v>
+        <f t="shared" ca="1" si="81"/>
+        <v>-3.8281031881237837</v>
       </c>
       <c r="I51">
-        <f t="shared" ca="1" si="60"/>
-        <v>2.9614348504338475</v>
+        <f t="shared" ca="1" si="81"/>
+        <v>-4.0232065728696167</v>
       </c>
       <c r="J51">
-        <f t="shared" ca="1" si="60"/>
-        <v>2.8173183910977597</v>
+        <f t="shared" ca="1" si="81"/>
+        <v>-4.0877317876467494</v>
       </c>
       <c r="K51">
-        <f t="shared" ca="1" si="60"/>
-        <v>2.5407755513480641</v>
+        <f t="shared" ca="1" si="81"/>
+        <v>-4.0232055310308539</v>
       </c>
       <c r="L51">
-        <f t="shared" ca="1" si="60"/>
-        <v>2.1505709479786184</v>
+        <f t="shared" ca="1" si="81"/>
+        <v>-3.8281012249730324</v>
       </c>
       <c r="M51">
-        <f t="shared" ca="1" si="60"/>
-        <v>1.6775791543812701</v>
+        <f t="shared" ca="1" si="81"/>
+        <v>-3.4987153257715491</v>
       </c>
       <c r="N51">
-        <f t="shared" ca="1" si="60"/>
-        <v>1.1700915297997625</v>
+        <f t="shared" ca="1" si="81"/>
+        <v>-3.0318207331215703</v>
       </c>
       <c r="O51">
-        <f t="shared" ca="1" si="60"/>
-        <v>0.69461487917130427</v>
+        <f t="shared" ca="1" si="81"/>
+        <v>-2.4290176949425781</v>
       </c>
       <c r="P51">
-        <f t="shared" ca="1" si="60"/>
-        <v>0.32369659490404956</v>
+        <f t="shared" ca="1" si="81"/>
+        <v>-1.7021593224545324</v>
       </c>
       <c r="Q51">
-        <f t="shared" ca="1" si="60"/>
-        <v>0.10230630430550036</v>
+        <f t="shared" ca="1" si="81"/>
+        <v>-0.87812499956428614</v>
       </c>
     </row>
     <row r="52" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C52">
-        <f t="shared" ref="C52:Q52" ca="1" si="61">-(C34-C35)</f>
-        <v>-0.53007834533156706</v>
+        <f t="shared" ref="C52:Q52" ca="1" si="82">-(C34-C35)</f>
+        <v>-0.72914491264284509</v>
       </c>
       <c r="D52">
-        <f t="shared" ca="1" si="61"/>
-        <v>-1.0144393192421257</v>
+        <f t="shared" ca="1" si="82"/>
+        <v>-1.4193321970215722</v>
       </c>
       <c r="E52">
-        <f t="shared" ca="1" si="61"/>
-        <v>-1.4133487278155903</v>
+        <f t="shared" ca="1" si="82"/>
+        <v>-2.0375543727129282</v>
       </c>
       <c r="F52">
-        <f t="shared" ca="1" si="61"/>
-        <v>-1.6965768912667558</v>
+        <f t="shared" ca="1" si="82"/>
+        <v>-2.5601474569078491</v>
       </c>
       <c r="G52">
-        <f t="shared" ca="1" si="61"/>
-        <v>-1.8439269553127617</v>
+        <f t="shared" ca="1" si="82"/>
+        <v>-2.972973498623217</v>
       </c>
       <c r="H52">
-        <f t="shared" ca="1" si="61"/>
-        <v>1.8439269553127564</v>
+        <f t="shared" ca="1" si="82"/>
+        <v>-3.2693603845143642</v>
       </c>
       <c r="I52">
-        <f t="shared" ca="1" si="61"/>
-        <v>1.6924031827308781</v>
+        <f t="shared" ca="1" si="82"/>
+        <v>-3.4472211992964699</v>
       </c>
       <c r="J52">
-        <f t="shared" ca="1" si="61"/>
-        <v>1.3924801851362227</v>
+        <f t="shared" ca="1" si="82"/>
+        <v>-3.5064532492739193</v>
       </c>
       <c r="K52">
-        <f t="shared" ca="1" si="61"/>
-        <v>0.95721333328786962</v>
+        <f t="shared" ca="1" si="82"/>
+        <v>-3.4472197158434721</v>
       </c>
       <c r="L52">
-        <f t="shared" ca="1" si="61"/>
-        <v>0.41572049118704513</v>
+        <f t="shared" ca="1" si="82"/>
+        <v>-3.2693575892239775</v>
       </c>
       <c r="M52">
-        <f t="shared" ca="1" si="61"/>
-        <v>-0.17704711200205026</v>
+        <f t="shared" ca="1" si="82"/>
+        <v>-2.9729697238971369</v>
       </c>
       <c r="N52">
-        <f t="shared" ca="1" si="61"/>
-        <v>-0.72896503092564302</v>
+        <f t="shared" ca="1" si="82"/>
+        <v>-2.5601431748407091</v>
       </c>
       <c r="O52">
-        <f t="shared" ca="1" si="61"/>
-        <v>-1.1055336510991225</v>
+        <f t="shared" ca="1" si="82"/>
+        <v>-2.0375501648405976</v>
       </c>
       <c r="P52">
-        <f t="shared" ca="1" si="61"/>
-        <v>-1.1493069167974568</v>
+        <f t="shared" ca="1" si="82"/>
+        <v>-1.4193287165027426</v>
       </c>
       <c r="Q52">
-        <f t="shared" ca="1" si="61"/>
-        <v>-0.75350607813362558</v>
+        <f t="shared" ca="1" si="82"/>
+        <v>-0.72914284087692893</v>
       </c>
     </row>
     <row r="53" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C53">
-        <f t="shared" ref="C53:Q53" ca="1" si="62">-(C35-C36)</f>
-        <v>-0.3498600453748148</v>
+        <f t="shared" ref="C53:Q53" ca="1" si="83">-(C35-C36)</f>
+        <v>-0.61911990576385278</v>
       </c>
       <c r="D53">
-        <f t="shared" ca="1" si="62"/>
-        <v>-0.66040329280100007</v>
+        <f t="shared" ca="1" si="83"/>
+        <v>-1.208465964192956</v>
       </c>
       <c r="E53">
-        <f t="shared" ca="1" si="62"/>
-        <v>-0.89566934332560866</v>
+        <f t="shared" ca="1" si="83"/>
+        <v>-1.7417148298408796</v>
       </c>
       <c r="F53">
-        <f t="shared" ca="1" si="62"/>
-        <v>-1.0252928968195523</v>
+        <f t="shared" ca="1" si="83"/>
+        <v>-2.1982353856756847</v>
       </c>
       <c r="G53">
-        <f t="shared" ca="1" si="62"/>
-        <v>1.0252928968195492</v>
+        <f t="shared" ca="1" si="83"/>
+        <v>-2.5636649985875426</v>
       </c>
       <c r="H53">
-        <f t="shared" ca="1" si="62"/>
-        <v>0.87794283277354368</v>
+        <f t="shared" ca="1" si="83"/>
+        <v>-2.8291402609654011</v>
       </c>
       <c r="I53">
-        <f t="shared" ca="1" si="62"/>
-        <v>0.5717707400406864</v>
+        <f t="shared" ca="1" si="83"/>
+        <v>-2.9898611233118348</v>
       </c>
       <c r="J53">
-        <f t="shared" ca="1" si="62"/>
-        <v>0.10298583342838796</v>
+        <f t="shared" ca="1" si="83"/>
+        <v>-3.0436368857872846</v>
       </c>
       <c r="K53">
-        <f t="shared" ca="1" si="62"/>
-        <v>-0.52012289451984728</v>
+        <f t="shared" ca="1" si="83"/>
+        <v>-2.9898592715131009</v>
       </c>
       <c r="L53">
-        <f t="shared" ca="1" si="62"/>
-        <v>-1.2678552045162625</v>
+        <f t="shared" ca="1" si="83"/>
+        <v>-2.8291367715962057</v>
       </c>
       <c r="M53">
-        <f t="shared" ca="1" si="62"/>
-        <v>-2.0725230626508591</v>
+        <f t="shared" ca="1" si="83"/>
+        <v>-2.5636602865858986</v>
       </c>
       <c r="N53">
-        <f t="shared" ca="1" si="62"/>
-        <v>-2.8033708904011831</v>
+        <f t="shared" ca="1" si="83"/>
+        <v>-2.1982300403587089</v>
       </c>
       <c r="O53">
-        <f t="shared" ca="1" si="62"/>
-        <v>-3.2384775358446802</v>
+        <f t="shared" ca="1" si="83"/>
+        <v>-1.7417095771415099</v>
       </c>
       <c r="P53">
-        <f t="shared" ca="1" si="62"/>
-        <v>-3.0618845328611144</v>
+        <f t="shared" ca="1" si="83"/>
+        <v>-1.2084616194511053</v>
       </c>
       <c r="Q53">
-        <f t="shared" ca="1" si="62"/>
-        <v>-1.9670237000425317</v>
+        <f t="shared" ca="1" si="83"/>
+        <v>-0.61911731957239691</v>
       </c>
     </row>
     <row r="54" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C54">
-        <f t="shared" ref="C54:Q54" ca="1" si="63">-(C36-C37)</f>
-        <v>-0.20895854336669209</v>
+        <f t="shared" ref="C54:Q54" ca="1" si="84">-(C36-C37)</f>
+        <v>-0.5388674224439205</v>
       </c>
       <c r="D54">
-        <f t="shared" ca="1" si="63"/>
-        <v>-0.38164446326145074</v>
+        <f t="shared" ca="1" si="84"/>
+        <v>-1.0536947911810901</v>
       </c>
       <c r="E54">
-        <f t="shared" ca="1" si="63"/>
-        <v>-0.48363245586629255</v>
+        <f t="shared" ca="1" si="84"/>
+        <v>-1.5226007666077952</v>
       </c>
       <c r="F54">
-        <f t="shared" ca="1" si="63"/>
-        <v>0.483632455866291</v>
+        <f t="shared" ca="1" si="84"/>
+        <v>-1.9274108642356156</v>
       </c>
       <c r="G54">
-        <f t="shared" ca="1" si="63"/>
-        <v>0.35400890237234783</v>
+        <f t="shared" ca="1" si="84"/>
+        <v>-2.2543070435679038</v>
       </c>
       <c r="H54">
-        <f t="shared" ca="1" si="63"/>
-        <v>7.0780738921182973E-2</v>
+        <f t="shared" ca="1" si="84"/>
+        <v>-2.4936704800772276</v>
       </c>
       <c r="I54">
-        <f t="shared" ca="1" si="63"/>
-        <v>-0.38624888877006391</v>
+        <f t="shared" ca="1" si="84"/>
+        <v>-2.639442001984909</v>
       </c>
       <c r="J54">
-        <f t="shared" ca="1" si="63"/>
-        <v>-1.03218469694351</v>
+        <f t="shared" ca="1" si="84"/>
+        <v>-2.6883698271054728</v>
       </c>
       <c r="K54">
-        <f t="shared" ca="1" si="63"/>
-        <v>-1.8728355402793859</v>
+        <f t="shared" ca="1" si="84"/>
+        <v>-2.6394398663396501</v>
       </c>
       <c r="L54">
-        <f t="shared" ca="1" si="63"/>
-        <v>-2.8944953520813925</v>
+        <f t="shared" ca="1" si="84"/>
+        <v>-2.4936664558522184</v>
       </c>
       <c r="M54">
-        <f t="shared" ca="1" si="63"/>
-        <v>-4.041819043683951</v>
+        <f t="shared" ca="1" si="84"/>
+        <v>-2.2543016093034893</v>
       </c>
       <c r="N54">
-        <f t="shared" ca="1" si="63"/>
-        <v>-5.1735179321835254</v>
+        <f t="shared" ca="1" si="84"/>
+        <v>-1.9274046995803422</v>
       </c>
       <c r="O54">
-        <f t="shared" ca="1" si="63"/>
-        <v>-5.9831210690173009</v>
+        <f t="shared" ca="1" si="84"/>
+        <v>-1.522594708766702</v>
       </c>
       <c r="P54">
-        <f t="shared" ca="1" si="63"/>
-        <v>-5.892729978759796</v>
+        <f t="shared" ca="1" si="84"/>
+        <v>-1.0536897804706293</v>
       </c>
       <c r="Q54">
-        <f t="shared" ca="1" si="63"/>
-        <v>-4.0527041891753868</v>
+        <f t="shared" ca="1" si="84"/>
+        <v>-0.53886443983712784</v>
       </c>
     </row>
     <row r="55" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C55">
-        <f t="shared" ref="C55:Q55" ca="1" si="64">-(C37-C38)</f>
-        <v>-0.10432966483050282</v>
+        <f t="shared" ref="C55:Q55" ca="1" si="85">-(C37-C38)</f>
+        <v>-0.48265349764494614</v>
       </c>
       <c r="D55">
-        <f t="shared" ca="1" si="64"/>
-        <v>-0.17358356101181815</v>
+        <f t="shared" ca="1" si="85"/>
+        <v>-0.94484261217390331</v>
       </c>
       <c r="E55">
-        <f t="shared" ca="1" si="64"/>
-        <v>0.17358356101181754</v>
+        <f t="shared" ca="1" si="85"/>
+        <v>-1.3675794034769471</v>
       </c>
       <c r="F55">
-        <f t="shared" ca="1" si="64"/>
-        <v>7.1595568406976007E-2</v>
+        <f t="shared" ca="1" si="85"/>
+        <v>-1.7344964555731495</v>
       </c>
       <c r="G55">
-        <f t="shared" ca="1" si="64"/>
-        <v>-0.16367048211763202</v>
+        <f t="shared" ca="1" si="85"/>
+        <v>-2.0324775667659312</v>
       </c>
       <c r="H55">
-        <f t="shared" ca="1" si="64"/>
-        <v>-0.56257989069109504</v>
+        <f t="shared" ca="1" si="85"/>
+        <v>-2.2517880698828447</v>
       </c>
       <c r="I55">
-        <f t="shared" ca="1" si="64"/>
-        <v>-1.1553623370986177</v>
+        <f t="shared" ca="1" si="85"/>
+        <v>-2.3858619378072063</v>
       </c>
       <c r="J55">
-        <f t="shared" ca="1" si="64"/>
-        <v>-1.9726401921529781</v>
+        <f t="shared" ca="1" si="85"/>
+        <v>-2.4309559991713181</v>
       </c>
       <c r="K55">
-        <f t="shared" ca="1" si="64"/>
-        <v>-3.0445392175727992</v>
+        <f t="shared" ca="1" si="85"/>
+        <v>-2.3858596104018437</v>
       </c>
       <c r="L55">
-        <f t="shared" ca="1" si="64"/>
-        <v>-4.3954716198459671</v>
+        <f t="shared" ca="1" si="85"/>
+        <v>-2.2517836843217003</v>
       </c>
       <c r="M55">
-        <f t="shared" ca="1" si="64"/>
-        <v>-6.0267398278200197</v>
+        <f t="shared" ca="1" si="85"/>
+        <v>-2.0324716445576061</v>
       </c>
       <c r="N55">
-        <f t="shared" ca="1" si="64"/>
-        <v>-7.8657607256316773</v>
+        <f t="shared" ca="1" si="85"/>
+        <v>-1.7344897373920003</v>
       </c>
       <c r="O55">
-        <f t="shared" ca="1" si="64"/>
-        <v>-9.6277588292812126</v>
+        <f t="shared" ca="1" si="85"/>
+        <v>-1.3675728017008568</v>
       </c>
       <c r="P55">
-        <f t="shared" ca="1" si="64"/>
-        <v>-10.473210123985425</v>
+        <f t="shared" ca="1" si="85"/>
+        <v>-0.94483715155056114</v>
       </c>
       <c r="Q55">
-        <f t="shared" ca="1" si="64"/>
-        <v>-8.3510630778991981</v>
+        <f t="shared" ca="1" si="85"/>
+        <v>-0.48265024722918581</v>
       </c>
     </row>
     <row r="56" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C56">
-        <f t="shared" ref="C56:Q56" ca="1" si="65">-(C38-C39)</f>
-        <v>-3.4776554943500938E-2</v>
+        <f t="shared" ref="C56:Q56" ca="1" si="86">-(C38-C39)</f>
+        <v>-0.44690235279709162</v>
       </c>
       <c r="D56">
-        <f t="shared" ca="1" si="65"/>
-        <v>3.4776554943500806E-2</v>
+        <f t="shared" ca="1" si="86"/>
+        <v>-0.87544019220064073</v>
       </c>
       <c r="E56">
-        <f t="shared" ca="1" si="65"/>
-        <v>-3.4477341237814318E-2</v>
+        <f t="shared" ca="1" si="86"/>
+        <v>-1.2683743885044614</v>
       </c>
       <c r="F56">
-        <f t="shared" ca="1" si="65"/>
-        <v>-0.20716326113257238</v>
+        <f t="shared" ca="1" si="86"/>
+        <v>-1.6105139304435634</v>
       </c>
       <c r="G56">
-        <f t="shared" ca="1" si="65"/>
-        <v>-0.51770650855875666</v>
+        <f t="shared" ca="1" si="86"/>
+        <v>-1.8893141541320315</v>
       </c>
       <c r="H56">
-        <f t="shared" ca="1" si="65"/>
-        <v>-1.0020674824693141</v>
+        <f t="shared" ca="1" si="86"/>
+        <v>-2.095137455895868</v>
       </c>
       <c r="I56">
-        <f t="shared" ca="1" si="65"/>
-        <v>-1.6999803767803305</v>
+        <f t="shared" ca="1" si="86"/>
+        <v>-2.221256741530869</v>
       </c>
       <c r="J56">
-        <f t="shared" ca="1" si="65"/>
-        <v>-2.6584745169969919</v>
+        <f t="shared" ca="1" si="86"/>
+        <v>-2.2637277747982352</v>
       </c>
       <c r="K56">
-        <f t="shared" ca="1" si="65"/>
-        <v>-3.9372095180128603</v>
+        <f t="shared" ca="1" si="86"/>
+        <v>-2.2212543182454283</v>
       </c>
       <c r="L56">
-        <f t="shared" ca="1" si="65"/>
-        <v>-5.6161120819096606</v>
+        <f t="shared" ca="1" si="86"/>
+        <v>-2.0951328896666093</v>
       </c>
       <c r="M56">
-        <f t="shared" ca="1" si="65"/>
-        <v>-7.8039079221184871</v>
+        <f t="shared" ca="1" si="86"/>
+        <v>-1.8893079879516903</v>
       </c>
       <c r="N56">
-        <f t="shared" ca="1" si="65"/>
-        <v>-10.635026313241944</v>
+        <f t="shared" ca="1" si="86"/>
+        <v>-1.6105069354994086</v>
       </c>
       <c r="O56">
-        <f t="shared" ca="1" si="65"/>
-        <v>-14.188943398490462</v>
+        <f t="shared" ca="1" si="86"/>
+        <v>-1.2683675147608093</v>
       </c>
       <c r="P56">
-        <f t="shared" ca="1" si="65"/>
-        <v>-18.021288610001474</v>
+        <f t="shared" ca="1" si="86"/>
+        <v>-0.87543450662080891</v>
       </c>
       <c r="Q56">
-        <f t="shared" ca="1" si="65"/>
-        <v>-18.878337998435995</v>
+        <f t="shared" ca="1" si="86"/>
+        <v>-0.4468989684768207</v>
+      </c>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <f t="shared" ref="C57:Q57" ca="1" si="87">-(C39-C40)</f>
+        <v>-0.42951407532537639</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="87"/>
+        <v>-0.84163879011826914</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="87"/>
+        <v>-1.2199605606807131</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="87"/>
+        <v>-1.5498665783514955</v>
+      </c>
+      <c r="G57">
+        <f t="shared" ca="1" si="87"/>
+        <v>-1.8191230237849998</v>
+      </c>
+      <c r="H57">
+        <f t="shared" ca="1" si="87"/>
+        <v>-2.0181859193789125</v>
+      </c>
+      <c r="I57">
+        <f t="shared" ca="1" si="87"/>
+        <v>-2.1402947592896098</v>
+      </c>
+      <c r="J57">
+        <f t="shared" ca="1" si="87"/>
+        <v>-2.1814390977927478</v>
+      </c>
+      <c r="K57">
+        <f t="shared" ca="1" si="87"/>
+        <v>-2.1402923360041219</v>
+      </c>
+      <c r="L57">
+        <f t="shared" ca="1" si="87"/>
+        <v>-2.0181813531495676</v>
+      </c>
+      <c r="M57">
+        <f t="shared" ca="1" si="87"/>
+        <v>-1.8191168576045458</v>
+      </c>
+      <c r="N57">
+        <f t="shared" ca="1" si="87"/>
+        <v>-1.5498595834072177</v>
+      </c>
+      <c r="O57">
+        <f t="shared" ca="1" si="87"/>
+        <v>-1.2199536869369461</v>
+      </c>
+      <c r="P57">
+        <f t="shared" ca="1" si="87"/>
+        <v>-0.84163310453834783</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" ca="1" si="87"/>
+        <v>-0.42951069100505618</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6156,175 +7185,175 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G18" s="8">
-        <f ca="1">G7-G6</f>
-        <v>0.37725553917872734</v>
+        <f ca="1">(G7-G6)/0.25</f>
+        <v>1.5090221567149094</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" ref="H18:K18" ca="1" si="45">H7-H6</f>
-        <v>0.31007264073883434</v>
+        <f t="shared" ref="H18:K18" ca="1" si="45">(H7-H6)/0.25</f>
+        <v>1.2402905629553374</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" ca="1" si="45"/>
-        <v>0.29310038210823774</v>
+        <v>1.172401528432951</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="45"/>
-        <v>0.30835777549134324</v>
+        <v>1.233431101965373</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="45"/>
-        <v>0.37246442786835232</v>
+        <v>1.4898577114734093</v>
       </c>
       <c r="L18" s="8"/>
       <c r="R18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W18" s="8">
-        <f ca="1">W11-W10</f>
-        <v>-2.9394615918945687E-4</v>
+        <f ca="1">(W11-W10)/0.25</f>
+        <v>-1.1757846367578275E-3</v>
       </c>
       <c r="X18" s="8">
-        <f t="shared" ref="X18:AA18" ca="1" si="46">X11-X10</f>
-        <v>-1.3805420916808525E-4</v>
+        <f t="shared" ref="X18:AA18" ca="1" si="46">(X11-X10)/0.25</f>
+        <v>-5.5221683667234101E-4</v>
       </c>
       <c r="Y18" s="8">
         <f t="shared" ca="1" si="46"/>
-        <v>-6.5519335941217248E-5</v>
+        <v>-2.6207734376486899E-4</v>
       </c>
       <c r="Z18" s="8">
         <f t="shared" ca="1" si="46"/>
-        <v>-3.1490659991729513E-5</v>
+        <v>-1.2596263996691805E-4</v>
       </c>
       <c r="AA18" s="8">
         <f t="shared" ca="1" si="46"/>
-        <v>-1.5875374148927829E-5</v>
+        <v>-6.3501496595711317E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G19" s="8">
-        <f ca="1">G7-G8</f>
-        <v>0.37207202007124696</v>
+        <f ca="1">(G7-G8)/0.25</f>
+        <v>1.4882880802849878</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" ref="H19:K19" ca="1" si="47">H7-H8</f>
-        <v>0.30648282283465955</v>
+        <f t="shared" ref="H19:K19" ca="1" si="47">(H7-H8)/0.25</f>
+        <v>1.2259312913386382</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" ca="1" si="47"/>
-        <v>0.28994043950959569</v>
+        <v>1.1597617580383828</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="47"/>
-        <v>0.30433290157341364</v>
+        <v>1.2173316062936546</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="47"/>
-        <v>0.36626447844377197</v>
+        <v>1.4650579137750879</v>
       </c>
       <c r="L19" s="8"/>
       <c r="R19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W19" s="8">
-        <f ca="1">W11-W12</f>
-        <v>-1.1257676086944873E-4</v>
+        <f ca="1">(W11-W12)/0.25</f>
+        <v>-4.5030704347779493E-4</v>
       </c>
       <c r="X19" s="8">
-        <f t="shared" ref="X19:AA19" ca="1" si="48">X11-X12</f>
-        <v>-4.6791568148443046E-5</v>
+        <f t="shared" ref="X19:AA19" ca="1" si="48">(X11-X12)/0.25</f>
+        <v>-1.8716627259377218E-4</v>
       </c>
       <c r="Y19" s="8">
         <f t="shared" ca="1" si="48"/>
-        <v>-2.0614296465105496E-5</v>
+        <v>-8.2457185860421983E-5</v>
       </c>
       <c r="Z19" s="8">
         <f t="shared" ca="1" si="48"/>
-        <v>-9.5876324390178901E-6</v>
+        <v>-3.8350529756071561E-5</v>
       </c>
       <c r="AA19" s="8">
         <f t="shared" ca="1" si="48"/>
-        <v>-5.0640429839627858E-6</v>
+        <v>-2.0256171935851143E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F20" s="8"/>
       <c r="G20" s="8">
-        <f ca="1">G19+G18</f>
-        <v>0.7493275592499743</v>
+        <f ca="1">SUM(G18:G19)</f>
+        <v>2.9973102369998972</v>
       </c>
       <c r="H20" s="8">
-        <f t="shared" ref="H20:K20" ca="1" si="49">H19+H18</f>
-        <v>0.61655546357349389</v>
+        <f t="shared" ref="H20:M20" ca="1" si="49">SUM(H18:H19)</f>
+        <v>2.4662218542939756</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>0.58304082161783344</v>
+        <v>2.3321632864713338</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>0.61269067706475688</v>
+        <v>2.4507627082590275</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>0.73872890631212429</v>
-      </c>
-      <c r="L20" s="8"/>
+        <v>2.9549156252484972</v>
+      </c>
       <c r="R20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W20" s="8">
         <f ca="1">SUM(W18:W19)</f>
-        <v>-4.0652292005890562E-4</v>
+        <v>-1.6260916802356225E-3</v>
       </c>
       <c r="X20" s="8">
         <f t="shared" ref="X20:AA20" ca="1" si="50">SUM(X18:X19)</f>
-        <v>-1.8484577731652831E-4</v>
+        <v>-7.3938310926611323E-4</v>
       </c>
       <c r="Y20" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>-8.6133632406322741E-5</v>
+        <v>-3.4453452962529096E-4</v>
       </c>
       <c r="Z20" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>-4.1078292430747405E-5</v>
+        <v>-1.6431316972298962E-4</v>
       </c>
       <c r="AA20" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>-2.0939417132890614E-5</v>
+        <v>-8.3757668531562457E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="8">
+        <v>5</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6">
         <v>8.8541878128000006E-12</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="6">
         <v>8.8541878128000006E-12</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="6">
         <v>8.8541878128000006E-12</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="6">
         <v>8.8541878128000006E-12</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="6">
         <v>8.8541878128000006E-12</v>
       </c>
-      <c r="L21" s="8"/>
       <c r="R21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W21" s="6">
         <v>8.8541878128000006E-12</v>
@@ -6342,145 +7371,191 @@
         <v>8.8541878128000006E-12</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>7</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F22" s="8"/>
       <c r="G22" s="8">
         <f ca="1">G21*G20</f>
-        <v>6.6346869429062931E-12</v>
+        <v>2.6538747771625172E-11</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" ref="H22:K22" ca="1" si="51">H21*H20</f>
-        <v>5.4590978714876845E-12</v>
+        <f t="shared" ref="H22:M22" ca="1" si="51">H21*H20</f>
+        <v>2.1836391485950738E-11</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" ca="1" si="51"/>
-        <v>5.16235293713352E-12</v>
+        <v>2.064941174853408E-11</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="51"/>
-        <v>5.4248783258829515E-12</v>
+        <v>2.1699513303531806E-11</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="51"/>
-        <v>6.5408444792318847E-12</v>
-      </c>
-      <c r="L22" s="8"/>
+        <v>2.6163377916927539E-11</v>
+      </c>
+      <c r="L22" t="s">
+        <v>7</v>
+      </c>
       <c r="R22" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="W22" s="8">
         <f ca="1">W21*W20</f>
-        <v>-3.5994302844094313E-15</v>
+        <v>-1.4397721137637725E-14</v>
       </c>
       <c r="X22" s="8">
         <f t="shared" ref="X22:AA22" ca="1" si="52">X21*X20</f>
-        <v>-1.6366592287635477E-15</v>
+        <v>-6.5466369150541908E-15</v>
       </c>
       <c r="Y22" s="8">
         <f t="shared" ca="1" si="52"/>
-        <v>-7.6264335832425797E-16</v>
+        <v>-3.0505734332970319E-15</v>
       </c>
       <c r="Z22" s="8">
         <f t="shared" ca="1" si="52"/>
-        <v>-3.6371491621095819E-16</v>
+        <v>-1.4548596648438328E-15</v>
       </c>
       <c r="AA22" s="8">
         <f t="shared" ca="1" si="52"/>
-        <v>-1.854015319851756E-16</v>
+        <v>-7.4160612794070241E-16</v>
       </c>
       <c r="AB22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>8</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F23" s="8"/>
       <c r="G23" s="8">
-        <f ca="1">G22*0.25</f>
-        <v>1.6586717357265733E-12</v>
+        <f ca="1">SUM(G22:H22)/2</f>
+        <v>2.4187569628787955E-11</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" ref="H23:K23" ca="1" si="53">H22*0.25</f>
-        <v>1.3647744678719211E-12</v>
+        <f t="shared" ref="H23" ca="1" si="53">SUM(H22:I22)/2</f>
+        <v>2.1242901617242409E-11</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" ca="1" si="53"/>
-        <v>1.29058823428338E-12</v>
+        <f t="shared" ref="I23" ca="1" si="54">SUM(I22:J22)/2</f>
+        <v>2.1174462526032941E-11</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" ca="1" si="53"/>
-        <v>1.3562195814707379E-12</v>
-      </c>
-      <c r="K23" s="8">
-        <f t="shared" ca="1" si="53"/>
-        <v>1.6352111198079712E-12</v>
-      </c>
-      <c r="L23" s="8">
-        <f ca="1">SUM(G23:K23)</f>
-        <v>7.3054651391605828E-12</v>
-      </c>
+        <f t="shared" ref="J23" ca="1" si="55">SUM(J22:K22)/2</f>
+        <v>2.3931445610229674E-11</v>
+      </c>
+      <c r="K23" s="8"/>
       <c r="R23" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="W23" s="8">
-        <f ca="1">W22*0.25</f>
-        <v>-8.9985757110235781E-16</v>
+        <f ca="1">SUM(W22:X22)/2</f>
+        <v>-1.0472179026345958E-14</v>
       </c>
       <c r="X23" s="8">
-        <f t="shared" ref="X23:AA23" ca="1" si="54">X22*0.25</f>
-        <v>-4.0916480719088692E-16</v>
+        <f t="shared" ref="X23:Z23" ca="1" si="56">SUM(X22:Y22)/2</f>
+        <v>-4.7986051741756113E-15</v>
       </c>
       <c r="Y23" s="8">
-        <f t="shared" ca="1" si="54"/>
-        <v>-1.9066083958106449E-16</v>
+        <f t="shared" ca="1" si="56"/>
+        <v>-2.2527165490704322E-15</v>
       </c>
       <c r="Z23" s="8">
-        <f t="shared" ca="1" si="54"/>
-        <v>-9.0928729052739547E-17</v>
-      </c>
-      <c r="AA23" s="8">
-        <f t="shared" ca="1" si="54"/>
-        <v>-4.6350382996293901E-17</v>
-      </c>
-      <c r="AB23" s="7">
-        <f ca="1">SUM(W23:AA23)</f>
-        <v>-1.6369623299233425E-15</v>
+        <f t="shared" ca="1" si="56"/>
+        <v>-1.0982328963922677E-15</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8">
+        <f ca="1">G23*0.25</f>
+        <v>6.0468924071969888E-12</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" ref="H24" ca="1" si="57">H23*0.25</f>
+        <v>5.3107254043106023E-12</v>
+      </c>
+      <c r="I24" s="8">
+        <f t="shared" ref="I24" ca="1" si="58">I23*0.25</f>
+        <v>5.2936156315082354E-12</v>
+      </c>
+      <c r="J24" s="8">
+        <f t="shared" ref="J24" ca="1" si="59">J23*0.25</f>
+        <v>5.9828614025574185E-12</v>
+      </c>
       <c r="K24" s="8"/>
-      <c r="L24" s="11" t="s">
-        <v>10</v>
+      <c r="L24" s="8">
+        <f ca="1">SUM(G24:K24)</f>
+        <v>2.2634094845573243E-11</v>
       </c>
       <c r="R24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB24" s="12" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="W24" s="8">
+        <f ca="1">W23*0.25</f>
+        <v>-2.6180447565864894E-15</v>
+      </c>
+      <c r="X24" s="8">
+        <f t="shared" ref="X24:Z24" ca="1" si="60">X23*0.25</f>
+        <v>-1.1996512935439028E-15</v>
+      </c>
+      <c r="Y24" s="8">
+        <f t="shared" ca="1" si="60"/>
+        <v>-5.6317913726760806E-16</v>
+      </c>
+      <c r="Z24" s="8">
+        <f t="shared" ca="1" si="60"/>
+        <v>-2.7455822409806692E-16</v>
+      </c>
+      <c r="AB24" s="8">
+        <f ca="1">SUM(W24:AA24)</f>
+        <v>-4.655433411496067E-15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="13">
+        <f ca="1">L24*1000000000000</f>
+        <v>22.634094845573244</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB25" s="13">
+        <f ca="1">AB24*(-1000000000000000)</f>
+        <v>4.6554334114960669</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="W39" sqref="W39"/>
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6488,10 +7563,10 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.77734375" customWidth="1"/>
@@ -6952,143 +8027,143 @@
       </c>
       <c r="D4" s="8">
         <f t="shared" ref="D4:AL12" ca="1" si="3">0.25*(E4+D3+C4+D5)</f>
-        <v>5.8737660211064772E-7</v>
+        <v>5.8799777166819442E-7</v>
       </c>
       <c r="E4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2844880185545219E-6</v>
+        <v>1.2855957643378191E-6</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3293490449090903E-6</v>
+        <v>2.3308462902884175E-6</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.3089236395435853E-6</v>
+        <v>4.3108657351429559E-6</v>
       </c>
       <c r="H4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4968368723181782E-6</v>
+        <v>8.4995243163139318E-6</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7046390410695843E-5</v>
+        <v>1.7050280377268309E-5</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3617960418614443E-5</v>
+        <v>3.3623615015526712E-5</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3425773701212686E-5</v>
+        <v>6.343372570240629E-5</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1058251517143625E-4</v>
+        <v>1.1059285388157568E-4</v>
       </c>
       <c r="M4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7095895733638619E-4</v>
+        <v>1.7097057597761407E-4</v>
       </c>
       <c r="N4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5583021636907524E-4</v>
+        <v>2.5584183217676042E-4</v>
       </c>
       <c r="O4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1620462044028372E-4</v>
+        <v>4.1621597385575493E-4</v>
       </c>
       <c r="P4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>7.7339784224785229E-4</v>
+        <v>7.7341024089121646E-4</v>
       </c>
       <c r="Q4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5068475648575214E-3</v>
+        <v>1.506862830304166E-3</v>
       </c>
       <c r="R4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8873143517317186E-3</v>
+        <v>2.8873343496293152E-3</v>
       </c>
       <c r="S4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1890753473920392E-3</v>
+        <v>5.1891014731564791E-3</v>
       </c>
       <c r="T4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>8.1804771434540527E-3</v>
+        <v>8.18050902079729E-3</v>
       </c>
       <c r="U4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>9.915278980096049E-3</v>
+        <v>9.9153122671799057E-3</v>
       </c>
       <c r="V4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>9.0964538025644914E-3</v>
+        <v>9.0964836305323562E-3</v>
       </c>
       <c r="W4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6.2767501335611493E-3</v>
+        <v>6.2767746524118664E-3</v>
       </c>
       <c r="X4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1741997008532695E-3</v>
+        <v>4.1742212108542721E-3</v>
       </c>
       <c r="Y4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4577721134002514E-3</v>
+        <v>3.4577938225329461E-3</v>
       </c>
       <c r="Z4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1741742592962408E-3</v>
+        <v>4.1741990207614706E-3</v>
       </c>
       <c r="AA4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6.2766914948113152E-3</v>
+        <v>6.2767211443919523E-3</v>
       </c>
       <c r="AB4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>9.0963463364857403E-3</v>
+        <v>9.0963803845777631E-3</v>
       </c>
       <c r="AC4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>9.9150992816262919E-3</v>
+        <v>9.915132774370226E-3</v>
       </c>
       <c r="AD4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>8.1801712019646776E-3</v>
+        <v>8.1801986417174705E-3</v>
       </c>
       <c r="AE4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1885105808626908E-3</v>
+        <v>5.188529607359986E-3</v>
       </c>
       <c r="AF4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8861911400979781E-3</v>
+        <v>2.886203402227565E-3</v>
       </c>
       <c r="AG4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5045753249760224E-3</v>
+        <v>1.5045831371082422E-3</v>
       </c>
       <c r="AH4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6887380797840607E-4</v>
+        <v>7.6887898865601748E-4</v>
       </c>
       <c r="AI4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.0754276487263191E-4</v>
+        <v>4.0754648937365234E-4</v>
       </c>
       <c r="AJ4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4032547777290666E-4</v>
+        <v>2.4032833445000783E-4</v>
       </c>
       <c r="AK4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4581662138784125E-4</v>
+        <v>1.4581862763946105E-4</v>
       </c>
       <c r="AL4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>7.117707980391883E-5</v>
+        <v>7.11780924418211E-5</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -7108,143 +8183,143 @@
       </c>
       <c r="D5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0653559722916946E-6</v>
+        <v>1.0663953223349586E-6</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2217524581950109E-6</v>
+        <v>2.2235389953946649E-6</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7246735110433594E-6</v>
+        <v>3.7269236616728948E-6</v>
       </c>
       <c r="G5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6.4104157446921733E-6</v>
+        <v>6.4130923339694738E-6</v>
       </c>
       <c r="H5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2633333701033066E-5</v>
+        <v>1.263695115284446E-5</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6072694117637652E-5</v>
+        <v>2.6077982177232589E-5</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4002519179391145E-5</v>
+        <v>5.4010453982432247E-5</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0950662806496136E-4</v>
+        <v>1.0951843391252277E-4</v>
       </c>
       <c r="L5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.0795049961437774E-4</v>
+        <v>2.0796711384628237E-4</v>
       </c>
       <c r="M5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1742875559434016E-4</v>
+        <v>3.1744761785212016E-4</v>
       </c>
       <c r="N5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.3616283338576711E-4</v>
+        <v>4.3618077887367269E-4</v>
       </c>
       <c r="O5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3559592228754861E-4</v>
+        <v>6.356118223550429E-4</v>
       </c>
       <c r="P5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1705455351778207E-3</v>
+        <v>1.170562159404945E-3</v>
       </c>
       <c r="Q5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3666862610532222E-3</v>
+        <v>2.366706730696133E-3</v>
       </c>
       <c r="R5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8533454855397232E-3</v>
+        <v>4.8533730950566156E-3</v>
       </c>
       <c r="S5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>9.6885243168090378E-3</v>
+        <v>9.6885625221993128E-3</v>
       </c>
       <c r="T5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7617571613913599E-2</v>
+        <v>1.7617622342852773E-2</v>
       </c>
       <c r="U5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2384202389336159E-2</v>
+        <v>2.2384256417389978E-2</v>
       </c>
       <c r="V5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.0193800974913863E-2</v>
+        <v>2.0193847602537653E-2</v>
       </c>
       <c r="W5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1836358950782232E-2</v>
+        <v>1.1836393768260838E-2</v>
       </c>
       <c r="X5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6.9622874397794882E-3</v>
+        <v>6.9623163684722749E-3</v>
       </c>
       <c r="Y5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4827261802435634E-3</v>
+        <v>5.4827550585160416E-3</v>
       </c>
       <c r="Z5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6.9622473616309574E-3</v>
+        <v>6.9622811161209851E-3</v>
       </c>
       <c r="AA5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1836262348290643E-2</v>
+        <v>1.1836305172228574E-2</v>
       </c>
       <c r="AB5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.019361386148508E-2</v>
+        <v>2.0193667619548876E-2</v>
       </c>
       <c r="AC5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2383897692536008E-2</v>
+        <v>2.2383952071185671E-2</v>
       </c>
       <c r="AD5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7617088766263687E-2</v>
+        <v>1.7617132185139672E-2</v>
       </c>
       <c r="AE5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>9.6876887997732197E-3</v>
+        <v>9.687716385494911E-3</v>
       </c>
       <c r="AF5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8516840928841971E-3</v>
+        <v>4.8517008644420323E-3</v>
       </c>
       <c r="AG5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.363239789158339E-3</v>
+        <v>2.3632501575493858E-3</v>
       </c>
       <c r="AH5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.163379477562078E-3</v>
+        <v>1.1633863281421755E-3</v>
       </c>
       <c r="AI5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6.2097353021254155E-4</v>
+        <v>6.2097863438858409E-4</v>
       </c>
       <c r="AJ5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.0794391641534104E-4</v>
+        <v>4.0794822078691793E-4</v>
       </c>
       <c r="AK5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7176486160685782E-4</v>
+        <v>2.7176808366601523E-4</v>
       </c>
       <c r="AL5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.388920671364453E-4</v>
+        <v>1.3889374212782335E-4</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -7264,143 +8339,143 @@
       </c>
       <c r="D6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4527771926108015E-6</v>
+        <v>1.4540445222769754E-6</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8131847006518262E-6</v>
+        <v>2.8152412332329867E-6</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>3.9379860435179493E-6</v>
+        <v>3.940217027039022E-6</v>
       </c>
       <c r="G6" s="11">
         <f ca="1">0.25*(H6+G5+F6+G7)</f>
-        <v>4.9756791925173495E-6</v>
+        <v>4.9776287862175863E-6</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" ca="1" si="3"/>
-        <v>9.5547397404881425E-6</v>
+        <v>9.5572057838618476E-6</v>
       </c>
       <c r="I6" s="11">
         <f t="shared" ca="1" si="3"/>
-        <v>2.0610589258433942E-5</v>
+        <v>2.0614243196385342E-5</v>
       </c>
       <c r="J6" s="11">
         <f t="shared" ca="1" si="3"/>
-        <v>4.681596439130962E-5</v>
+        <v>4.6821784824446931E-5</v>
       </c>
       <c r="K6" s="11">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1265254278094922E-4</v>
+        <v>1.1266244211897015E-4</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9429097779382454E-4</v>
+        <v>2.9430954973891095E-4</v>
       </c>
       <c r="M6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5465013423171094E-4</v>
+        <v>4.5467200271091156E-4</v>
       </c>
       <c r="N6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3580301388288481E-4</v>
+        <v>5.3582184311076742E-4</v>
       </c>
       <c r="O6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1947629359963554E-4</v>
+        <v>5.1948837728579941E-4</v>
       </c>
       <c r="P6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>9.0650847961018836E-4</v>
+        <v>9.0651984367738745E-4</v>
       </c>
       <c r="Q6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9360149006673647E-3</v>
+        <v>1.9360288380188054E-3</v>
       </c>
       <c r="R6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4708689196945534E-3</v>
+        <v>4.4708887777017009E-3</v>
       </c>
       <c r="S6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1094121760097777E-2</v>
+        <v>1.1094153177731382E-2</v>
       </c>
       <c r="T6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0217105387847203E-2</v>
+        <v>3.0217161411024516E-2</v>
       </c>
       <c r="U6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1810180717166995E-2</v>
+        <v>4.1810243456989582E-2</v>
       </c>
       <c r="V6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7458206511357089E-2</v>
+        <v>3.745825659396744E-2</v>
       </c>
       <c r="W6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3912609162808266E-2</v>
+        <v>1.3912636449621556E-2</v>
       </c>
       <c r="X6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3558754519927544E-3</v>
+        <v>6.3558954362579485E-3</v>
       </c>
       <c r="Y6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5486094332022105E-3</v>
+        <v>4.5486289269379612E-3</v>
       </c>
       <c r="Z6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3558413383618603E-3</v>
+        <v>6.3558652129778563E-3</v>
       </c>
       <c r="AA6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3912516196879695E-2</v>
+        <v>1.3912550808852481E-2</v>
       </c>
       <c r="AB6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7457974097933555E-2</v>
+        <v>3.7458032850203493E-2</v>
       </c>
       <c r="AC6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1809812469750789E-2</v>
+        <v>4.180987570568391E-2</v>
       </c>
       <c r="AD6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0216614020546286E-2</v>
+        <v>3.0216661642160639E-2</v>
       </c>
       <c r="AE6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1093480438913393E-2</v>
+        <v>1.1093502885037954E-2</v>
       </c>
       <c r="AF6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4696215766383699E-3</v>
+        <v>4.46963351249627E-3</v>
       </c>
       <c r="AG6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9333233188091477E-3</v>
+        <v>1.9333303005050926E-3</v>
       </c>
       <c r="AH6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>9.0043292693090774E-4</v>
+        <v>9.0043753197471474E-4</v>
       </c>
       <c r="AI6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0502974091250642E-4</v>
+        <v>5.0503349925159081E-4</v>
       </c>
       <c r="AJ6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.9871346882333911E-4</v>
+        <v>4.9871783064306461E-4</v>
       </c>
       <c r="AK6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>3.9440803006922381E-4</v>
+        <v>3.9441174410985858E-4</v>
       </c>
       <c r="AL6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.126267726646181E-4</v>
+        <v>2.1262879240345706E-4</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -7420,15 +8495,15 @@
       </c>
       <c r="D7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9331203000973475E-6</v>
+        <v>1.9345415335399565E-6</v>
       </c>
       <c r="E7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>3.6409413222201578E-6</v>
+        <v>3.6431643882212841E-6</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.2390606082696445E-6</v>
+        <v>4.2410744270326214E-6</v>
       </c>
       <c r="G7" s="9">
         <v>0</v>
@@ -7447,15 +8522,15 @@
       </c>
       <c r="L7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.0191817114396914E-4</v>
+        <v>4.019366402794797E-4</v>
       </c>
       <c r="M7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6.7108563976588662E-4</v>
+        <v>6.7110900014184772E-4</v>
       </c>
       <c r="N7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>7.329284333310788E-4</v>
+        <v>7.3294621357268607E-4</v>
       </c>
       <c r="O7" s="9">
         <v>0</v>
@@ -7474,15 +8549,15 @@
       </c>
       <c r="T7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0346571834289533E-2</v>
+        <v>5.0346626666524327E-2</v>
       </c>
       <c r="U7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>7.7181232835248664E-2</v>
+        <v>7.7181299405576415E-2</v>
       </c>
       <c r="V7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3916250911132811E-2</v>
+        <v>7.3916298866720964E-2</v>
       </c>
       <c r="W7" s="9">
         <v>0</v>
@@ -7501,15 +8576,15 @@
       </c>
       <c r="AB7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3915980442800081E-2</v>
+        <v>7.3916037266728712E-2</v>
       </c>
       <c r="AC7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>7.718078941646149E-2</v>
+        <v>7.7180856259185832E-2</v>
       </c>
       <c r="AD7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.034608960721379E-2</v>
+        <v>5.0346135792781022E-2</v>
       </c>
       <c r="AE7" s="9">
         <v>0</v>
@@ -7528,15 +8603,15 @@
       </c>
       <c r="AJ7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6.8747388452484591E-4</v>
+        <v>6.8747785842389136E-4</v>
       </c>
       <c r="AK7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.9452833192246899E-4</v>
+        <v>5.9453226972689755E-4</v>
       </c>
       <c r="AL7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1720747982897415E-4</v>
+        <v>3.172096833761463E-4</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
@@ -7556,143 +8631,143 @@
       </c>
       <c r="D8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6393727410414849E-6</v>
+        <v>2.6409572236615668E-6</v>
       </c>
       <c r="E8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5791569953027226E-6</v>
+        <v>5.5818003590795726E-6</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>9.3778278174191515E-6</v>
+        <v>9.3809162928701786E-6</v>
       </c>
       <c r="G8" s="11">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5708294840130249E-5</v>
+        <v>1.5711469308270874E-5</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1424338933206536E-5</v>
+        <v>3.1428499872386429E-5</v>
       </c>
       <c r="I8" s="11">
         <f t="shared" ca="1" si="3"/>
-        <v>6.5513511681669807E-5</v>
+        <v>6.5519560921288442E-5</v>
       </c>
       <c r="J8" s="11">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3810779278267295E-4</v>
+        <v>1.3811696173289035E-4</v>
       </c>
       <c r="K8" s="11">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9409689072535294E-4</v>
+        <v>2.9411117006552227E-4</v>
       </c>
       <c r="L8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6.4230469902438634E-4</v>
+        <v>6.4232801123716024E-4</v>
       </c>
       <c r="M8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0948541726338629E-3</v>
+        <v>1.0948811440043135E-3</v>
       </c>
       <c r="N8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7248296792733246E-3</v>
+        <v>1.7248540110381292E-3</v>
       </c>
       <c r="O8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8261573319761451E-3</v>
+        <v>2.8261756969936731E-3</v>
       </c>
       <c r="P8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5611313308673487E-3</v>
+        <v>5.5611497160973529E-3</v>
       </c>
       <c r="Q8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1373272817385576E-2</v>
+        <v>1.1373295257801003E-2</v>
       </c>
       <c r="R8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3248092068307462E-2</v>
+        <v>2.3248122648721527E-2</v>
       </c>
       <c r="S8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6965748703976129E-2</v>
+        <v>4.6965793062387941E-2</v>
       </c>
       <c r="T8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>9.3987977181809679E-2</v>
+        <v>9.3988045849496382E-2</v>
       </c>
       <c r="U8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14265195350053853</v>
+        <v>0.14265202863207077</v>
       </c>
       <c r="V8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18102557729541863</v>
+        <v>0.18102563946734002</v>
       </c>
       <c r="W8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19770226768942459</v>
+        <v>0.19770230722803306</v>
       </c>
       <c r="X8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2144615228684088</v>
+        <v>0.21446155416953705</v>
       </c>
       <c r="Y8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22043030348834389</v>
+        <v>0.22043033437909321</v>
       </c>
       <c r="Z8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21446145540590331</v>
+        <v>0.21446149184833202</v>
       </c>
       <c r="AA8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19770209463886029</v>
+        <v>0.19770214310304968</v>
       </c>
       <c r="AB8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18102518881119897</v>
+        <v>0.1810252599575255</v>
       </c>
       <c r="AC8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1426513018610262</v>
+        <v>0.1426513762715497</v>
       </c>
       <c r="AD8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>9.3986967740231117E-2</v>
+        <v>9.3987025269777633E-2</v>
       </c>
       <c r="AE8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6964110407189827E-2</v>
+        <v>4.6964141647068601E-2</v>
       </c>
       <c r="AF8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3244828001267599E-2</v>
+        <v>2.32448460710242E-2</v>
       </c>
       <c r="AG8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1366454929229889E-2</v>
+        <v>1.1366465937901998E-2</v>
       </c>
       <c r="AH8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5467054212979296E-3</v>
+        <v>5.54671270515553E-3</v>
       </c>
       <c r="AI8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7952520489788356E-3</v>
+        <v>2.7952576532439179E-3</v>
       </c>
       <c r="AJ8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6566558241447372E-3</v>
+        <v>1.6566613333256035E-3</v>
       </c>
       <c r="AK8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>9.7902539185939358E-4</v>
+        <v>9.7902979299769374E-4</v>
       </c>
       <c r="AL8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6167533152215298E-4</v>
+        <v>4.616776713742307E-4</v>
       </c>
       <c r="AM8" s="1">
         <v>0</v>
@@ -7712,143 +8787,143 @@
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>3.045899566721026E-6</v>
+        <v>3.0474870020267384E-6</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6.659444437359653E-6</v>
+        <v>6.6621635315652601E-6</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1985912822445674E-5</v>
+        <v>1.1989321077097648E-5</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2032435740050445E-5</v>
+        <v>2.203646106782689E-5</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4477580225730975E-5</v>
+        <v>4.4482969259986412E-5</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>9.2524975579967055E-5</v>
+        <v>9.2532782079876989E-5</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9282549309800433E-4</v>
+        <v>1.9283711594475075E-4</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>3.9598252626582743E-4</v>
+        <v>3.9599970729203848E-4</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>7.7835904036432403E-4</v>
+        <v>7.7838309059932557E-4</v>
       </c>
       <c r="M9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3412063590747007E-3</v>
+        <v>1.341233553600117E-3</v>
       </c>
       <c r="N9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2453872305231914E-3</v>
+        <v>2.2454129895818436E-3</v>
       </c>
       <c r="O9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.0186763873202476E-3</v>
+        <v>4.018699060839211E-3</v>
       </c>
       <c r="P9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>8.0451044174254267E-3</v>
+        <v>8.0451279095947337E-3</v>
       </c>
       <c r="Q9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6683879981889832E-2</v>
+        <v>1.6683908666385132E-2</v>
       </c>
       <c r="R9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4653363821885545E-2</v>
+        <v>3.4653402274697168E-2</v>
       </c>
       <c r="S9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0626950764593965E-2</v>
+        <v>7.062700375133385E-2</v>
       </c>
       <c r="T9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13598766488407052</v>
+        <v>0.13598773503700246</v>
       </c>
       <c r="U9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21841305522466414</v>
+        <v>0.2184131298058703</v>
       </c>
       <c r="V9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30983185888406806</v>
+        <v>0.30983192314253527</v>
       </c>
       <c r="W9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39532198741823221</v>
+        <v>0.39532203527525522</v>
       </c>
       <c r="X9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43971353550089187</v>
+        <v>0.43971357507102199</v>
       </c>
       <c r="Y9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45279825223200487</v>
+        <v>0.45279829149850381</v>
       </c>
       <c r="Z9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43971344424072284</v>
+        <v>0.43971348991118525</v>
       </c>
       <c r="AA9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39532176284764942</v>
+        <v>0.39532182060634119</v>
       </c>
       <c r="AB9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30983141080940169</v>
+        <v>0.30983148318877385</v>
       </c>
       <c r="AC9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21841229043489729</v>
+        <v>0.21841236359970984</v>
       </c>
       <c r="AD9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13598638895593557</v>
+        <v>0.13598644736771121</v>
       </c>
       <c r="AE9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0624658122189626E-2</v>
+        <v>7.0624695247472571E-2</v>
       </c>
       <c r="AF9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4648754114642237E-2</v>
+        <v>3.4648776699126201E-2</v>
       </c>
       <c r="AG9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.667429100389858E-2</v>
+        <v>1.667430497542826E-2</v>
       </c>
       <c r="AH9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>8.025117992743299E-3</v>
+        <v>8.0251272294762054E-3</v>
       </c>
       <c r="AI9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>3.9776496912609051E-3</v>
+        <v>3.9776565744945392E-3</v>
       </c>
       <c r="AJ9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1648742263712076E-3</v>
+        <v>2.1648800286369111E-3</v>
       </c>
       <c r="AK9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2032435561399389E-3</v>
+        <v>1.2032478975640428E-3</v>
       </c>
       <c r="AL9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5046895295324878E-4</v>
+        <v>5.5047120912308297E-4</v>
       </c>
       <c r="AM9" s="1">
         <v>0</v>
@@ -7868,143 +8943,143 @@
       </c>
       <c r="D10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8854502877190288E-6</v>
+        <v>2.8868272528801267E-6</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6.0277556325775673E-6</v>
+        <v>6.0300456880570828E-6</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>9.8750820155033682E-6</v>
+        <v>9.8777434161282639E-6</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5959371927744771E-5</v>
+        <v>1.5962084625952625E-5</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1930594961474287E-5</v>
+        <v>3.193413401985535E-5</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6.7286350053473193E-5</v>
+        <v>6.7291482193482371E-5</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4469124411535577E-4</v>
+        <v>1.4469901267419715E-4</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1865535861965767E-4</v>
+        <v>3.1866745255855553E-4</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3395133245501203E-4</v>
+        <v>7.3397109026798659E-4</v>
       </c>
       <c r="M10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2462341621493939E-3</v>
+        <v>1.2462569902149854E-3</v>
       </c>
       <c r="N10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8968448024769165E-3</v>
+        <v>1.8968653328499175E-3</v>
       </c>
       <c r="O10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9580642473880751E-3</v>
+        <v>2.9580796471865918E-3</v>
       </c>
       <c r="P10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.916738859503886E-3</v>
+        <v>5.9167541950572392E-3</v>
       </c>
       <c r="Q10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2663790567720261E-2</v>
+        <v>1.2663809223447632E-2</v>
       </c>
       <c r="R10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8054548650278212E-2</v>
+        <v>2.8054574032348161E-2</v>
       </c>
       <c r="S10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6.4901047829395098E-2</v>
+        <v>6.4901084631247843E-2</v>
       </c>
       <c r="T10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16092270374710929</v>
+        <v>0.16092276074130935</v>
       </c>
       <c r="U10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28518077008027654</v>
+        <v>0.28518083241187275</v>
       </c>
       <c r="V10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44456683650230761</v>
+        <v>0.44456688802167554</v>
       </c>
       <c r="W10" s="11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63404030298710812</v>
+        <v>0.63404033565943063</v>
       </c>
       <c r="X10" s="11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69627239355571191</v>
+        <v>0.69627241934079187</v>
       </c>
       <c r="Y10" s="11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71133574125604093</v>
+        <v>0.71133576663271492</v>
       </c>
       <c r="Z10" s="11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69627232580544796</v>
+        <v>0.69627235569156398</v>
       </c>
       <c r="AA10" s="11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63404012650181474</v>
+        <v>0.63404016622235604</v>
       </c>
       <c r="AB10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44456643026985876</v>
+        <v>0.44456648859151893</v>
       </c>
       <c r="AC10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28518008657632721</v>
+        <v>0.28518014757080462</v>
       </c>
       <c r="AD10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16092165820683768</v>
+        <v>0.16092170535388484</v>
       </c>
       <c r="AE10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6.4899389689141218E-2</v>
+        <v>6.4899415275984293E-2</v>
       </c>
       <c r="AF10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8051245707147128E-2</v>
+        <v>2.8051260502579781E-2</v>
       </c>
       <c r="AG10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2656841022192333E-2</v>
+        <v>1.2656850035208632E-2</v>
       </c>
       <c r="AH10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.9018286987062131E-3</v>
+        <v>5.9018346628264898E-3</v>
       </c>
       <c r="AI10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9253567958511867E-3</v>
+        <v>2.9253613866211219E-3</v>
       </c>
       <c r="AJ10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8219497923564493E-3</v>
+        <v>1.8219543091634594E-3</v>
       </c>
       <c r="AK10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.118606949939078E-3</v>
+        <v>1.1186105594984835E-3</v>
       </c>
       <c r="AL10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3695734839225007E-4</v>
+        <v>5.3695926755405838E-4</v>
       </c>
       <c r="AM10" s="1">
         <v>0</v>
@@ -8024,15 +9099,15 @@
       </c>
       <c r="D11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4686984676417416E-6</v>
+        <v>2.4697763214366857E-6</v>
       </c>
       <c r="E11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6917690290286203E-6</v>
+        <v>4.6934485516546831E-6</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5280083424466221E-6</v>
+        <v>5.5295222734056983E-6</v>
       </c>
       <c r="G11" s="9">
         <v>0</v>
@@ -8051,15 +9126,15 @@
       </c>
       <c r="L11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.925635253693788E-4</v>
+        <v>5.9257682769907967E-4</v>
       </c>
       <c r="M11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0129412014409506E-3</v>
+        <v>1.0129579841419213E-3</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.137698971706496E-3</v>
+        <v>1.1377117044162489E-3</v>
       </c>
       <c r="O11" s="9">
         <v>0</v>
@@ -8078,15 +9153,15 @@
       </c>
       <c r="T11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15762135306234223</v>
+        <v>0.15762139088511432</v>
       </c>
       <c r="U11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31682050520453009</v>
+        <v>0.31682055107863588</v>
       </c>
       <c r="V11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54921442786593522</v>
+        <v>0.54921446087286363</v>
       </c>
       <c r="W11" s="10">
         <v>1</v>
@@ -8105,15 +9180,15 @@
       </c>
       <c r="AB11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54921411917669016</v>
+        <v>0.54921415738414125</v>
       </c>
       <c r="AC11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31681998780591686</v>
+        <v>0.31682003273810488</v>
       </c>
       <c r="AD11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15762078016038333</v>
+        <v>0.15762081120103927</v>
       </c>
       <c r="AE11" s="9">
         <v>0</v>
@@ -8132,15 +9207,15 @@
       </c>
       <c r="AJ11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0789625869927699E-3</v>
+        <v>1.078965261897321E-3</v>
       </c>
       <c r="AK11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1227811328379314E-4</v>
+        <v>9.1228076371237352E-4</v>
       </c>
       <c r="AL11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7875381862265621E-4</v>
+        <v>4.787553015946673E-4</v>
       </c>
       <c r="AM11" s="1">
         <v>0</v>
@@ -8160,143 +9235,143 @@
       </c>
       <c r="D12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.297989617501849E-6</v>
+        <v>2.2988294812119323E-6</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7430927355239703E-6</v>
+        <v>4.7444499237192646E-6</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>7.5454310607985549E-6</v>
+        <v>7.5468971258398469E-6</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1649943362450615E-5</v>
+        <v>1.1651218890809674E-5</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3433018646400868E-5</v>
+        <v>2.3434609703541425E-5</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.023887979186229E-5</v>
+        <v>5.0241201816214072E-5</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.110717488263004E-4</v>
+        <v>1.1107539765867045E-4</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5522759409981385E-4</v>
+        <v>2.5523372685614927E-4</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6.2336684533265845E-4</v>
+        <v>6.2337823638641083E-4</v>
       </c>
       <c r="M12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0752730693409859E-3</v>
+        <v>1.0752864142373714E-3</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6410120629156682E-3</v>
+        <v>1.6410235006731567E-3</v>
       </c>
       <c r="O12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5418563781866911E-3</v>
+        <v>2.5418636733308365E-3</v>
       </c>
       <c r="P12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1433371849953554E-3</v>
+        <v>5.143343954166023E-3</v>
       </c>
       <c r="Q12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1156938204535838E-2</v>
+        <v>1.1156946393143467E-2</v>
       </c>
       <c r="R12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5167228137081998E-2</v>
+        <v>2.5167239682718844E-2</v>
       </c>
       <c r="S12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.9711965028352076E-2</v>
+        <v>5.9711983158091356E-2</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" ref="T12:AL12" ca="1" si="5">0.25*(U12+T11+S12+T13)</f>
-        <v>0.152742219566912</v>
+        <v>0.15274225172051203</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27526548421832542</v>
+        <v>0.27526552014469285</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43547037576063963</v>
+        <v>0.43547040439114321</v>
       </c>
       <c r="W12" s="11">
         <f t="shared" ca="1" si="5"/>
-        <v>0.62776354543890289</v>
+        <v>0.6277635610070188</v>
       </c>
       <c r="X12" s="11">
         <f t="shared" ca="1" si="5"/>
-        <v>0.69209818680457547</v>
+        <v>0.69209819812993767</v>
       </c>
       <c r="Y12" s="11">
         <f t="shared" ca="1" si="5"/>
-        <v>0.70787796186695995</v>
+        <v>0.70787797281018205</v>
       </c>
       <c r="Z12" s="11">
         <f t="shared" ca="1" si="5"/>
-        <v>0.69209814337828868</v>
+        <v>0.69209815667080266</v>
       </c>
       <c r="AA12" s="11">
         <f t="shared" ca="1" si="5"/>
-        <v>0.62776342591257916</v>
+        <v>0.62776344507796411</v>
       </c>
       <c r="AB12" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43547007577966651</v>
+        <v>0.43547010820694121</v>
       </c>
       <c r="AC12" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27526497992537191</v>
+        <v>0.27526501479643439</v>
       </c>
       <c r="AD12" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15274148045309799</v>
+        <v>0.15274150671216738</v>
       </c>
       <c r="AE12" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>5.9710873276125009E-2</v>
+        <v>5.9710885668624314E-2</v>
       </c>
       <c r="AF12" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5165050501518151E-2</v>
+        <v>2.5165057100352221E-2</v>
       </c>
       <c r="AG12" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1152263032949156E-2</v>
+        <v>1.1152266898100394E-2</v>
       </c>
       <c r="AH12" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1329531222744397E-3</v>
+        <v>5.1329556741704736E-3</v>
       </c>
       <c r="AI12" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5178128150217267E-3</v>
+        <v>2.5178148972474701E-3</v>
       </c>
       <c r="AJ12" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5816235625550875E-3</v>
+        <v>1.5816259747134516E-3</v>
       </c>
       <c r="AK12" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>9.7278987965830003E-4</v>
+        <v>9.7279193185902243E-4</v>
       </c>
       <c r="AL12" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>4.6578005961540121E-4</v>
+        <v>4.6578117511223728E-4</v>
       </c>
       <c r="AM12" s="1">
         <v>0</v>
@@ -8316,143 +9391,143 @@
       </c>
       <c r="D13" s="8">
         <f t="shared" ref="D13:AL14" ca="1" si="6">0.25*(E13+D12+C13+D14)</f>
-        <v>1.9804927356421055E-6</v>
+        <v>1.9810916796917798E-6</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>4.4376020595821637E-6</v>
+        <v>4.4386245361705952E-6</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>8.2611218587419906E-6</v>
+        <v>8.2623974154247535E-6</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5621872506717925E-5</v>
+        <v>1.5623368733857419E-5</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.1844031881382525E-5</v>
+        <v>3.1846018107141959E-5</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>6.6451945220896377E-5</v>
+        <v>6.6454799902644404E-5</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3882243980882877E-4</v>
+        <v>1.388266619623185E-4</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.8647506641095422E-4</v>
+        <v>2.8648127337951575E-4</v>
       </c>
       <c r="L13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>5.7040732755756494E-4</v>
+        <v>5.7041597675304315E-4</v>
       </c>
       <c r="M13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0237761915478747E-3</v>
+        <v>1.0237859357479966E-3</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8092230200971876E-3</v>
+        <v>1.8092322107081706E-3</v>
       </c>
       <c r="O13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.3830792008910445E-3</v>
+        <v>3.3830872384841672E-3</v>
       </c>
       <c r="P13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>6.8745574935192271E-3</v>
+        <v>6.8745657501897879E-3</v>
       </c>
       <c r="Q13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.43171919312997E-2</v>
+        <v>1.4317201935689E-2</v>
       </c>
       <c r="R13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.9800015841186807E-2</v>
+        <v>2.9800029179640555E-2</v>
       </c>
       <c r="S13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>6.093842291560355E-2</v>
+        <v>6.0938441229134541E-2</v>
       </c>
       <c r="T13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.11837008850674979</v>
+        <v>0.11837011269414971</v>
       </c>
       <c r="U13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19602884771540541</v>
+        <v>0.19602887338848038</v>
       </c>
       <c r="V13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.28963805345602089</v>
+        <v>0.28963807553999765</v>
       </c>
       <c r="W13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.38348562510330686</v>
+        <v>0.38348564150699449</v>
       </c>
       <c r="X13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.43275124520290648</v>
+        <v>0.43275125870254982</v>
       </c>
       <c r="Y13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.44731552311871203</v>
+        <v>0.44731553643998789</v>
       </c>
       <c r="Z13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.43275119337122292</v>
+        <v>0.43275120879506435</v>
       </c>
       <c r="AA13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.38348549598251908</v>
+        <v>0.38348551543411269</v>
       </c>
       <c r="AB13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.28963779123024225</v>
+        <v>0.28963781556922502</v>
       </c>
       <c r="AC13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19602838693980246</v>
+        <v>0.19602841152852418</v>
       </c>
       <c r="AD13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.11836929555436967</v>
+        <v>0.11836931518257156</v>
       </c>
       <c r="AE13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0936966383475455E-2</v>
+        <v>6.0936978861977673E-2</v>
       </c>
       <c r="AF13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.9797068240470764E-2</v>
+        <v>2.9797075834684175E-2</v>
       </c>
       <c r="AG13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4311050117502739E-2</v>
+        <v>1.4311054817878876E-2</v>
       </c>
       <c r="AH13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>6.8617377924809729E-3</v>
+        <v>6.8617409013340298E-3</v>
       </c>
       <c r="AI13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.3566756230458419E-3</v>
+        <v>3.3566779401059546E-3</v>
       </c>
       <c r="AJ13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.7569298552288395E-3</v>
+        <v>1.7569318078499931E-3</v>
       </c>
       <c r="AK13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>9.3147835334461595E-4</v>
+        <v>9.3147981389802756E-4</v>
       </c>
       <c r="AL13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>4.1157670814571202E-4</v>
+        <v>4.1157746699525962E-4</v>
       </c>
       <c r="AM13" s="1">
         <v>0</v>
@@ -8472,143 +9547,143 @@
       </c>
       <c r="D14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1866031637863569E-6</v>
+        <v>1.1869127013845913E-6</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.7660126150591678E-6</v>
+        <v>2.7665591258465859E-6</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>5.4399711481032351E-6</v>
+        <v>5.4406992658311566E-6</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0732913968012453E-5</v>
+        <v>1.073384052205329E-5</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.1870038539051069E-5</v>
+        <v>2.1871294088524588E-5</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>4.4903534320216233E-5</v>
+        <v>4.49053177249031E-5</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>9.1292624914768837E-5</v>
+        <v>9.1295176908443419E-5</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8144518553253825E-4</v>
+        <v>1.8144872794655209E-4</v>
       </c>
       <c r="L14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.4801390660788701E-4</v>
+        <v>3.4801846149824924E-4</v>
       </c>
       <c r="M14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>6.4020407523302501E-4</v>
+        <v>6.4020914129340177E-4</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1890271669280504E-3</v>
+        <v>1.1890321679273613E-3</v>
       </c>
       <c r="O14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.3066825181501001E-3</v>
+        <v>2.3066873197078734E-3</v>
       </c>
       <c r="P14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>4.6546247388206058E-3</v>
+        <v>4.6546298724199648E-3</v>
       </c>
       <c r="Q14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>9.4372602143105392E-3</v>
+        <v>9.4372664197821983E-3</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8777225846278181E-2</v>
+        <v>1.8777233871019827E-2</v>
       </c>
       <c r="S14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.5871629490352289E-2</v>
+        <v>3.587163988465656E-2</v>
       </c>
       <c r="T14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>6.3770871830010178E-2</v>
+        <v>6.377088443847187E-2</v>
       </c>
       <c r="U14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.10084177206759418</v>
+        <v>0.10084178517508122</v>
       </c>
       <c r="V14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.14356737118567778</v>
+        <v>0.14356738287337262</v>
       </c>
       <c r="W14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18378966124484369</v>
+        <v>0.18378967077841157</v>
       </c>
       <c r="X14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.20810565046932977</v>
+        <v>0.20810565873327919</v>
       </c>
       <c r="Y14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.21588169722402606</v>
+        <v>0.21588170545215535</v>
       </c>
       <c r="Z14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.20810561735123301</v>
+        <v>0.20810562663535423</v>
       </c>
       <c r="AA14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18378958125135253</v>
+        <v>0.18378959229419722</v>
       </c>
       <c r="AB14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.14356721447124415</v>
+        <v>0.143567227107322</v>
       </c>
       <c r="AC14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.10084148815527787</v>
+        <v>0.1008415005658658</v>
       </c>
       <c r="AD14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>6.377035346452907E-2</v>
+        <v>6.377036362761701E-2</v>
       </c>
       <c r="AE14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.5870631712669188E-2</v>
+        <v>3.5870638762030657E-2</v>
       </c>
       <c r="AF14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8775208011765417E-2</v>
+        <v>1.8775212558527935E-2</v>
       </c>
       <c r="AG14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>9.4331327375270033E-3</v>
+        <v>9.4331356373969066E-3</v>
       </c>
       <c r="AH14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>4.6462732480023602E-3</v>
+        <v>4.6462751731808152E-3</v>
       </c>
       <c r="AI14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.2902227690957235E-3</v>
+        <v>2.2902241539923271E-3</v>
       </c>
       <c r="AJ14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1579424406588097E-3</v>
+        <v>1.1579435026825386E-3</v>
       </c>
       <c r="AK14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>5.8461730340656414E-4</v>
+        <v>5.8461804888783493E-4</v>
       </c>
       <c r="AL14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.4904850288806906E-4</v>
+        <v>2.4904887897077364E-4</v>
       </c>
       <c r="AM14" s="1">
         <v>0</v>
@@ -8751,173 +9826,181 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G18" s="8">
-        <f ca="1">G7-G6</f>
-        <v>-4.9756791925173495E-6</v>
+        <f ca="1">(G7-G6)/0.25</f>
+        <v>-1.9910515144870345E-5</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" ref="H18:K18" ca="1" si="7">H7-H6</f>
-        <v>-9.5547397404881425E-6</v>
+        <f t="shared" ref="H18:K18" ca="1" si="7">(H7-H6)/0.25</f>
+        <v>-3.822882313544739E-5</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>-2.0610589258433942E-5</v>
+        <v>-8.2456972785541368E-5</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>-4.681596439130962E-5</v>
+        <v>-1.8728713929778773E-4</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.1265254278094922E-4</v>
+        <v>-4.506497684758806E-4</v>
       </c>
       <c r="L18" s="8"/>
       <c r="Q18" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="V18" s="8">
+        <f ca="1">(V11-V10)/0.25</f>
+        <v>0.41859029140475235</v>
       </c>
       <c r="W18" s="8">
-        <f ca="1">W11-W10</f>
-        <v>0.36595969701289188</v>
+        <f t="shared" ref="W18:Z18" ca="1" si="8">(W11-W10)/0.25</f>
+        <v>1.4638386573622775</v>
       </c>
       <c r="X18" s="8">
-        <f t="shared" ref="X18:AA18" ca="1" si="8">X11-X10</f>
-        <v>0.30372760644428809</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1.2149103226368325</v>
       </c>
       <c r="Y18" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>0.28866425874395907</v>
+        <v>1.1546569334691403</v>
       </c>
       <c r="Z18" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>0.30372767419455204</v>
-      </c>
-      <c r="AA18" s="8">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.36595987349818526</v>
-      </c>
+        <v>1.2149105772337441</v>
+      </c>
+      <c r="AA18"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G19" s="8">
-        <f ca="1">G7-G8</f>
-        <v>-1.5708294840130249E-5</v>
+        <f ca="1">(G7-G8)/0.25</f>
+        <v>-6.2845877233083495E-5</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" ref="H19:K19" ca="1" si="9">H7-H8</f>
-        <v>-3.1424338933206536E-5</v>
+        <f t="shared" ref="H19:K19" ca="1" si="9">(H7-H8)/0.25</f>
+        <v>-1.2571399948954571E-4</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>-6.5513511681669807E-5</v>
+        <v>-2.6207824368515377E-4</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.3810779278267295E-4</v>
+        <v>-5.524678469315614E-4</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.9409689072535294E-4</v>
+        <v>-1.1764446802620891E-3</v>
       </c>
       <c r="L19" s="8"/>
       <c r="Q19" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="V19" s="8">
+        <f ca="1">(V11-V12)/0.25</f>
+        <v>0.45497622592688169</v>
       </c>
       <c r="W19" s="8">
-        <f ca="1">W11-W12</f>
-        <v>0.37223645456109711</v>
+        <f t="shared" ref="W19:Z19" ca="1" si="10">(W11-W12)/0.25</f>
+        <v>1.4889457559719248</v>
       </c>
       <c r="X19" s="8">
-        <f t="shared" ref="X19:AA19" ca="1" si="10">X11-X12</f>
-        <v>0.30790181319542453</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.2316072074802493</v>
       </c>
       <c r="Y19" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>0.29212203813304005</v>
+        <v>1.1684881087592718</v>
       </c>
       <c r="Z19" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>0.30790185662171132</v>
-      </c>
-      <c r="AA19" s="8">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.37223657408742084</v>
-      </c>
+        <v>1.2316073733167894</v>
+      </c>
+      <c r="AA19"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F20" s="8"/>
       <c r="G20" s="8">
-        <f ca="1">G19+G18</f>
-        <v>-2.06839740326476E-5</v>
+        <f ca="1">SUM(G18:G19)</f>
+        <v>-8.2756392377953837E-5</v>
       </c>
       <c r="H20" s="8">
-        <f t="shared" ref="H20:K20" ca="1" si="11">H19+H18</f>
-        <v>-4.0979078673694677E-5</v>
+        <f t="shared" ref="H20:M20" ca="1" si="11">SUM(H18:H19)</f>
+        <v>-1.6394282262499312E-4</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>-8.6124100940103746E-5</v>
+        <v>-3.4453521647069514E-4</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>-1.8492375717398256E-4</v>
+        <v>-7.3975498622934907E-4</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>-4.0674943350630218E-4</v>
-      </c>
-      <c r="L20" s="8"/>
+        <v>-1.6270944487379697E-3</v>
+      </c>
+      <c r="M20" s="8"/>
       <c r="Q20" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="V20" s="8">
+        <f ca="1">SUM(V18:V19)</f>
+        <v>0.87356651733163404</v>
       </c>
       <c r="W20" s="8">
-        <f ca="1">SUM(W18:W19)</f>
-        <v>0.73819615157398899</v>
+        <f t="shared" ref="W20:Z20" ca="1" si="12">SUM(W18:W19)</f>
+        <v>2.9527844133342023</v>
       </c>
       <c r="X20" s="8">
-        <f t="shared" ref="X20:AA20" ca="1" si="12">SUM(X18:X19)</f>
-        <v>0.61162941963971262</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>2.4465175301170818</v>
       </c>
       <c r="Y20" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.58078629687699912</v>
+        <v>2.3231450422284121</v>
       </c>
       <c r="Z20" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.61162953081626337</v>
-      </c>
-      <c r="AA20" s="8">
-        <f t="shared" ca="1" si="12"/>
-        <v>0.7381964475856061</v>
-      </c>
+        <v>2.4465179505505334</v>
+      </c>
+      <c r="AA20"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="8">
+        <v>5</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6">
         <v>8.8541878128000006E-12</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="6">
         <v>8.8541878128000006E-12</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="6">
         <v>8.8541878128000006E-12</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="6">
         <v>8.8541878128000006E-12</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="6">
         <v>8.8541878128000006E-12</v>
       </c>
-      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
       <c r="Q21" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="V21" s="6">
+        <v>8.8541878128000006E-12</v>
       </c>
       <c r="W21" s="6">
         <v>8.8541878128000006E-12</v>
@@ -8931,141 +10014,191 @@
       <c r="Z21" s="6">
         <v>8.8541878128000006E-12</v>
       </c>
-      <c r="AA21" s="6">
-        <v>8.8541878128000006E-12</v>
-      </c>
+      <c r="AA21"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>7</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F22" s="8"/>
       <c r="G22" s="8">
         <f ca="1">G21*G20</f>
-        <v>-1.8313979080014006E-16</v>
+        <v>-7.3274064082417371E-16</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" ref="H22" ca="1" si="13">H21*H20</f>
-        <v>-3.628364589723998E-16</v>
+        <f t="shared" ref="H22:M22" ca="1" si="13">H21*H20</f>
+        <v>-1.4515805420822462E-15</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" ref="I22" ca="1" si="14">I21*I20</f>
-        <v>-7.6255896493222363E-16</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>-3.050579514755239E-15</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" ref="J22" ca="1" si="15">J21*J20</f>
-        <v>-1.637349677067063E-15</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>-6.5499295835299352E-15</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" ref="K22" ca="1" si="16">K21*K20</f>
-        <v>-3.6014358770148047E-15</v>
-      </c>
-      <c r="L22" s="8"/>
+        <f t="shared" ca="1" si="13"/>
+        <v>-1.4406599838290266E-14</v>
+      </c>
+      <c r="L22" t="s">
+        <v>7</v>
+      </c>
       <c r="Q22" t="s">
+        <v>17</v>
+      </c>
+      <c r="V22" s="8">
+        <f ca="1">V21*V20</f>
+        <v>7.7347220114278951E-12</v>
+      </c>
+      <c r="W22" s="8">
+        <f t="shared" ref="W22:Z22" ca="1" si="14">W21*W20</f>
+        <v>2.6144507766369493E-11</v>
+      </c>
+      <c r="X22" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>2.1661925698964224E-11</v>
+      </c>
+      <c r="Y22" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>2.0569562520265549E-11</v>
+      </c>
+      <c r="Z22" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>2.1661929421560968E-11</v>
+      </c>
+      <c r="AA22" t="s">
         <v>7</v>
-      </c>
-      <c r="W22" s="8">
-        <f ca="1">W21*W20</f>
-        <v>6.5361273687222756E-12</v>
-      </c>
-      <c r="X22" s="8">
-        <f t="shared" ref="X22:AA22" ca="1" si="17">X21*X20</f>
-        <v>5.4154817533238808E-12</v>
-      </c>
-      <c r="Y22" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>5.1423909516495686E-12</v>
-      </c>
-      <c r="Z22" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>5.4154827377019414E-12</v>
-      </c>
-      <c r="AA22" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>6.5361299896647276E-12</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>8</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F23" s="8"/>
       <c r="G23" s="8">
-        <f ca="1">G22*0.25</f>
-        <v>-4.5784947700035014E-17</v>
+        <f ca="1">SUM(G22:H22)/2</f>
+        <v>-1.0921605914532099E-15</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" ref="H23" ca="1" si="18">H22*0.25</f>
-        <v>-9.070911474309995E-17</v>
+        <f t="shared" ref="H23" ca="1" si="15">SUM(H22:I22)/2</f>
+        <v>-2.2510800284187428E-15</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" ref="I23" ca="1" si="19">I22*0.25</f>
-        <v>-1.9063974123305591E-16</v>
+        <f t="shared" ref="I23" ca="1" si="16">SUM(I22:J22)/2</f>
+        <v>-4.8002545491425869E-15</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" ref="J23" ca="1" si="20">J22*0.25</f>
-        <v>-4.0933741926676575E-16</v>
-      </c>
-      <c r="K23" s="8">
-        <f t="shared" ref="K23" ca="1" si="21">K22*0.25</f>
-        <v>-9.0035896925370119E-16</v>
-      </c>
-      <c r="L23" s="8">
-        <f ca="1">SUM(G23:K23)</f>
-        <v>-1.6368301921966579E-15</v>
-      </c>
+        <f t="shared" ref="J23" ca="1" si="17">SUM(J22:K22)/2</f>
+        <v>-1.0478264710910101E-14</v>
+      </c>
+      <c r="K23" s="8"/>
       <c r="Q23" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="V23" s="8">
+        <f ca="1">SUM(V22:W22)/2</f>
+        <v>1.6939614888898696E-11</v>
       </c>
       <c r="W23" s="8">
-        <f ca="1">W22*0.25</f>
-        <v>1.6340318421805689E-12</v>
+        <f t="shared" ref="W23:Y23" ca="1" si="18">SUM(W22:X22)/2</f>
+        <v>2.3903216732666857E-11</v>
       </c>
       <c r="X23" s="8">
-        <f t="shared" ref="X23:AA23" ca="1" si="22">X22*0.25</f>
-        <v>1.3538704383309702E-12</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>2.1115744109614885E-11</v>
       </c>
       <c r="Y23" s="8">
-        <f t="shared" ca="1" si="22"/>
-        <v>1.2855977379123921E-12</v>
-      </c>
-      <c r="Z23" s="8">
-        <f t="shared" ca="1" si="22"/>
-        <v>1.3538706844254853E-12</v>
-      </c>
-      <c r="AA23" s="8">
-        <f t="shared" ca="1" si="22"/>
-        <v>1.6340324974161819E-12</v>
-      </c>
-      <c r="AB23" s="7">
-        <f ca="1">SUM(W23:AA23)</f>
-        <v>7.2614032002655985E-12</v>
-      </c>
+        <f t="shared" ca="1" si="18"/>
+        <v>2.1115745970913261E-11</v>
+      </c>
+      <c r="Z23" s="8"/>
+      <c r="AA23"/>
+      <c r="AB23" s="7"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8">
+        <f ca="1">G23*0.25</f>
+        <v>-2.7304014786330246E-16</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" ref="H24" ca="1" si="19">H23*0.25</f>
+        <v>-5.627700071046857E-16</v>
+      </c>
+      <c r="I24" s="8">
+        <f t="shared" ref="I24" ca="1" si="20">I23*0.25</f>
+        <v>-1.2000636372856467E-15</v>
+      </c>
+      <c r="J24" s="8">
+        <f t="shared" ref="J24" ca="1" si="21">J23*0.25</f>
+        <v>-2.6195661777275252E-15</v>
+      </c>
       <c r="K24" s="8"/>
-      <c r="L24" s="11" t="s">
-        <v>2</v>
+      <c r="L24" s="8">
+        <f ca="1">SUM(G24:K24)</f>
+        <v>-4.6554399699811602E-15</v>
       </c>
       <c r="Q24" t="s">
-        <v>13</v>
-      </c>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="V24" s="8">
+        <f ca="1">V23*0.25</f>
+        <v>4.2349037222246739E-12</v>
+      </c>
+      <c r="W24" s="8">
+        <f t="shared" ref="W24:Y24" ca="1" si="22">W23*0.25</f>
+        <v>5.9758041831667142E-12</v>
+      </c>
+      <c r="X24" s="8">
+        <f t="shared" ca="1" si="22"/>
+        <v>5.2789360274037213E-12</v>
+      </c>
+      <c r="Y24" s="8">
+        <f t="shared" ca="1" si="22"/>
+        <v>5.2789364927283151E-12</v>
+      </c>
       <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="12" t="s">
+      <c r="AA24" s="8">
+        <f ca="1">SUM(V24:Z24)</f>
+        <v>2.0768580425523425E-11</v>
+      </c>
+      <c r="AB24" s="12"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="13">
+        <f ca="1">L24*(-1000000000000000)</f>
+        <v>4.6554399699811606</v>
+      </c>
+      <c r="M25" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" t="s">
         <v>10</v>
       </c>
+      <c r="AA25" s="13">
+        <f ca="1">AA24*1000000000000</f>
+        <v>20.768580425523425</v>
+      </c>
+      <c r="AB25" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>